--- a/4_manuscript/HIF1A_HIF2A_genes.xlsx
+++ b/4_manuscript/HIF1A_HIF2A_genes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="146">
   <si>
     <t>ENSEMBL</t>
   </si>
@@ -26,13 +26,13 @@
     <t>baseMean</t>
   </si>
   <si>
-    <t>Kelly.Hx.Nx.L2FC</t>
+    <t>Kelly.Hx.vs.Nx.log2FoldChange</t>
   </si>
   <si>
     <t>Kelly.Hx.vs.Nx.padj</t>
   </si>
   <si>
-    <t>Hif1a.Hx.Nx.L2FC</t>
+    <t>Hif1a.Hx.vs.Nx.log2FoldChange</t>
   </si>
   <si>
     <t>Hif1a.Hx.vs.Nx.padj</t>
@@ -44,25 +44,25 @@
     <t>Hif2a.Hx.vs.Nx.padj</t>
   </si>
   <si>
-    <t>Hif1a.Kelly.L2FC</t>
+    <t>Hif1aHxNx.vs.KellyHxNx.log2FoldChange</t>
   </si>
   <si>
     <t>Hif1aHxNx.vs.KellyHxNx.padj</t>
   </si>
   <si>
-    <t>Hif2a.Kelly.L2FC</t>
+    <t>Hif2aHxNx.vs.KellyHxNx.log2FoldChange</t>
   </si>
   <si>
     <t>Hif2aHxNx.vs.KellyHxNx.padj</t>
   </si>
   <si>
-    <t>Hif1b.KellyL2FC</t>
+    <t>Hif1bHxNx.vs.KellyHxNx.log2FoldChange</t>
   </si>
   <si>
     <t>Hif1bHxNx.vs.KellyHxNx.padj</t>
   </si>
   <si>
-    <t>Hif2a.Hif1a.L2FC</t>
+    <t>Hif2aHxNx.vs.Hif1aHxNx.log2FoldChange</t>
   </si>
   <si>
     <t>Hif2aHxNx.vs.Hif1aHxNx.padj</t>
@@ -74,109 +74,379 @@
     <t>group</t>
   </si>
   <si>
+    <t>ENSG00000180448</t>
+  </si>
+  <si>
     <t>ENSG00000128285</t>
   </si>
   <si>
+    <t>ENSG00000198626</t>
+  </si>
+  <si>
+    <t>ENSG00000100033</t>
+  </si>
+  <si>
+    <t>ENSG00000277196</t>
+  </si>
+  <si>
     <t>ENSG00000174358</t>
   </si>
   <si>
-    <t>ENSG00000100033</t>
+    <t>ENSG00000145911</t>
+  </si>
+  <si>
+    <t>ENSG00000128594</t>
+  </si>
+  <si>
+    <t>ENSG00000174403</t>
+  </si>
+  <si>
+    <t>ENSG00000197381</t>
+  </si>
+  <si>
+    <t>ENSG00000204392</t>
+  </si>
+  <si>
+    <t>ENSG00000054690</t>
+  </si>
+  <si>
+    <t>ENSG00000184678</t>
+  </si>
+  <si>
+    <t>ENSG00000163328</t>
+  </si>
+  <si>
+    <t>ENSG00000175040</t>
+  </si>
+  <si>
+    <t>ENSG00000037965</t>
+  </si>
+  <si>
+    <t>ENSG00000119283</t>
+  </si>
+  <si>
+    <t>ENSG00000290792</t>
+  </si>
+  <si>
+    <t>ENSG00000223764</t>
+  </si>
+  <si>
+    <t>ENSG00000165973</t>
+  </si>
+  <si>
+    <t>ENSG00000170153</t>
+  </si>
+  <si>
+    <t>ENSG00000156398</t>
+  </si>
+  <si>
+    <t>ENSG00000102996</t>
+  </si>
+  <si>
+    <t>ENSG00000111186</t>
+  </si>
+  <si>
+    <t>ENSG00000111249</t>
+  </si>
+  <si>
+    <t>ENSG00000162415</t>
+  </si>
+  <si>
+    <t>ENSG00000135111</t>
+  </si>
+  <si>
+    <t>ENSG00000026559</t>
+  </si>
+  <si>
+    <t>ENSG00000290791</t>
+  </si>
+  <si>
+    <t>ENSG00000132872</t>
+  </si>
+  <si>
+    <t>ENSG00000106853</t>
+  </si>
+  <si>
+    <t>ENSG00000049246</t>
+  </si>
+  <si>
+    <t>ENSG00000181026</t>
+  </si>
+  <si>
+    <t>ENSG00000118733</t>
+  </si>
+  <si>
+    <t>ENSG00000166949</t>
+  </si>
+  <si>
+    <t>ENSG00000137834</t>
+  </si>
+  <si>
+    <t>ENSG00000079156</t>
+  </si>
+  <si>
+    <t>ENSG00000108784</t>
+  </si>
+  <si>
+    <t>ENSG00000167695</t>
+  </si>
+  <si>
+    <t>ENSG00000015592</t>
+  </si>
+  <si>
+    <t>ENSG00000184232</t>
+  </si>
+  <si>
+    <t>ENSG00000119900</t>
+  </si>
+  <si>
+    <t>ENSG00000121064</t>
+  </si>
+  <si>
+    <t>ENSG00000113657</t>
+  </si>
+  <si>
+    <t>ENSG00000182771</t>
+  </si>
+  <si>
+    <t>ENSG00000196814</t>
+  </si>
+  <si>
+    <t>ENSG00000165655</t>
+  </si>
+  <si>
+    <t>ENSG00000173334</t>
+  </si>
+  <si>
+    <t>ENSG00000182957</t>
+  </si>
+  <si>
+    <t>ENSG00000162616</t>
+  </si>
+  <si>
+    <t>ENSG00000100292</t>
   </si>
   <si>
     <t>ENSG00000109501</t>
   </si>
   <si>
-    <t>ENSG00000102996</t>
-  </si>
-  <si>
-    <t>ENSG00000128594</t>
-  </si>
-  <si>
-    <t>ENSG00000197381</t>
-  </si>
-  <si>
-    <t>ENSG00000145911</t>
-  </si>
-  <si>
-    <t>ENSG00000173334</t>
-  </si>
-  <si>
-    <t>ENSG00000165973</t>
-  </si>
-  <si>
-    <t>ENSG00000054690</t>
-  </si>
-  <si>
-    <t>ENSG00000166949</t>
-  </si>
-  <si>
     <t>ENSG00000180537</t>
   </si>
   <si>
+    <t>ENSG00000205220</t>
+  </si>
+  <si>
+    <t>ENSG00000171992</t>
+  </si>
+  <si>
+    <t>ENSG00000284916</t>
+  </si>
+  <si>
+    <t>ENSG00000108479</t>
+  </si>
+  <si>
     <t>ENSG00000102924</t>
   </si>
   <si>
-    <t>ENSG00000182771</t>
-  </si>
-  <si>
-    <t>ENSG00000156398</t>
+    <t>ENSG00000291677</t>
+  </si>
+  <si>
+    <t>ENSG00000180660</t>
+  </si>
+  <si>
+    <t>ENSG00000163520</t>
+  </si>
+  <si>
+    <t>ENSG00000069482</t>
+  </si>
+  <si>
+    <t>ARHGAP45</t>
   </si>
   <si>
     <t>MCHR1</t>
   </si>
   <si>
+    <t>RYR2</t>
+  </si>
+  <si>
+    <t>PRODH</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>SLC6A19</t>
   </si>
   <si>
-    <t>PRODH</t>
+    <t>N4BP3</t>
+  </si>
+  <si>
+    <t>LRRC4</t>
+  </si>
+  <si>
+    <t>CRMA</t>
+  </si>
+  <si>
+    <t>ADARB1</t>
+  </si>
+  <si>
+    <t>LSM2</t>
+  </si>
+  <si>
+    <t>PLEKHH1</t>
+  </si>
+  <si>
+    <t>H2BC21</t>
+  </si>
+  <si>
+    <t>GPR155</t>
+  </si>
+  <si>
+    <t>CHST2</t>
+  </si>
+  <si>
+    <t>HOXC8</t>
+  </si>
+  <si>
+    <t>TRIM67</t>
+  </si>
+  <si>
+    <t>LINC02593</t>
+  </si>
+  <si>
+    <t>NELL1</t>
+  </si>
+  <si>
+    <t>RNF150</t>
+  </si>
+  <si>
+    <t>SFXN2</t>
+  </si>
+  <si>
+    <t>MMP15</t>
+  </si>
+  <si>
+    <t>WNT5B</t>
+  </si>
+  <si>
+    <t>CUX2</t>
+  </si>
+  <si>
+    <t>ZSWIM5</t>
+  </si>
+  <si>
+    <t>TBX3</t>
+  </si>
+  <si>
+    <t>KCNG1</t>
+  </si>
+  <si>
+    <t>SYT4</t>
+  </si>
+  <si>
+    <t>PTGR1</t>
+  </si>
+  <si>
+    <t>PER3</t>
+  </si>
+  <si>
+    <t>AEN</t>
+  </si>
+  <si>
+    <t>OLFM3</t>
+  </si>
+  <si>
+    <t>SMAD3</t>
+  </si>
+  <si>
+    <t>SMAD6</t>
+  </si>
+  <si>
+    <t>OSBPL6</t>
+  </si>
+  <si>
+    <t>NAGLU</t>
+  </si>
+  <si>
+    <t>TLCD3A</t>
+  </si>
+  <si>
+    <t>STMN4</t>
+  </si>
+  <si>
+    <t>OAF</t>
+  </si>
+  <si>
+    <t>OGFRL1</t>
+  </si>
+  <si>
+    <t>SCPEP1</t>
+  </si>
+  <si>
+    <t>DPYSL3</t>
+  </si>
+  <si>
+    <t>GRID1</t>
+  </si>
+  <si>
+    <t>MVB12B</t>
+  </si>
+  <si>
+    <t>ZNF503</t>
+  </si>
+  <si>
+    <t>TRIB1</t>
+  </si>
+  <si>
+    <t>SPATA13</t>
+  </si>
+  <si>
+    <t>DNAJB4</t>
+  </si>
+  <si>
+    <t>HMOX1</t>
   </si>
   <si>
     <t>WFS1</t>
   </si>
   <si>
-    <t>MMP15</t>
-  </si>
-  <si>
-    <t>LRRC4</t>
-  </si>
-  <si>
-    <t>ADARB1</t>
-  </si>
-  <si>
-    <t>N4BP3</t>
-  </si>
-  <si>
-    <t>TRIB1</t>
-  </si>
-  <si>
-    <t>NELL1</t>
-  </si>
-  <si>
-    <t>PLEKHH1</t>
-  </si>
-  <si>
-    <t>SMAD3</t>
-  </si>
-  <si>
     <t>RNF182</t>
   </si>
   <si>
+    <t>PSMB10</t>
+  </si>
+  <si>
+    <t>SYNPO</t>
+  </si>
+  <si>
+    <t>PSME1</t>
+  </si>
+  <si>
+    <t>GALK1</t>
+  </si>
+  <si>
     <t>CBLN1</t>
   </si>
   <si>
-    <t>GRID1</t>
-  </si>
-  <si>
-    <t>SFXN2</t>
+    <t>PCDHB5</t>
+  </si>
+  <si>
+    <t>MAB21L1</t>
+  </si>
+  <si>
+    <t>FBLN2</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>HIF1A</t>
   </si>
   <si>
     <t>overlap</t>
   </si>
   <si>
     <t>HIF2A</t>
-  </si>
-  <si>
-    <t>HIF1A</t>
   </si>
   <si>
     <t>HIF1A_HIF2A</t>
@@ -301,61 +571,61 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>2847.0</v>
+        <v>23526.0</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>1441.3301732493571</v>
+        <v>1013.0764401274707</v>
       </c>
       <c r="F2" t="n">
-        <v>6.023825946969172</v>
+        <v>6.746462453258137</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0606160325360121E-230</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7856608873327415</v>
+        <v>5.393429055792564</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2018755017616956E-78</v>
+        <v>5.156154139568653E-111</v>
       </c>
       <c r="J2" t="n">
-        <v>4.075472223192893</v>
+        <v>6.244697657198495</v>
       </c>
       <c r="K2" t="n">
-        <v>2.056278066830885E-52</v>
+        <v>1.2162739839648009E-136</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.2381650596364302</v>
+        <v>-1.3530333974655728</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0013832416537372806</v>
+        <v>1.4899352914627456E-4</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.9483537237762794</v>
+        <v>-0.5017647960596422</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8945690639073064E-8</v>
+        <v>0.19539088884963499</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.734332560272405</v>
+        <v>-3.843769913752753</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.601792749174709E-15</v>
+        <v>2.4700661688234634E-31</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.7101886641398493</v>
+        <v>0.8512686014059307</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09714076150861803</v>
+        <v>0.030413899656086367</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -366,61 +636,61 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>340024.0</v>
+        <v>2847.0</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E3" t="n">
-        <v>851.8273168667105</v>
+        <v>1441.3301732493571</v>
       </c>
       <c r="F3" t="n">
-        <v>4.721363402771076</v>
+        <v>6.023825946969172</v>
       </c>
       <c r="G3" t="n">
-        <v>2.4680981731813948E-183</v>
+        <v>1.0606160325360121E-230</v>
       </c>
       <c r="H3" t="n">
-        <v>3.649012024289568</v>
+        <v>4.7856608873327415</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4507955050209784E-58</v>
+        <v>2.2018755017616956E-78</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1523397247038503</v>
+        <v>4.075472223192893</v>
       </c>
       <c r="K3" t="n">
-        <v>1.2205641478566084E-42</v>
+        <v>2.056278066830885E-52</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.072351378481508</v>
+        <v>-1.2381650596364302</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0018034794162570611</v>
+        <v>0.0013832416537372806</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.569023678067226</v>
+        <v>-1.9483537237762794</v>
       </c>
       <c r="O3" t="n">
-        <v>2.0451490693691146E-7</v>
+        <v>1.8945690639073064E-8</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.540163642534963</v>
+        <v>-2.734332560272405</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.582698239401006E-16</v>
+        <v>7.601792749174709E-15</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.496672299585718</v>
+        <v>-0.7101886641398493</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1959232928643602</v>
+        <v>0.09714076150861803</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -431,61 +701,61 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>5625.0</v>
+        <v>6262.0</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>1022.7541325884448</v>
+        <v>551.3850403588032</v>
       </c>
       <c r="F4" t="n">
-        <v>5.247597102839734</v>
+        <v>5.4533589011851005</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9976102744432894E-156</v>
+        <v>2.5313804850935272E-166</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28390129263406</v>
+        <v>5.195640818002939</v>
       </c>
       <c r="I4" t="n">
-        <v>2.144168584185019E-56</v>
+        <v>5.879966700086452E-82</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8180743765387826</v>
+        <v>4.357062222145952</v>
       </c>
       <c r="K4" t="n">
-        <v>1.667980966114021E-43</v>
+        <v>1.0943439503920287E-58</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.9636958102056737</v>
+        <v>-0.2577180831821618</v>
       </c>
       <c r="M4" t="n">
-        <v>0.030503122022116268</v>
+        <v>0.7116298112877155</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.4295227263009513</v>
+        <v>-1.096296679039148</v>
       </c>
       <c r="O4" t="n">
-        <v>1.198806286858407E-4</v>
+        <v>0.0037341647298538764</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.3206167998545806</v>
+        <v>-3.4711435607367465</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.102234077152375E-4</v>
+        <v>1.993232693818929E-20</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.4658269160952777</v>
+        <v>-0.8385785958569861</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3269849320101766</v>
+        <v>0.0543668134295697</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -496,61 +766,61 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>7466.0</v>
+        <v>5625.0</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E5" t="n">
-        <v>1084.7394611448387</v>
+        <v>1022.7541325884448</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8072203012793514</v>
+        <v>5.247597102839734</v>
       </c>
       <c r="G5" t="n">
-        <v>1.258644639339979E-32</v>
+        <v>3.9976102744432894E-156</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.29387280922933906</v>
+        <v>4.28390129263406</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002594471259364068</v>
+        <v>2.144168584185019E-56</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4844818383032184</v>
+        <v>3.8180743765387826</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0192945324835245E-6</v>
+        <v>1.667980966114021E-43</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.1010931105086905</v>
+        <v>-0.9636958102056737</v>
       </c>
       <c r="M5" t="n">
-        <v>3.886325923409007E-19</v>
+        <v>0.030503122022116268</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.2917021395825699</v>
+        <v>-1.4295227263009513</v>
       </c>
       <c r="O5" t="n">
-        <v>3.6028345114173746E-27</v>
+        <v>1.198806286858407E-4</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.344281698358278</v>
+        <v>-1.3206167998545806</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7389378679245117E-26</v>
+        <v>7.102234077152375E-4</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1906090290738793</v>
+        <v>-0.4658269160952777</v>
       </c>
       <c r="S5" t="n">
-        <v>0.23693411436128894</v>
+        <v>0.3269849320101766</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -560,62 +830,62 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="n">
-        <v>4324.0</v>
+      <c r="C6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
-        <v>1266.5604573074534</v>
+        <v>1360.4235277176208</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.159374028371592</v>
+        <v>5.126584861909127</v>
       </c>
       <c r="G6" t="n">
-        <v>6.580452973486733E-96</v>
+        <v>1.4149609016340056E-181</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.4956358982900073</v>
+        <v>4.653468111834633</v>
       </c>
       <c r="I6" t="n">
-        <v>2.076801477256433E-25</v>
+        <v>1.3981337797667766E-79</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.7168215686852764</v>
+        <v>3.858354001785777</v>
       </c>
       <c r="K6" t="n">
-        <v>1.3839807321585159E-6</v>
+        <v>5.62831436292212E-53</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6637381300815843</v>
+        <v>-0.47311675007449405</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0023198297911294834</v>
+        <v>0.3403081404769211</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4425524596863153</v>
+        <v>-1.2682308601233505</v>
       </c>
       <c r="O6" t="n">
-        <v>4.309146327799601E-15</v>
+        <v>1.9013130461157838E-4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7011626291414086</v>
+        <v>-0.8920114836374003</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.931454611190378E-19</v>
+        <v>0.012113530186060047</v>
       </c>
       <c r="R6" t="n">
-        <v>0.7788143296047312</v>
+        <v>-0.7951141100488565</v>
       </c>
       <c r="S6" t="n">
-        <v>3.390414627586998E-4</v>
+        <v>0.04679560136340038</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -626,61 +896,61 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>64101.0</v>
+        <v>340024.0</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
-        <v>700.9073398266594</v>
+        <v>851.8273168667105</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.5871579646264706</v>
+        <v>4.721363402771076</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7503288609953073E-114</v>
+        <v>2.4680981731813948E-183</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.81882954671056</v>
+        <v>3.649012024289568</v>
       </c>
       <c r="I7" t="n">
-        <v>8.833557488481853E-40</v>
+        <v>2.4507955050209784E-58</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.29560695969853</v>
+        <v>3.1523397247038503</v>
       </c>
       <c r="K7" t="n">
-        <v>5.0013628796122924E-27</v>
+        <v>1.2205641478566084E-42</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7683284179159108</v>
+        <v>-1.072351378481508</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02894598036118724</v>
+        <v>0.0018034794162570611</v>
       </c>
       <c r="N7" t="n">
-        <v>1.291551004927941</v>
+        <v>-1.569023678067226</v>
       </c>
       <c r="O7" t="n">
-        <v>6.021160847741608E-6</v>
+        <v>2.0451490693691146E-7</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1791919402050817</v>
+        <v>-2.540163642534963</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.6557794062204936E-14</v>
+        <v>1.582698239401006E-16</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5232225870120302</v>
+        <v>-0.496672299585718</v>
       </c>
       <c r="S7" t="n">
-        <v>0.13662620175396895</v>
+        <v>0.1959232928643602</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -691,61 +961,61 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>104.0</v>
+        <v>23138.0</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E8" t="n">
-        <v>6359.278689720259</v>
+        <v>1053.4473472143802</v>
       </c>
       <c r="F8" t="n">
-        <v>3.186864291180903</v>
+        <v>3.9025378746319297</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>1.1130551016056543E-212</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3172844933083088</v>
+        <v>3.0312546859901834</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2840761274781627E-94</v>
+        <v>5.072650442871943E-68</v>
       </c>
       <c r="J8" t="n">
-        <v>2.095832561433483</v>
+        <v>2.8566775654165117</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6572467830848385E-77</v>
+        <v>2.0275935706620096E-60</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.869579797872594</v>
+        <v>-0.8712831886417466</v>
       </c>
       <c r="M8" t="n">
-        <v>1.9193339810931646E-8</v>
+        <v>8.395800809924839E-4</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.0910317297474201</v>
+        <v>-1.0458603092154182</v>
       </c>
       <c r="O8" t="n">
-        <v>5.741895105256569E-14</v>
+        <v>6.9538052800641694E-6</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.4712561855326256</v>
+        <v>-3.3670552046506996</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.7674313748829013E-62</v>
+        <v>7.654748407554522E-48</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.22145193187482612</v>
+        <v>-0.17457712057367153</v>
       </c>
       <c r="S8" t="n">
-        <v>0.25128698370633795</v>
+        <v>0.5939695991354991</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -756,61 +1026,61 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>23138.0</v>
+        <v>64101.0</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E9" t="n">
-        <v>1053.4473472143802</v>
+        <v>700.9073398266594</v>
       </c>
       <c r="F9" t="n">
-        <v>3.9025378746319297</v>
+        <v>-3.5871579646264706</v>
       </c>
       <c r="G9" t="n">
-        <v>1.1130551016056543E-212</v>
+        <v>1.7503288609953073E-114</v>
       </c>
       <c r="H9" t="n">
-        <v>3.0312546859901834</v>
+        <v>-2.81882954671056</v>
       </c>
       <c r="I9" t="n">
-        <v>5.072650442871943E-68</v>
+        <v>8.833557488481853E-40</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8566775654165117</v>
+        <v>-2.29560695969853</v>
       </c>
       <c r="K9" t="n">
-        <v>2.0275935706620096E-60</v>
+        <v>5.0013628796122924E-27</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.8712831886417466</v>
+        <v>0.7683284179159108</v>
       </c>
       <c r="M9" t="n">
-        <v>8.395800809924839E-4</v>
+        <v>0.02894598036118724</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.0458603092154182</v>
+        <v>1.291551004927941</v>
       </c>
       <c r="O9" t="n">
-        <v>6.9538052800641694E-6</v>
+        <v>6.021160847741608E-6</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.3670552046506996</v>
+        <v>2.1791919402050817</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.654748407554522E-48</v>
+        <v>3.6557794062204936E-14</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.17457712057367153</v>
+        <v>0.5232225870120302</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5939695991354991</v>
+        <v>0.13662620175396895</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -820,62 +1090,62 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="n">
-        <v>10221.0</v>
+      <c r="C10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E10" t="n">
-        <v>783.249398745859</v>
+        <v>926.1105207594358</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.1520854640571456</v>
+        <v>3.54424548003718</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0136307865837653E-34</v>
+        <v>1.2658415854387804E-48</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.5336574518945619</v>
+        <v>3.2264598916953613</v>
       </c>
       <c r="I10" t="n">
-        <v>4.951399828593611E-5</v>
+        <v>1.4631303770637696E-21</v>
       </c>
       <c r="J10" t="n">
-        <v>0.12424836338692932</v>
+        <v>2.5111213176015754</v>
       </c>
       <c r="K10" t="n">
-        <v>0.41236241505889404</v>
+        <v>3.404211722470509E-13</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6184280121625836</v>
+        <v>-0.31778558834181836</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0014336889675887182</v>
+        <v>0.7108169814259206</v>
       </c>
       <c r="N10" t="n">
-        <v>1.276333827444075</v>
+        <v>-1.0331241624356042</v>
       </c>
       <c r="O10" t="n">
-        <v>8.55781943166551E-15</v>
+        <v>0.033521969214059054</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9539064927372889</v>
+        <v>-3.0414528412468624</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.3226902541920446E-8</v>
+        <v>6.286972027253411E-11</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6579058152814913</v>
+        <v>-0.7153385740937858</v>
       </c>
       <c r="S10" t="n">
-        <v>7.597099556088848E-4</v>
+        <v>0.20865752859101716</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -886,61 +1156,61 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>4745.0</v>
+        <v>104.0</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E11" t="n">
-        <v>1629.031865686658</v>
+        <v>6359.278689720259</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.413160064509099</v>
+        <v>3.186864291180903</v>
       </c>
       <c r="G11" t="n">
-        <v>1.807012387102261E-75</v>
+        <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.6884522307590337</v>
+        <v>2.3172844933083088</v>
       </c>
       <c r="I11" t="n">
-        <v>3.733977811909694E-20</v>
+        <v>1.2840761274781627E-94</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.402908821005184</v>
+        <v>2.095832561433483</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2639888368462415E-14</v>
+        <v>5.6572467830848385E-77</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7247078337500653</v>
+        <v>-0.869579797872594</v>
       </c>
       <c r="M11" t="n">
-        <v>0.011980341863152067</v>
+        <v>1.9193339810931646E-8</v>
       </c>
       <c r="N11" t="n">
-        <v>1.0102512435039148</v>
+        <v>-1.0910317297474201</v>
       </c>
       <c r="O11" t="n">
-        <v>3.4016759188139926E-5</v>
+        <v>5.741895105256569E-14</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6286833712245733</v>
+        <v>-2.4712561855326256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.015413612730470996</v>
+        <v>3.7674313748829013E-62</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2855434097538495</v>
+        <v>-0.22145193187482612</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3719024500631107</v>
+        <v>0.25128698370633795</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -951,61 +1221,61 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>57475.0</v>
+        <v>57819.0</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E12" t="n">
-        <v>929.9760859253661</v>
+        <v>1008.0288055638487</v>
       </c>
       <c r="F12" t="n">
-        <v>2.9738392510441063</v>
+        <v>-3.169638512481055</v>
       </c>
       <c r="G12" t="n">
-        <v>7.729243608390566E-133</v>
+        <v>4.65981363804865E-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3646103575563275</v>
+        <v>-1.894920548675768</v>
       </c>
       <c r="I12" t="n">
-        <v>6.05909181710537E-45</v>
+        <v>0.001600132172883212</v>
       </c>
       <c r="J12" t="n">
-        <v>1.878837879819054</v>
+        <v>-1.217724508879665</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1524310498999483E-28</v>
+        <v>0.05899525005302078</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.6092288934877788</v>
+        <v>1.2747179638052868</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02581636522993573</v>
+        <v>0.250399623357985</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.0950013712250521</v>
+        <v>1.95191400360139</v>
       </c>
       <c r="O12" t="n">
-        <v>9.446237183290905E-7</v>
+        <v>0.018340254624117567</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.373751369716341</v>
+        <v>2.992684303041225</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4921379925639239E-25</v>
+        <v>2.0341575755237692E-4</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.48577247773727344</v>
+        <v>0.6771960397961031</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07550655236783838</v>
+        <v>0.5253845098650355</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -1016,61 +1286,61 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>4088.0</v>
+        <v>57475.0</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E13" t="n">
-        <v>835.1041063163015</v>
+        <v>929.9760859253661</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.5732808118722816</v>
+        <v>2.9738392510441063</v>
       </c>
       <c r="G13" t="n">
-        <v>7.365698243558237E-67</v>
+        <v>7.729243608390566E-133</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.9326870457394307</v>
+        <v>2.3646103575563275</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0168542847248731E-13</v>
+        <v>6.05909181710537E-45</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.5177625535547696</v>
+        <v>1.878837879819054</v>
       </c>
       <c r="K13" t="n">
-        <v>7.224375211724969E-5</v>
+        <v>2.1524310498999483E-28</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6405937661328509</v>
+        <v>-0.6092288934877788</v>
       </c>
       <c r="M13" t="n">
-        <v>5.650953411457986E-4</v>
+        <v>0.02581636522993573</v>
       </c>
       <c r="N13" t="n">
-        <v>1.055518258317512</v>
+        <v>-1.0950013712250521</v>
       </c>
       <c r="O13" t="n">
-        <v>7.292261835264292E-11</v>
+        <v>9.446237183290905E-7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5605078527277374</v>
+        <v>-2.373751369716341</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.0102235679639393E-20</v>
+        <v>1.4921379925639239E-25</v>
       </c>
       <c r="R13" t="n">
-        <v>0.41492449218466104</v>
+        <v>-0.48577247773727344</v>
       </c>
       <c r="S13" t="n">
-        <v>0.03600456857509408</v>
+        <v>0.07550655236783838</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -1081,61 +1351,61 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>221687.0</v>
+        <v>8349.0</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E14" t="n">
-        <v>880.1306572250414</v>
+        <v>1252.721528749418</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7969747821607532</v>
+        <v>2.941004482746655</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7859750474708663E-36</v>
+        <v>1.4370413100803753E-213</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.37513914979172813</v>
+        <v>2.876210741786953</v>
       </c>
       <c r="I14" t="n">
-        <v>1.791251827377953E-5</v>
+        <v>7.120284765688407E-108</v>
       </c>
       <c r="J14" t="n">
-        <v>0.421843877981111</v>
+        <v>1.8953912407254645</v>
       </c>
       <c r="K14" t="n">
-        <v>1.934032213529965E-6</v>
+        <v>1.2448500772670566E-46</v>
       </c>
       <c r="L14" t="n">
-        <v>0.42183563236902516</v>
+        <v>-0.06479374095970182</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0011038121697365382</v>
+        <v>0.8681280396454992</v>
       </c>
       <c r="N14" t="n">
-        <v>1.2188186601418642</v>
+        <v>-1.0456132420211905</v>
       </c>
       <c r="O14" t="n">
-        <v>2.11181163502652E-29</v>
+        <v>1.149414529418319E-9</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06790408334295425</v>
+        <v>-1.5025021807504295</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6355551374463301</v>
+        <v>1.2937241925378367E-17</v>
       </c>
       <c r="R14" t="n">
-        <v>0.7969830277728391</v>
+        <v>-0.9808195010614887</v>
       </c>
       <c r="S14" t="n">
-        <v>2.0906354380801547E-10</v>
+        <v>5.321582323374149E-7</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1146,61 +1416,61 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>869.0</v>
+        <v>151556.0</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E15" t="n">
-        <v>1259.6094075355354</v>
+        <v>1424.6213256580907</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3875170835966639</v>
+        <v>2.7680142352515356</v>
       </c>
       <c r="G15" t="n">
-        <v>1.8125372354079763E-6</v>
+        <v>1.5815551940154153E-82</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7434114761171629</v>
+        <v>1.6157899479873432</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1074577753565448E-11</v>
+        <v>1.3502741604435826E-15</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09773616839211757</v>
+        <v>2.4582181391643134</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45978553613806267</v>
+        <v>5.785347179317784E-34</v>
       </c>
       <c r="L15" t="n">
-        <v>1.1309285597138268</v>
+        <v>-1.1522242872641923</v>
       </c>
       <c r="M15" t="n">
-        <v>9.34412221625634E-15</v>
+        <v>7.388966507065614E-5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4852532519887815</v>
+        <v>-0.30979609608722236</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0014055433055158882</v>
+        <v>0.3389960317668062</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8005721775093806</v>
+        <v>-1.8569889239861568</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.828415971506965E-8</v>
+        <v>7.946531080799939E-12</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.6456753077250452</v>
+        <v>0.8424281911769701</v>
       </c>
       <c r="S15" t="n">
-        <v>1.0352571631275177E-4</v>
+        <v>0.007084833849725986</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -1211,61 +1481,61 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>2894.0</v>
+        <v>9435.0</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E16" t="n">
-        <v>2267.7515093794254</v>
+        <v>3517.1654566001325</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.2525678639478324</v>
+        <v>-2.6628291483864848</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2826770532202365E-68</v>
+        <v>1.5049071777946714E-108</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.8969889573605808</v>
+        <v>-2.2912891957184103</v>
       </c>
       <c r="I16" t="n">
-        <v>2.692221992762831E-19</v>
+        <v>2.060468420337693E-42</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.023538680457116858</v>
+        <v>-1.493638379388081</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8572363346009862</v>
+        <v>2.412424748351474E-18</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3555789065872517</v>
+        <v>0.3715399526680741</v>
       </c>
       <c r="M16" t="n">
-        <v>0.028419390685364292</v>
+        <v>0.24462137088669694</v>
       </c>
       <c r="N16" t="n">
-        <v>1.2290291834907157</v>
+        <v>1.1691907689984038</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4407496646833927E-22</v>
+        <v>1.2788893312000107E-7</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3392018673225463</v>
+        <v>1.6088267562324594</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.8791727933266972E-24</v>
+        <v>1.1998199659633127E-12</v>
       </c>
       <c r="R16" t="n">
-        <v>0.873450276903464</v>
+        <v>0.7976508163303297</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2484527253833697E-9</v>
+        <v>0.0020576581270289203</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -1276,61 +1546,3051 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
+        <v>3224.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="n">
+        <v>560.7316663755399</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-2.6234705525472846</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.4491147957083576E-103</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-2.22355753866479</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.501493711485109E-41</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.2994278272869315</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.011367669603473E-15</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3999130138824946</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.19304496780820576</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.3240427252603533</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.839038761226437E-10</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.7506166950370652</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.549603629682385E-15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9241297113778587</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.0727613496391374E-4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>144</v>
+      </c>
+      <c r="U17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="n">
+        <v>440730.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1224.4559186801052</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-2.5896538710216657</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.954857388551793E-67</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-2.16233198818312</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.3174316189098517E-25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1.2670638301802983</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1869921892391354E-9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4273218828385459</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.2871948224935782</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.3225900408413673</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2884925664235385E-6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.211854391320187</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.2832246163348334E-15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.8952681580028213</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.005059031155902478</v>
+      </c>
+      <c r="T18" t="s">
+        <v>144</v>
+      </c>
+      <c r="U18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1790.7289755329514</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.535715520377663</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8.70692801942942E-85</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.135866960959917</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.833524612154203E-32</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.3154815990556898</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.580410662936633E-12</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.39984855941774555</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.24694661066887136</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-1.220233921321973</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.559533149225722E-7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-2.5141629352268677</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.156481116252976E-25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.8203853619042274</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0035036959656915977</v>
+      </c>
+      <c r="T19" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.00130417E8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1552.6198443800818</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.4214305353612713</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.0091557891538258E-50</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1.714628554086393</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.316195215724079E-14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1.0479227441642252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.812780369417075E-6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.7068019812748781</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.06148928449267926</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.373507791197046</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4.1817986642114446E-6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.7154286154129124</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.9520436582003027E-8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6667058099221677</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.06599724181714449</v>
+      </c>
+      <c r="T20" t="s">
+        <v>144</v>
+      </c>
+      <c r="U20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4745.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1629.031865686658</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.413160064509099</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.807012387102261E-75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1.6884522307590337</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.733977811909694E-20</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.402908821005184</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.2639888368462415E-14</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7247078337500653</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.011980341863152067</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.0102512435039148</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.4016759188139926E-5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6286833712245733</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.015413612730470996</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.2855434097538495</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.3719024500631107</v>
+      </c>
+      <c r="T21" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="n">
+        <v>57484.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5231.765497735656</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.379363229750059</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.4696322334560295E-145</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.0325374149688034</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.2913567285385064E-55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.1385305795924074</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.892193799312144E-18</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.3468258147812555</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1306871563136254</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.2408326501576514</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.0575854562914094E-13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-2.008182176587469</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.4722493727481023E-31</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.8940068353763959</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.140187098618907E-6</v>
+      </c>
+      <c r="T22" t="s">
+        <v>144</v>
+      </c>
+      <c r="U22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="n">
         <v>118980.0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="n">
+        <v>858.674761615057</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.169219099914501</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.6277575252590107E-215</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.8040970758460486</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.5430064370641678E-84</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.9929095224226364</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.0355746224771543E-26</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.36512202406845223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.014796505937119297</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.1763095774918646</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.3209552094149117E-23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.6000092139674815</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.2304924996871311E-38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.8111875534234122</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.7051056144627243E-9</v>
+      </c>
+      <c r="T23" t="s">
+        <v>144</v>
+      </c>
+      <c r="U23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4324.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1266.5604573074534</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.159374028371592</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.580452973486733E-96</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.4956358982900073</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.076801477256433E-25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.7168215686852764</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.3839807321585159E-6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6637381300815843</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0023198297911294834</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.4425524596863153</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4.309146327799601E-15</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.7011626291414086</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.931454611190378E-19</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.7788143296047312</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.390414627586998E-4</v>
+      </c>
+      <c r="T24" t="s">
+        <v>144</v>
+      </c>
+      <c r="U24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="n">
+        <v>81029.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="n">
+        <v>681.5857381178641</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.0531153560241475</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.042304979884002E-80</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.6240125302373303</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.720626666537185E-27</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.923686456957619</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.4069972711157057E-9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.42910282578681735</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.10210076309117902</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1.1294288990665287</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.152110551363735E-8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-2.0559703551848467</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.8807933675975426E-24</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.7003260732797113</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0027331844058066253</v>
+      </c>
+      <c r="T25" t="s">
+        <v>144</v>
+      </c>
+      <c r="U25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23316.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2488.929538954633</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-2.0439812564999102</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.686867206855098E-42</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.7772622747819466</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.484407088960071E-17</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1.0376540032110944</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.0182324465864845E-6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2667189817179636</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5825580122759842</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.006327253288816</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4.238936368185296E-4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.66443016026417</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4.9353192666442305E-9</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.7396082715708523</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.026020025171729917</v>
+      </c>
+      <c r="T26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="n">
+        <v>57643.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1832.6140195448575</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.0272756596729278</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.515452944127407E-105</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.0238403480733975</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.3991724316266715E-15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.9306421086570813</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.1641657185949296E-49</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-1.00343531159953</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.8401448139136753E-8</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.09663355101584623</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.6813459408293344</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-1.2694824655285517</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5.415376185861845E-13</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9068017605836839</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.066210113918428E-6</v>
+      </c>
+      <c r="T27" t="s">
+        <v>142</v>
+      </c>
+      <c r="U27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6926.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" t="n">
+        <v>25053.68057344694</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.01681462941033</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.7321092466005868E-88</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.7925980608245846</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.1474835484468381E-36</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9709582448867216</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.6078015575530444E-11</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.22421656858574537</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.45939533962676077</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.0458563845236086</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.694832780734212E-8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.8622473991543507</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9.361384848139223E-6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.8216398159378632</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.294881318900443E-4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>144</v>
+      </c>
+      <c r="U28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3755.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1187.2701663735486</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.953023396358084</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.749672565529303E-29</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.792619355556202</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0014252300774900935</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-1.5222781523750428</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7.378869476878495E-10</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.160404040801882</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.001324614103102844</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.4307452439830412</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.2545714751438063</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.5544193064494763</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.11708335699409937</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.7296587968188408</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.05981505682062654</v>
+      </c>
+      <c r="T29" t="s">
+        <v>142</v>
+      </c>
+      <c r="U29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1296.6872665638286</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.9378506469223742</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.228259957912327E-71</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.620838122453489</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.1592897343733777E-26</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9157291347666026</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.0012020629092076E-9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.31701252446888534</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.27881012263676147</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-1.0221215121557716</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.269856797777559E-7</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-1.8464704965718728</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.151179432093457E-19</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.7051089876868863</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0025585539976262822</v>
+      </c>
+      <c r="T30" t="s">
+        <v>144</v>
+      </c>
+      <c r="U30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6860.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6901.725221904998</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.894824183412973</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.07851764955262E-70</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.496374608313087</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.2130270839310387E-23</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.589962633894513</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.9722635614751642E-4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.398449575099886</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1330868596517937</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.3048615495184601</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.624351655072859E-11</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-1.7249069506461152</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>7.468230296839553E-18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.9064119744185741</v>
+      </c>
+      <c r="S31" t="n">
+        <v>6.14588375606752E-5</v>
+      </c>
+      <c r="T31" t="s">
+        <v>144</v>
+      </c>
+      <c r="U31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>22949.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="n">
+        <v>834.9042614730777</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.844501246408673</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.176101625995359E-107</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.635139983800741</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.5977498870459686E-44</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.7153585634947912</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.773674310756786E-9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.20936126260793206</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.38430141510259136</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.1291426829138818</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.523458052821204E-14</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1.8469151559504398</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.61823880351761E-32</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.9197814203059497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.1846764341813463E-7</v>
+      </c>
+      <c r="T32" t="s">
+        <v>144</v>
+      </c>
+      <c r="U32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="n">
-        <v>858.674761615057</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-2.169219099914501</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.6277575252590107E-215</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-1.8040970758460486</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.5430064370641678E-84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-0.9929095224226364</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.0355746224771543E-26</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.36512202406845223</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.014796505937119297</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.1763095774918646</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3.3209552094149117E-23</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.6000092139674815</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.2304924996871311E-38</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.8111875534234122</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.7051056144627243E-9</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8863.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="n">
+        <v>628.894466218071</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.6092529496575319</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.13350290689942E-44</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-1.2471836754085128</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6.263806333521735E-15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-0.5652253937321169</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7.563299098817226E-4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3620692742490191</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.22820452627670668</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.044027555925415</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6.733116107406565E-7</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.6140829156090544</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4.632125043517218E-14</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.6819582816763959</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.005560626500956917</v>
+      </c>
+      <c r="T33" t="s">
+        <v>144</v>
+      </c>
+      <c r="U33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="n">
+        <v>64782.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4585.054758724314</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1.5971750891322964</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.368227019417194E-47</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1.490989952498975</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.159128835645203E-22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.5572154251682647</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.439125925548952E-4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1061851366333213</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8027505198137411</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.0399596639640316</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.863651413253796E-7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.3703348757831046</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.963171485450625E-11</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.9337745273307104</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.666704176690379E-5</v>
+      </c>
+      <c r="T34" t="s">
+        <v>144</v>
+      </c>
+      <c r="U34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="U17" t="s">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="n">
+        <v>118427.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1822.909685924443</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.5813688427612855</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.6680083845273378E-48</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.541089527659368</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.029878368810897E-4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.2024341140588832</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.43977189834659E-15</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-1.0402793151019176</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.147917701019045E-7</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.37893472870240236</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.08974940281884457</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-2.051379173180788</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.6354873990551078E-24</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.6613445863995152</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.004657474955849814</v>
+      </c>
+      <c r="T35" t="s">
+        <v>142</v>
+      </c>
+      <c r="U35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4088.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="n">
+        <v>835.1041063163015</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-1.5732808118722816</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7.365698243558237E-67</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.9326870457394307</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.0168542847248731E-13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-0.5177625535547696</v>
+      </c>
+      <c r="K36" t="n">
+        <v>7.224375211724969E-5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.6405937661328509</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5.650953411457986E-4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.055518258317512</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7.292261835264292E-11</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.5605078527277374</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.0102235679639393E-20</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.41492449218466104</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.03600456857509408</v>
+      </c>
+      <c r="T36" t="s">
+        <v>144</v>
+      </c>
+      <c r="U36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4091.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1436.153394413429</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-1.5662089669258512</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.3979128404075305E-17</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1.2272554076276116</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.127293261892669E-6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.5315369193538211</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.059376501461233244</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.33895355929823956</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5591253535717575</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.0346720475720301</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.00334504487113067</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.5753227726177463</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6.3216610109230616E-6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6957184882737906</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.0938603272628413</v>
+      </c>
+      <c r="T37" t="s">
+        <v>144</v>
+      </c>
+      <c r="U37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="n">
+        <v>114880.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="n">
+        <v>939.5397990914825</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.5599550111668938</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.575200581415687E-107</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1.5041940487592336</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.2621836003909239E-54</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.5519389163341053</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.8337081109419372E-8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.05576096240766027</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.843358291998904</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.0080160948327885</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.889042831981637E-16</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.0853465730040524</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>6.075452040860389E-17</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.9522551324251283</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.2539186581933661E-11</v>
+      </c>
+      <c r="T38" t="s">
+        <v>144</v>
+      </c>
+      <c r="U38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4669.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1026.1217241418897</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-1.5442622483995896</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.622116851915057E-90</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1.3727788867218786</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7.575937469994703E-39</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.43788477742775866</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.584720746735637E-5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.17148336167771097</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.44527234246116304</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.1063774709718308</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.8896342677300797E-16</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.163828666882254</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.51282861984669E-16</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.9348941092941199</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.4265571173723773E-9</v>
+      </c>
+      <c r="T39" t="s">
+        <v>144</v>
+      </c>
+      <c r="U39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="n">
+        <v>79850.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1585.6217067300674</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.5055665380176844</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.828895050077094E-90</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3730292750012844</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.339944055176197E-4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.3631147943988653</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.5100257343337463E-38</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-1.1325372630164001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.6995283432245364E-16</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.1424517436188191</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.4082041912080354</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.8266178248773957</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5.968799359098485E-9</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.9900855193975808</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.1501005683701373E-10</v>
+      </c>
+      <c r="T40" t="s">
+        <v>142</v>
+      </c>
+      <c r="U40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="n">
+        <v>81551.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3571.1206996269893</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.4999619725439157</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8.215347951519586E-26</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.2137717195082378</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.7097460467102715E-9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4671197823439431</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.03255541286477759</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.28619025303567786</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5166104224423537</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.0328421901999727</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.1854537409220113E-4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-1.1815862542042934</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.5247514141845351E-5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.7466519371642947</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.017227157385199737</v>
+      </c>
+      <c r="T41" t="s">
+        <v>144</v>
+      </c>
+      <c r="U41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="n">
+        <v>220323.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1163.000622731619</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1.4811358263844798</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.0047402572825594E-62</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1.155459717577589</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.181812671288389E-21</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.40339341992828753</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0020117572671943464</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.32567610880689085</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1376158430232607</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.0777424064561922</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.103655953439767E-11</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.712818782987934</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>7.06868015493273E-26</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.7520662976493013</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.698843082719348E-5</v>
+      </c>
+      <c r="T42" t="s">
+        <v>144</v>
+      </c>
+      <c r="U42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="n">
+        <v>79627.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="n">
+        <v>710.4401570476929</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-1.4554088681170154</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.0621291728846095E-37</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.9957504215651516</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.9530682535110545E-10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.29004420734910163</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.09711727444268115</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.45965844655186383</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0885746253799352</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.1653646607679138</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.3538342287711162E-8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.723679736991179</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.0010421170816070635</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.70570621421605</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0034618650600802296</v>
+      </c>
+      <c r="T43" t="s">
+        <v>144</v>
+      </c>
+      <c r="U43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="n">
+        <v>59342.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1648.6434031561676</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-1.4226512110754683</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.052597152262002E-34</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1.7581462526358946</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6.77873916183547E-27</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-2.6858625262571016</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.399171298225838E-59</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.3354950415604265</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.29126519504158177</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.2632113151816335</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.932921221044365E-9</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.49838138180865127</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.03489225136480278</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.9277162736212071</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.939587953445587E-4</v>
+      </c>
+      <c r="T44" t="s">
+        <v>144</v>
+      </c>
+      <c r="U44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1809.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8273.209608046613</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-1.3669587051549348</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.5439460180615666E-48</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-1.276194591104241</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.7588995141925227E-22</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.3654356156448545</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.009947882321480044</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.09076411405069403</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.80182459853446</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.0015230895100804</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.5824361399859374E-9</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.0164526610339415</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.0574168319326142E-8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.9107589754593863</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.285291495440973E-6</v>
+      </c>
+      <c r="T45" t="s">
+        <v>144</v>
+      </c>
+      <c r="U45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2894.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2267.7515093794254</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-1.2525678639478324</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.2826770532202365E-68</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.8969889573605808</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.692221992762831E-19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.023538680457116858</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8572363346009862</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.3555789065872517</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.028419390685364292</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.2290291834907157</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.4407496646833927E-22</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.3392018673225463</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.8791727933266972E-24</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.873450276903464</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.2484527253833697E-9</v>
+      </c>
+      <c r="T46" t="s">
+        <v>144</v>
+      </c>
+      <c r="U46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="n">
+        <v>89853.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1598.1009338466242</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-1.2181625494150794</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.6127005710399684E-36</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.1678330100984433</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.6384230310848185E-18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.20825227929213622</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.17094601889399144</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.05032953931663614</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9043684522568213</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.0099102701229432</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7.82944213621254E-9</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.6486746034539635</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5.041069664252155E-4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.9595807308063069</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.5121933333343165E-6</v>
+      </c>
+      <c r="T47" t="s">
+        <v>144</v>
+      </c>
+      <c r="U47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="n">
+        <v>84858.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2020.50538387354</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-1.1677646373443828</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0158414070160415E-82</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.9776612829489576</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.5491499295436153E-31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.07278232842008596</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.4667056915441399</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.1901033543954252</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.22930208198978685</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.0949823089242967</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.495599106465507E-25</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.9181389614817816</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.2972235185866696E-16</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.9048789545288717</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.0116485696772125E-13</v>
+      </c>
+      <c r="T48" t="s">
+        <v>144</v>
+      </c>
+      <c r="U48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10221.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" t="n">
+        <v>783.249398745859</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-1.1520854640571456</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0136307865837653E-34</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.5336574518945619</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.951399828593611E-5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.12424836338692932</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.41236241505889404</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.6184280121625836</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0014336889675887182</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.276333827444075</v>
+      </c>
+      <c r="O49" t="n">
+        <v>8.55781943166551E-15</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.9539064927372889</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4.3226902541920446E-8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.6579058152814913</v>
+      </c>
+      <c r="S49" t="n">
+        <v>7.597099556088848E-4</v>
+      </c>
+      <c r="T49" t="s">
+        <v>144</v>
+      </c>
+      <c r="U49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="n">
+        <v>221178.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" t="n">
+        <v>751.701017420636</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-1.0458164176405307</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.9688825919137844E-21</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.8544449631734032</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.1370669561070962E-8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.03321316161777139</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.868218379202604</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.19137145446712742</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5855332948781635</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.0126032560227591</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.7573194759482387E-7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.9107032941320827</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.4248125138460358E-5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.8212318015556318</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.2717411088393735E-4</v>
+      </c>
+      <c r="T50" t="s">
+        <v>144</v>
+      </c>
+      <c r="U50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="n">
+        <v>11080.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="n">
+        <v>876.9844568709265</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.965743522883158</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.239485721320185E-16</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8292907603452327</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.651291008236415E-7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.09123935130685112</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.655543522298085</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.13645276253792538</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7513816732270742</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.0569828741900091</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.0770908731967652E-6</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.7067662861754507</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.002232903530229133</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.9205301116520839</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.0366156720095032E-4</v>
+      </c>
+      <c r="T51" t="s">
+        <v>144</v>
+      </c>
+      <c r="U51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3162.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" t="n">
+        <v>975.6906136121385</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8164731052226244</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0012694146365698354</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.3416043372608917</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.3652054452306255</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5918324831389232</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.1282493943591524</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-1.158077442483516</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.04167321151105459</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.2246406220837011</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.7219704859045191</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.7924051227294617</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.071775428686815E-9</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.9334368203998148</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.09764864492288475</v>
+      </c>
+      <c r="T52" t="s">
+        <v>142</v>
+      </c>
+      <c r="U52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7466.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1084.7394611448387</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8072203012793514</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.258644639339979E-32</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-0.29387280922933906</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.002594471259364068</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-0.4844818383032184</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.0192945324835245E-6</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.1010931105086905</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.886325923409007E-19</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.2917021395825699</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3.6028345114173746E-27</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.344281698358278</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.7389378679245117E-26</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.1906090290738793</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.23693411436128894</v>
+      </c>
+      <c r="T53" t="s">
+        <v>143</v>
+      </c>
+      <c r="U53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="n">
+        <v>221687.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="n">
+        <v>880.1306572250414</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.7969747821607532</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.7859750474708663E-36</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.37513914979172813</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.791251827377953E-5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.421843877981111</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.934032213529965E-6</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.42183563236902516</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0011038121697365382</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.2188186601418642</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.11181163502652E-29</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.06790408334295425</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.6355551374463301</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.7969830277728391</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.0906354380801547E-10</v>
+      </c>
+      <c r="T54" t="s">
+        <v>144</v>
+      </c>
+      <c r="U54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5699.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="n">
+        <v>681.7421418202324</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.7546106348206213</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.1490927556393943E-9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-0.7046690338049723</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.2245191170872154E-5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.25413771205254104</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.18971868830544805</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.04994160101564904</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.9276707258310413</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.0087483468731624</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8.427022760718942E-6</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.0128318465505606</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.3631438142806877E-5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.9588067458575132</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.9615575480275144E-4</v>
+      </c>
+      <c r="T55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="n">
+        <v>11346.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3158.0053769744077</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5849706289014959</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.532036499249616E-6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1882446035756217</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.329510776693538</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.6102872434672072</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0012061597529597168</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.39672602532587414</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.23394688355767917</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-1.195257872368703</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2.884774986618334E-7</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-1.1047350188040999</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5.147257618040936E-6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.798531847042829</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.00350526119584512</v>
+      </c>
+      <c r="T56" t="s">
+        <v>144</v>
+      </c>
+      <c r="U56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5720.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1790.4854239924143</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.40498938599144185</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.0028567191220961255</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.706043453126587</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.8289949481105924E-4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.4375782393425325</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.893715965691146E-14</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3010540671351452</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.43825174960515484</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.0325888533510905</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.7181519033122464E-5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.007466392292404211</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.9819828858836356</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.7315347862159453</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.011015931842815858</v>
+      </c>
+      <c r="T57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2584.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1134.5080642074881</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.3979945277240953</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.011319584493829318</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-0.27884284775287577</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.2222308880730355</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.6475759683974119</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0043913055079617975</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.11915167997121963</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8459051562116359</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.0455704961215073</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.665848212333827E-4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.2265301421057988</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.4369669343606643E-5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.9264188161502876</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.0047141773422859435</v>
+      </c>
+      <c r="T58" t="s">
+        <v>144</v>
+      </c>
+      <c r="U58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="n">
+        <v>869.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1259.6094075355354</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.3875170835966639</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.8125372354079763E-6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.7434114761171629</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.1074577753565448E-11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.09773616839211757</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.45978553613806267</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.1309285597138268</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.34412221625634E-15</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.4852532519887815</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.0014055433055158882</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8005721775093806</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>9.828415971506965E-8</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.6456753077250452</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.0352571631275177E-4</v>
+      </c>
+      <c r="T59" t="s">
+        <v>142</v>
+      </c>
+      <c r="U59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="n">
+        <v>26167.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="n">
+        <v>700.5862788752308</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.37764945959847673</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.041756882033044264</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.18843833712558944</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.4926338946660619</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.6545748097170094</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.015069062361432977</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.1892111224728873</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7772148723332853</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-1.0322242693154862</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.0025582835172497623</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-1.2026567894133027</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5.063349271435638E-4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.8430131468425989</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.03209067513943414</v>
+      </c>
+      <c r="T60" t="s">
+        <v>144</v>
+      </c>
+      <c r="U60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4081.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11838.122089236627</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.2634696123650111</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.002730687325789535</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.6480621806091541</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8.583452247938424E-8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1.4714637994723385</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.7500848084606432E-34</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.38459256824414306</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.053242999128068194</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-1.2079941871073274</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.485876167884307E-15</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-1.1268589311601305</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.304903386551792E-12</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-0.8234016188631843</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3.893718793900846E-6</v>
+      </c>
+      <c r="T61" t="s">
+        <v>144</v>
+      </c>
+      <c r="U61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2199.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1001.606722430123</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.2608666686254414</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.039101670996996366</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.5498442998699173</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0015850417381103722</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.3124153837738028</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3.0524418850828825E-14</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.28897763124447595</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.41069448860211255</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.0515487151483616</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.760825034262194E-6</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-0.6697413869911167</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.0050078119574561075</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-0.7625710839038855</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.003510162370859597</v>
+      </c>
+      <c r="T62" t="s">
+        <v>144</v>
+      </c>
+      <c r="U62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="n">
+        <v>51083.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4584.560098969364</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.09769078835266214</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5919007478322666</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-1.396954936238746</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.105039739833457E-9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.5123602862750789</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.043909468366173966</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-1.494645724591408</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4.231382038118903E-6</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.6100510746277411</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.07220617887433693</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.9287695409756382</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.004134140082695598</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.8845946499636669</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.014600453590929896</v>
+      </c>
+      <c r="T63" t="s">
+        <v>142</v>
+      </c>
+      <c r="U63" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/4_manuscript/HIF1A_HIF2A_genes.xlsx
+++ b/4_manuscript/HIF1A_HIF2A_genes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="160">
   <si>
     <t>ENSEMBL</t>
   </si>
@@ -44,6 +44,42 @@
     <t>Hif2a.Hx.vs.Nx.padj</t>
   </si>
   <si>
+    <t>Hx.Hif1a.vs.Kelly.log2FoldChange</t>
+  </si>
+  <si>
+    <t>Hx.Hif1a.vs.Kelly.padj</t>
+  </si>
+  <si>
+    <t>Hx.Hif2a.vs.Kelly.log2FoldChange</t>
+  </si>
+  <si>
+    <t>Hx.Hif2a.vs.Kelly.padj</t>
+  </si>
+  <si>
+    <t>Hx.Hif1b.vs.Kelly.log2FoldChange</t>
+  </si>
+  <si>
+    <t>Hx.Hif1b.vs.Kelly.padj</t>
+  </si>
+  <si>
+    <t>Hx.Hif2a.vs.Hif1a.log2FoldChange</t>
+  </si>
+  <si>
+    <t>Hx.Hif2a.vs.Hif1a.padj</t>
+  </si>
+  <si>
+    <t>Hx.Hif1b.vs.Hif1a.log2FoldChange</t>
+  </si>
+  <si>
+    <t>Hx.Hif1b.vs.Hif1a.padj</t>
+  </si>
+  <si>
+    <t>Hx.Hif1b.vs.Hif2a.log2FoldChange</t>
+  </si>
+  <si>
+    <t>Hx.Hif1b.vs.Hif2a.padj</t>
+  </si>
+  <si>
     <t>Hif1aHxNx.vs.KellyHxNx.log2FoldChange</t>
   </si>
   <si>
@@ -68,6 +104,9 @@
     <t>Hif2aHxNx.vs.Hif1aHxNx.padj</t>
   </si>
   <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>venn</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
   </si>
   <si>
     <t>GAL</t>
+  </si>
+  <si>
+    <t>deg</t>
   </si>
   <si>
     <t>HIF1A</t>
@@ -562,19 +604,58 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>23526.0</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
         <v>1013.0764401274707</v>
@@ -598,48 +679,87 @@
         <v>1.2162739839648009E-136</v>
       </c>
       <c r="L2" t="n">
+        <v>-1.155123838255321</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8.521918962683506E-8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.2544195274435528</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.7675452913752106E-9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-4.020207951530252</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.7128870258011966E-70</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.09929568918823165</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.7305483577037609</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-2.865084113274931</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.1812001253301695E-29</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-2.7657884240866992</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.267230430861759E-27</v>
+      </c>
+      <c r="X2" t="n">
         <v>-1.3530333974655728</v>
       </c>
-      <c r="M2" t="n">
+      <c r="Y2" t="n">
         <v>1.4899352914627456E-4</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Z2" t="n">
         <v>-0.5017647960596422</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AA2" t="n">
         <v>0.19539088884963499</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AB2" t="n">
         <v>-3.843769913752753</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AC2" t="n">
         <v>2.4700661688234634E-31</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AD2" t="n">
         <v>0.8512686014059307</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AE2" t="n">
         <v>0.030413899656086367</v>
       </c>
-      <c r="T2" t="s">
-        <v>142</v>
-      </c>
-      <c r="U2" t="s">
-        <v>145</v>
+      <c r="AF2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>2847.0</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
         <v>1441.3301732493571</v>
@@ -663,48 +783,87 @@
         <v>2.056278066830885E-52</v>
       </c>
       <c r="L3" t="n">
+        <v>-0.5956027060852647</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.020049382860861706</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-3.3032434754257256</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3558919278954633E-49</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-3.36375688863134</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.168844745885348E-42</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-2.707640769340461</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.002173466293521E-26</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-2.768154182546075</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.189674254414743E-23</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.06051341320561423</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8579518006638157</v>
+      </c>
+      <c r="X3" t="n">
         <v>-1.2381650596364302</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Y3" t="n">
         <v>0.0013832416537372806</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Z3" t="n">
         <v>-1.9483537237762794</v>
       </c>
-      <c r="O3" t="n">
+      <c r="AA3" t="n">
         <v>1.8945690639073064E-8</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AB3" t="n">
         <v>-2.734332560272405</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AC3" t="n">
         <v>7.601792749174709E-15</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AD3" t="n">
         <v>-0.7101886641398493</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AE3" t="n">
         <v>0.09714076150861803</v>
       </c>
-      <c r="T3" t="s">
-        <v>143</v>
-      </c>
-      <c r="U3" t="s">
-        <v>145</v>
+      <c r="AF3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>6262.0</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E4" t="n">
         <v>551.3850403588032</v>
@@ -728,48 +887,87 @@
         <v>1.0943439503920287E-58</v>
       </c>
       <c r="L4" t="n">
+        <v>-0.14056002014616867</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6616281149394418</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5787695870182035</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.021013210495153454</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-3.8096697567613145</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.425444486310103E-48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.4382095668720347</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.13014369789972902</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-3.669109736615146</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8.811000875406225E-37</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-3.2309001697431112</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.39011706080902E-28</v>
+      </c>
+      <c r="X4" t="n">
         <v>-0.2577180831821618</v>
       </c>
-      <c r="M4" t="n">
+      <c r="Y4" t="n">
         <v>0.7116298112877155</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Z4" t="n">
         <v>-1.096296679039148</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AA4" t="n">
         <v>0.0037341647298538764</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AB4" t="n">
         <v>-3.4711435607367465</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AC4" t="n">
         <v>1.993232693818929E-20</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AD4" t="n">
         <v>-0.8385785958569861</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AE4" t="n">
         <v>0.0543668134295697</v>
       </c>
-      <c r="T4" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" t="s">
-        <v>145</v>
+      <c r="AF4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
         <v>5625.0</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E5" t="n">
         <v>1022.7541325884448</v>
@@ -793,48 +991,87 @@
         <v>1.667980966114021E-43</v>
       </c>
       <c r="L5" t="n">
+        <v>0.009724610248573958</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9803677516905009</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1.5915540834960307</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.509597591782764E-11</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-2.473834005286382</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.167250516474434E-21</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1.6012786937446046</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.079663290334997E-9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-2.483558615534956</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.7373667909160264E-17</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.8822799217903514</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.004050577957379662</v>
+      </c>
+      <c r="X5" t="n">
         <v>-0.9636958102056737</v>
       </c>
-      <c r="M5" t="n">
+      <c r="Y5" t="n">
         <v>0.030503122022116268</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Z5" t="n">
         <v>-1.4295227263009513</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AA5" t="n">
         <v>1.198806286858407E-4</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AB5" t="n">
         <v>-1.3206167998545806</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AC5" t="n">
         <v>7.102234077152375E-4</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AD5" t="n">
         <v>-0.4658269160952777</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AE5" t="n">
         <v>0.3269849320101766</v>
       </c>
-      <c r="T5" t="s">
-        <v>144</v>
-      </c>
-      <c r="U5" t="s">
-        <v>145</v>
+      <c r="AF5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C6" t="e">
         <v>#N/A</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E6" t="n">
         <v>1360.4235277176208</v>
@@ -858,48 +1095,87 @@
         <v>5.62831436292212E-53</v>
       </c>
       <c r="L6" t="n">
+        <v>-0.06110287393555512</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8500305918979786</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-2.001068819503291</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.350478976919937E-20</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-1.2336302832977983</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.187177426035057E-7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1.939965945567736</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.533082948718615E-15</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-1.1725274093622433</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.3457916272076006E-5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.7674385362054926</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.005946750925863087</v>
+      </c>
+      <c r="X6" t="n">
         <v>-0.47311675007449405</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Y6" t="n">
         <v>0.3403081404769211</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Z6" t="n">
         <v>-1.2682308601233505</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AA6" t="n">
         <v>1.9013130461157838E-4</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AB6" t="n">
         <v>-0.8920114836374003</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AC6" t="n">
         <v>0.012113530186060047</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AD6" t="n">
         <v>-0.7951141100488565</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AE6" t="n">
         <v>0.04679560136340038</v>
       </c>
-      <c r="T6" t="s">
-        <v>144</v>
-      </c>
-      <c r="U6" t="s">
-        <v>145</v>
+      <c r="AF6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>340024.0</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
         <v>851.8273168667105</v>
@@ -923,48 +1199,87 @@
         <v>1.2205641478566084E-42</v>
       </c>
       <c r="L7" t="n">
+        <v>-0.97893762608829</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.656668161132836E-6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.995898391863699</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9.204328768908313E-24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-2.8162188446646645</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.453070795008092E-38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-1.0169607657754092</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.1180026416979274E-5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1.837281218576374</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.673393384167923E-14</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.8203204528009652</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0012780961559337011</v>
+      </c>
+      <c r="X7" t="n">
         <v>-1.072351378481508</v>
       </c>
-      <c r="M7" t="n">
+      <c r="Y7" t="n">
         <v>0.0018034794162570611</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Z7" t="n">
         <v>-1.569023678067226</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AA7" t="n">
         <v>2.0451490693691146E-7</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AB7" t="n">
         <v>-2.540163642534963</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AC7" t="n">
         <v>1.582698239401006E-16</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AD7" t="n">
         <v>-0.496672299585718</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AE7" t="n">
         <v>0.1959232928643602</v>
       </c>
-      <c r="T7" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" t="s">
-        <v>145</v>
+      <c r="AF7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>23138.0</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
         <v>1053.4473472143802</v>
@@ -988,48 +1303,87 @@
         <v>2.0275935706620096E-60</v>
       </c>
       <c r="L8" t="n">
+        <v>-0.8469961101517053</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.470696941640576E-7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.795490777860799</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.901141676745531E-7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-3.074970511692632</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.58224488266263E-74</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.05150533229090631</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8137729178384149</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-2.2279744015409264</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.293961300733212E-32</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-2.279479733831833</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.3415952418241996E-32</v>
+      </c>
+      <c r="X8" t="n">
         <v>-0.8712831886417466</v>
       </c>
-      <c r="M8" t="n">
+      <c r="Y8" t="n">
         <v>8.395800809924839E-4</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Z8" t="n">
         <v>-1.0458603092154182</v>
       </c>
-      <c r="O8" t="n">
+      <c r="AA8" t="n">
         <v>6.9538052800641694E-6</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AB8" t="n">
         <v>-3.3670552046506996</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AC8" t="n">
         <v>7.654748407554522E-48</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AD8" t="n">
         <v>-0.17457712057367153</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AE8" t="n">
         <v>0.5939695991354991</v>
       </c>
-      <c r="T8" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" t="s">
-        <v>145</v>
+      <c r="AF8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
         <v>64101.0</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E9" t="n">
         <v>700.9073398266594</v>
@@ -1053,48 +1407,87 @@
         <v>5.0013628796122924E-27</v>
       </c>
       <c r="L9" t="n">
+        <v>0.7541766252590736</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.687658168757007E-4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.0408365565040265</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6.656182261462704E-26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.616465405564091</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.2309655095127277E-35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.286659931244953</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.6949878972351954E-9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.8622887803050174</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.4070926455017476E-15</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5756288490600645</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.01790710388704308</v>
+      </c>
+      <c r="X9" t="n">
         <v>0.7683284179159108</v>
       </c>
-      <c r="M9" t="n">
+      <c r="Y9" t="n">
         <v>0.02894598036118724</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Z9" t="n">
         <v>1.291551004927941</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AA9" t="n">
         <v>6.021160847741608E-6</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AB9" t="n">
         <v>2.1791919402050817</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AC9" t="n">
         <v>3.6557794062204936E-14</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AD9" t="n">
         <v>0.5232225870120302</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AE9" t="n">
         <v>0.13662620175396895</v>
       </c>
-      <c r="T9" t="s">
-        <v>144</v>
-      </c>
-      <c r="U9" t="s">
-        <v>145</v>
+      <c r="AF9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C10" t="e">
         <v>#N/A</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E10" t="n">
         <v>926.1105207594358</v>
@@ -1118,48 +1511,87 @@
         <v>3.404211722470509E-13</v>
       </c>
       <c r="L10" t="n">
+        <v>-0.20454298341024446</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6130226945490188</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.856866633193815</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.007093169728993259</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-4.917935345678263</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.4012441351864596E-49</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.6523236497835706</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.07558836540231018</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-4.713392362268018</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.271949821816567E-37</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-4.061068712484447</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.336578523084139E-27</v>
+      </c>
+      <c r="X10" t="n">
         <v>-0.31778558834181836</v>
       </c>
-      <c r="M10" t="n">
+      <c r="Y10" t="n">
         <v>0.7108169814259206</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Z10" t="n">
         <v>-1.0331241624356042</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AA10" t="n">
         <v>0.033521969214059054</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AB10" t="n">
         <v>-3.0414528412468624</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AC10" t="n">
         <v>6.286972027253411E-11</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AD10" t="n">
         <v>-0.7153385740937858</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AE10" t="n">
         <v>0.20865752859101716</v>
       </c>
-      <c r="T10" t="s">
-        <v>144</v>
-      </c>
-      <c r="U10" t="s">
-        <v>145</v>
+      <c r="AF10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>104.0</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E11" t="n">
         <v>6359.278689720259</v>
@@ -1183,48 +1615,87 @@
         <v>5.6572467830848385E-77</v>
       </c>
       <c r="L11" t="n">
+        <v>-0.652508165594455</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.861286031458183E-10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.2036762905666551</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8.780073847760554E-34</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-2.8048974623088414</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.143896460878533E-146</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.5511681249722001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.049333364485914E-6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-2.1523892967143863</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9.778695627407494E-70</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-1.6012211717421863</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3.917898306556707E-38</v>
+      </c>
+      <c r="X11" t="n">
         <v>-0.869579797872594</v>
       </c>
-      <c r="M11" t="n">
+      <c r="Y11" t="n">
         <v>1.9193339810931646E-8</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Z11" t="n">
         <v>-1.0910317297474201</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AA11" t="n">
         <v>5.741895105256569E-14</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AB11" t="n">
         <v>-2.4712561855326256</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AC11" t="n">
         <v>3.7674313748829013E-62</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AD11" t="n">
         <v>-0.22145193187482612</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AE11" t="n">
         <v>0.25128698370633795</v>
       </c>
-      <c r="T11" t="s">
-        <v>144</v>
-      </c>
-      <c r="U11" t="s">
-        <v>145</v>
+      <c r="AF11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>57819.0</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E12" t="n">
         <v>1008.0288055638487</v>
@@ -1248,48 +1719,87 @@
         <v>0.05899525005302078</v>
       </c>
       <c r="L12" t="n">
+        <v>1.0357050892668214</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.08908606174003222</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.7522697306031958</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0013091067456770294</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.08286231104995</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.460238585771834E-8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.7165646413363743</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.27838869648105746</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.047157221783128</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0015156050314980157</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.3305925804467542</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.04779983116999042</v>
+      </c>
+      <c r="X12" t="n">
         <v>1.2747179638052868</v>
       </c>
-      <c r="M12" t="n">
+      <c r="Y12" t="n">
         <v>0.250399623357985</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Z12" t="n">
         <v>1.95191400360139</v>
       </c>
-      <c r="O12" t="n">
+      <c r="AA12" t="n">
         <v>0.018340254624117567</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AB12" t="n">
         <v>2.992684303041225</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AC12" t="n">
         <v>2.0341575755237692E-4</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AD12" t="n">
         <v>0.6771960397961031</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AE12" t="n">
         <v>0.5253845098650355</v>
       </c>
-      <c r="T12" t="s">
-        <v>144</v>
-      </c>
-      <c r="U12" t="s">
-        <v>145</v>
+      <c r="AF12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
         <v>57475.0</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E13" t="n">
         <v>929.9760859253661</v>
@@ -1313,48 +1823,87 @@
         <v>2.1524310498999483E-28</v>
       </c>
       <c r="L13" t="n">
+        <v>-0.278382100525726</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.11341329772835305</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.7001044865462227</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4.951295508675268E-6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-2.5160187328259047</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8.226522423463812E-53</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.4217223860204968</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.01829252530319432</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-2.2376366323001786</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.7169656105723225E-34</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-1.815914246279682</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3.2655405019247524E-22</v>
+      </c>
+      <c r="X13" t="n">
         <v>-0.6092288934877788</v>
       </c>
-      <c r="M13" t="n">
+      <c r="Y13" t="n">
         <v>0.02581636522993573</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Z13" t="n">
         <v>-1.0950013712250521</v>
       </c>
-      <c r="O13" t="n">
+      <c r="AA13" t="n">
         <v>9.446237183290905E-7</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
         <v>-2.373751369716341</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AC13" t="n">
         <v>1.4921379925639239E-25</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AD13" t="n">
         <v>-0.48577247773727344</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AE13" t="n">
         <v>0.07550655236783838</v>
       </c>
-      <c r="T13" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" t="s">
-        <v>145</v>
+      <c r="AF13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
         <v>8349.0</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="E14" t="n">
         <v>1252.721528749418</v>
@@ -1378,48 +1927,87 @@
         <v>1.2448500772670566E-46</v>
       </c>
       <c r="L14" t="n">
+        <v>-0.06627548569581496</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6789546390767496</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-1.1935291072081051</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.3468497702139035E-25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.9730462168762178</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.9877859170682644E-14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-1.1272536215122901</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7.795329971834277E-18</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.9067707311804029</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.5787888738317347E-10</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.22048289033188742</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.14968533529600994</v>
+      </c>
+      <c r="X14" t="n">
         <v>-0.06479374095970182</v>
       </c>
-      <c r="M14" t="n">
+      <c r="Y14" t="n">
         <v>0.8681280396454992</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Z14" t="n">
         <v>-1.0456132420211905</v>
       </c>
-      <c r="O14" t="n">
+      <c r="AA14" t="n">
         <v>1.149414529418319E-9</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AB14" t="n">
         <v>-1.5025021807504295</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AC14" t="n">
         <v>1.2937241925378367E-17</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AD14" t="n">
         <v>-0.9808195010614887</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AE14" t="n">
         <v>5.321582323374149E-7</v>
       </c>
-      <c r="T14" t="s">
-        <v>144</v>
-      </c>
-      <c r="U14" t="s">
-        <v>145</v>
+      <c r="AF14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
         <v>151556.0</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E15" t="n">
         <v>1424.6213256580907</v>
@@ -1443,48 +2031,87 @@
         <v>5.785347179317784E-34</v>
       </c>
       <c r="L15" t="n">
+        <v>-1.0535181225293928</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.6968918045817023E-8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.25514197636236974</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.20648206968420119</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-1.6959969489401976</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4.866152281440034E-18</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.798376146167023</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.26590929988858E-4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.6424788264108049</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.004021469288052241</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-1.4408549725778277</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.0443062006489641E-10</v>
+      </c>
+      <c r="X15" t="n">
         <v>-1.1522242872641923</v>
       </c>
-      <c r="M15" t="n">
+      <c r="Y15" t="n">
         <v>7.388966507065614E-5</v>
       </c>
-      <c r="N15" t="n">
+      <c r="Z15" t="n">
         <v>-0.30979609608722236</v>
       </c>
-      <c r="O15" t="n">
+      <c r="AA15" t="n">
         <v>0.3389960317668062</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AB15" t="n">
         <v>-1.8569889239861568</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AC15" t="n">
         <v>7.946531080799939E-12</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AD15" t="n">
         <v>0.8424281911769701</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AE15" t="n">
         <v>0.007084833849725986</v>
       </c>
-      <c r="T15" t="s">
-        <v>142</v>
-      </c>
-      <c r="U15" t="s">
-        <v>145</v>
+      <c r="AF15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
         <v>9435.0</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
         <v>3517.1654566001325</v>
@@ -1508,48 +2135,87 @@
         <v>2.412424748351474E-18</v>
       </c>
       <c r="L16" t="n">
+        <v>0.3675202901599327</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.033293755195575564</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3554845398512301</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.028736380455184847</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.2430596773083624</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.814969551037778E-14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.012035750308702645</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.9570394228310716</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8755393871484295</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1853193482095123E-6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.8875751374571323</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.2886429164726044E-6</v>
+      </c>
+      <c r="X16" t="n">
         <v>0.3715399526680741</v>
       </c>
-      <c r="M16" t="n">
+      <c r="Y16" t="n">
         <v>0.24462137088669694</v>
       </c>
-      <c r="N16" t="n">
+      <c r="Z16" t="n">
         <v>1.1691907689984038</v>
       </c>
-      <c r="O16" t="n">
+      <c r="AA16" t="n">
         <v>1.2788893312000107E-7</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AB16" t="n">
         <v>1.6088267562324594</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AC16" t="n">
         <v>1.1998199659633127E-12</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AD16" t="n">
         <v>0.7976508163303297</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AE16" t="n">
         <v>0.0020576581270289203</v>
       </c>
-      <c r="T16" t="s">
-        <v>144</v>
-      </c>
-      <c r="U16" t="s">
-        <v>145</v>
+      <c r="AF16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
         <v>3224.0</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E17" t="n">
         <v>560.7316663755399</v>
@@ -1573,48 +2239,87 @@
         <v>6.011367669603473E-15</v>
       </c>
       <c r="L17" t="n">
+        <v>0.37899495145242773</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.030183184808396962</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.4059414781907733</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6.995372595836547E-21</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.6115580432083414</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.25193049424598E-23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.0269465267383455</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5110670470493013E-9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.2325630917559136</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.1484702528808407E-11</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.20561656501756803</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.29854994274299834</v>
+      </c>
+      <c r="X17" t="n">
         <v>0.3999130138824946</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Y17" t="n">
         <v>0.19304496780820576</v>
       </c>
-      <c r="N17" t="n">
+      <c r="Z17" t="n">
         <v>1.3240427252603533</v>
       </c>
-      <c r="O17" t="n">
+      <c r="AA17" t="n">
         <v>7.839038761226437E-10</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
         <v>1.7506166950370652</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AC17" t="n">
         <v>3.549603629682385E-15</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AD17" t="n">
         <v>0.9241297113778587</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AE17" t="n">
         <v>2.0727613496391374E-4</v>
       </c>
-      <c r="T17" t="s">
-        <v>144</v>
-      </c>
-      <c r="U17" t="s">
-        <v>145</v>
+      <c r="AF17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
         <v>440730.0</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E18" t="n">
         <v>1224.4559186801052</v>
@@ -1638,48 +2343,87 @@
         <v>2.1869921892391354E-9</v>
       </c>
       <c r="L18" t="n">
+        <v>0.5978782015781287</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0038444353879028784</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.9222414604802234</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.7122007578267818E-25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.5638999277725807</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.774662836058218E-37</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.3243632589020946</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.2681152845254884E-10</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.966021726194452</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8577370442022113E-18</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.6416584672923574</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.006079891472982969</v>
+      </c>
+      <c r="X18" t="n">
         <v>0.4273218828385459</v>
       </c>
-      <c r="M18" t="n">
+      <c r="Y18" t="n">
         <v>0.2871948224935782</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Z18" t="n">
         <v>1.3225900408413673</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AA18" t="n">
         <v>1.2884925664235385E-6</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AB18" t="n">
         <v>2.211854391320187</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AC18" t="n">
         <v>1.2832246163348334E-15</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AD18" t="n">
         <v>0.8952681580028213</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AE18" t="n">
         <v>0.005059031155902478</v>
       </c>
-      <c r="T18" t="s">
-        <v>144</v>
-      </c>
-      <c r="U18" t="s">
-        <v>145</v>
+      <c r="AF18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C19" t="e">
         <v>#N/A</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E19" t="n">
         <v>1790.7289755329514</v>
@@ -1703,48 +2447,87 @@
         <v>1.580410662936633E-12</v>
       </c>
       <c r="L19" t="n">
+        <v>-0.36574629235541556</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.04972840758000055</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-1.1041351647757103</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.2861887396236468E-11</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-2.3464485867084828</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.389280437363643E-40</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.7383888724202946</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8.800278039462426E-5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-1.9807022943530674</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.1394543802742857E-23</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-1.2423134219327725</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.551613461161857E-10</v>
+      </c>
+      <c r="X19" t="n">
         <v>-0.39984855941774555</v>
       </c>
-      <c r="M19" t="n">
+      <c r="Y19" t="n">
         <v>0.24694661066887136</v>
       </c>
-      <c r="N19" t="n">
+      <c r="Z19" t="n">
         <v>-1.220233921321973</v>
       </c>
-      <c r="O19" t="n">
+      <c r="AA19" t="n">
         <v>3.559533149225722E-7</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AB19" t="n">
         <v>-2.5141629352268677</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AC19" t="n">
         <v>3.156481116252976E-25</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AD19" t="n">
         <v>-0.8203853619042274</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AE19" t="n">
         <v>0.0035036959656915977</v>
       </c>
-      <c r="T19" t="s">
-        <v>144</v>
-      </c>
-      <c r="U19" t="s">
-        <v>145</v>
+      <c r="AF19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>1.00130417E8</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E20" t="n">
         <v>1552.6198443800818</v>
@@ -1768,48 +2551,87 @@
         <v>7.812780369417075E-6</v>
       </c>
       <c r="L20" t="n">
+        <v>0.8569708292756895</v>
+      </c>
+      <c r="M20" t="n">
+        <v>7.754196114167723E-5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.6980854652121373</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.148961497475666E-17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.4082737032292372</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.9542202542889163E-10</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.841114635936448</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.3336058990068184E-4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.5513028739535477</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.02912320066835194</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.2898117619829004</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2815173779801998</v>
+      </c>
+      <c r="X20" t="n">
         <v>0.7068019812748781</v>
       </c>
-      <c r="M20" t="n">
+      <c r="Y20" t="n">
         <v>0.06148928449267926</v>
       </c>
-      <c r="N20" t="n">
+      <c r="Z20" t="n">
         <v>1.373507791197046</v>
       </c>
-      <c r="O20" t="n">
+      <c r="AA20" t="n">
         <v>4.1817986642114446E-6</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AB20" t="n">
         <v>1.7154286154129124</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AC20" t="n">
         <v>1.9520436582003027E-8</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AD20" t="n">
         <v>0.6667058099221677</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AE20" t="n">
         <v>0.06599724181714449</v>
       </c>
-      <c r="T20" t="s">
-        <v>144</v>
-      </c>
-      <c r="U20" t="s">
-        <v>145</v>
+      <c r="AF20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
         <v>4745.0</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E21" t="n">
         <v>1629.031865686658</v>
@@ -1833,48 +2655,87 @@
         <v>3.2639888368462415E-14</v>
       </c>
       <c r="L21" t="n">
+        <v>-0.16648356314846327</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.43052247757232665</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.992004484034615</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.11478440591256E-35</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.5003852276859517</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4.927657901315285E-17</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.1584880471830785</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.971968853569318E-32</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.6668687908344149</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5.4690856859025216E-17</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.49161925634866327</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.01821859492345375</v>
+      </c>
+      <c r="X21" t="n">
         <v>0.7247078337500653</v>
       </c>
-      <c r="M21" t="n">
+      <c r="Y21" t="n">
         <v>0.011980341863152067</v>
       </c>
-      <c r="N21" t="n">
+      <c r="Z21" t="n">
         <v>1.0102512435039148</v>
       </c>
-      <c r="O21" t="n">
+      <c r="AA21" t="n">
         <v>3.4016759188139926E-5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AB21" t="n">
         <v>0.6286833712245733</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AC21" t="n">
         <v>0.015413612730470996</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AD21" t="n">
         <v>0.2855434097538495</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AE21" t="n">
         <v>0.3719024500631107</v>
       </c>
-      <c r="T21" t="s">
-        <v>144</v>
-      </c>
-      <c r="U21" t="s">
-        <v>145</v>
+      <c r="AF21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
         <v>57484.0</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E22" t="n">
         <v>5231.765497735656</v>
@@ -1898,48 +2759,87 @@
         <v>6.892193799312144E-18</v>
       </c>
       <c r="L22" t="n">
+        <v>0.07989162460038775</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6079002414514281</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.10138297147153</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.144876114468921E-21</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-2.2594313399086006</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.9193193168033354E-72</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-1.1812745960719175</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.8032732588055373E-19</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-2.3393229645089884</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.7985714466729082E-62</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-1.1580483684370706</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.1580814904711582E-15</v>
+      </c>
+      <c r="X22" t="n">
         <v>-0.3468258147812555</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="n">
         <v>0.1306871563136254</v>
       </c>
-      <c r="N22" t="n">
+      <c r="Z22" t="n">
         <v>-1.2408326501576514</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AA22" t="n">
         <v>1.0575854562914094E-13</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AB22" t="n">
         <v>-2.008182176587469</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AC22" t="n">
         <v>2.4722493727481023E-31</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AD22" t="n">
         <v>-0.8940068353763959</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AE22" t="n">
         <v>4.140187098618907E-6</v>
       </c>
-      <c r="T22" t="s">
-        <v>144</v>
-      </c>
-      <c r="U22" t="s">
-        <v>145</v>
+      <c r="AF22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
         <v>118980.0</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E23" t="n">
         <v>858.674761615057</v>
@@ -1963,48 +2863,87 @@
         <v>1.0355746224771543E-26</v>
       </c>
       <c r="L23" t="n">
+        <v>0.37553371399788393</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6.598144849327173E-5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9716060244372292</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.248939748678002E-30</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.7337764151840687</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.811040636250956E-79</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.5960723104393453</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6.006604267726898E-10</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.3582427011861848</v>
+      </c>
+      <c r="U23" t="n">
+        <v>5.946067248345055E-41</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.7621703907468396</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.31303842073573E-13</v>
+      </c>
+      <c r="X23" t="n">
         <v>0.36512202406845223</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="n">
         <v>0.014796505937119297</v>
       </c>
-      <c r="N23" t="n">
+      <c r="Z23" t="n">
         <v>1.1763095774918646</v>
       </c>
-      <c r="O23" t="n">
+      <c r="AA23" t="n">
         <v>3.3209552094149117E-23</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AB23" t="n">
         <v>1.6000092139674815</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AC23" t="n">
         <v>1.2304924996871311E-38</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AD23" t="n">
         <v>0.8111875534234122</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AE23" t="n">
         <v>2.7051056144627243E-9</v>
       </c>
-      <c r="T23" t="s">
-        <v>144</v>
-      </c>
-      <c r="U23" t="s">
-        <v>145</v>
+      <c r="AF23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C24" t="n">
         <v>4324.0</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E24" t="n">
         <v>1266.5604573074534</v>
@@ -2028,48 +2967,87 @@
         <v>1.3839807321585159E-6</v>
       </c>
       <c r="L24" t="n">
+        <v>0.5027406317785417</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.71691858155842E-4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.3487750150952884</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.611165633188638E-26</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.202911186693273</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.8292928324299064E-56</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.8460343833167469</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8.523269260676718E-9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.7001705549147317</v>
+      </c>
+      <c r="U24" t="n">
+        <v>6.933234750721543E-28</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.8541361715979849</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7.491113597680319E-8</v>
+      </c>
+      <c r="X24" t="n">
         <v>0.6637381300815843</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="n">
         <v>0.0023198297911294834</v>
       </c>
-      <c r="N24" t="n">
+      <c r="Z24" t="n">
         <v>1.4425524596863153</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AA24" t="n">
         <v>4.309146327799601E-15</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AB24" t="n">
         <v>1.7011626291414086</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AC24" t="n">
         <v>5.931454611190378E-19</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AD24" t="n">
         <v>0.7788143296047312</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AE24" t="n">
         <v>3.390414627586998E-4</v>
       </c>
-      <c r="T24" t="s">
-        <v>144</v>
-      </c>
-      <c r="U24" t="s">
-        <v>145</v>
+      <c r="AF24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C25" t="n">
         <v>81029.0</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E25" t="n">
         <v>681.5857381178641</v>
@@ -2093,48 +3071,87 @@
         <v>3.4069972711157057E-9</v>
       </c>
       <c r="L25" t="n">
+        <v>-0.9915111631877895</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.984017941712844E-13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-1.5099287964384212</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4.90158261576622E-30</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-1.7326875616188055</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.693249714298855E-32</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.5184176332506318</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.860555330041894E-4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-0.7411763984310159</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8.08589255487031E-6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.22275876518038418</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.2149687482713708</v>
+      </c>
+      <c r="X25" t="n">
         <v>-0.42910282578681735</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="n">
         <v>0.10210076309117902</v>
       </c>
-      <c r="N25" t="n">
+      <c r="Z25" t="n">
         <v>-1.1294288990665287</v>
       </c>
-      <c r="O25" t="n">
+      <c r="AA25" t="n">
         <v>1.152110551363735E-8</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AB25" t="n">
         <v>-2.0559703551848467</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AC25" t="n">
         <v>1.8807933675975426E-24</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AD25" t="n">
         <v>-0.7003260732797113</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AE25" t="n">
         <v>0.0027331844058066253</v>
       </c>
-      <c r="T25" t="s">
-        <v>144</v>
-      </c>
-      <c r="U25" t="s">
-        <v>145</v>
+      <c r="AF25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C26" t="n">
         <v>23316.0</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E26" t="n">
         <v>2488.929538954633</v>
@@ -2158,48 +3175,87 @@
         <v>2.0182324465864845E-6</v>
       </c>
       <c r="L26" t="n">
+        <v>0.5042515713887431</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.017749928508658214</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.657152239287552</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8.645908704561828E-19</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.582266947723194</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.3743236397189337E-14</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.152900667898809</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8.502765599454432E-8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.0780153763344513</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.931555883715297E-6</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.07488529156435766</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.7820230235965094</v>
+      </c>
+      <c r="X26" t="n">
         <v>0.2667189817179636</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="n">
         <v>0.5825580122759842</v>
       </c>
-      <c r="N26" t="n">
+      <c r="Z26" t="n">
         <v>1.006327253288816</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AA26" t="n">
         <v>4.238936368185296E-4</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AB26" t="n">
         <v>1.66443016026417</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AC26" t="n">
         <v>4.9353192666442305E-9</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AD26" t="n">
         <v>0.7396082715708523</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AE26" t="n">
         <v>0.026020025171729917</v>
       </c>
-      <c r="T26" t="s">
-        <v>144</v>
-      </c>
-      <c r="U26" t="s">
-        <v>145</v>
+      <c r="AF26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C27" t="n">
         <v>57643.0</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E27" t="n">
         <v>1832.6140195448575</v>
@@ -2223,48 +3279,87 @@
         <v>1.1641657185949296E-49</v>
       </c>
       <c r="L27" t="n">
+        <v>-0.9507401155838276</v>
+      </c>
+      <c r="M27" t="n">
+        <v>8.549031945162383E-16</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.17084856569226625</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.18913406795684534</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-1.5740316297812322</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.6295436630638343E-35</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.7798915498915613</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.841398613296406E-9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.6232915141974047</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.3601626851422212E-5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-1.4031830640889662</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.7805898307679415E-22</v>
+      </c>
+      <c r="X27" t="n">
         <v>-1.00343531159953</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="n">
         <v>1.8401448139136753E-8</v>
       </c>
-      <c r="N27" t="n">
+      <c r="Z27" t="n">
         <v>-0.09663355101584623</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AA27" t="n">
         <v>0.6813459408293344</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AB27" t="n">
         <v>-1.2694824655285517</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="AC27" t="n">
         <v>5.415376185861845E-13</v>
       </c>
-      <c r="R27" t="n">
+      <c r="AD27" t="n">
         <v>0.9068017605836839</v>
       </c>
-      <c r="S27" t="n">
+      <c r="AE27" t="n">
         <v>3.066210113918428E-6</v>
       </c>
-      <c r="T27" t="s">
-        <v>142</v>
-      </c>
-      <c r="U27" t="s">
-        <v>145</v>
+      <c r="AF27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C28" t="n">
         <v>6926.0</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E28" t="n">
         <v>25053.68057344694</v>
@@ -2288,48 +3383,87 @@
         <v>2.6078015575530444E-11</v>
       </c>
       <c r="L28" t="n">
+        <v>-0.09456913537129212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5753873905063992</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.9664273489755483</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.7194750048944116E-14</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-1.1606009143874987</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4.991524453204577E-17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.8718582136042562</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.7307755898528378E-9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-1.0660317790162066</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5.346438194360247E-12</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.19417356541195044</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.2509480052526479</v>
+      </c>
+      <c r="X28" t="n">
         <v>-0.22421656858574537</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="n">
         <v>0.45939533962676077</v>
       </c>
-      <c r="N28" t="n">
+      <c r="Z28" t="n">
         <v>-1.0458563845236086</v>
       </c>
-      <c r="O28" t="n">
+      <c r="AA28" t="n">
         <v>1.694832780734212E-8</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AB28" t="n">
         <v>-0.8622473991543507</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="AC28" t="n">
         <v>9.361384848139223E-6</v>
       </c>
-      <c r="R28" t="n">
+      <c r="AD28" t="n">
         <v>-0.8216398159378632</v>
       </c>
-      <c r="S28" t="n">
+      <c r="AE28" t="n">
         <v>1.294881318900443E-4</v>
       </c>
-      <c r="T28" t="s">
-        <v>144</v>
-      </c>
-      <c r="U28" t="s">
-        <v>145</v>
+      <c r="AF28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C29" t="n">
         <v>3755.0</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E29" t="n">
         <v>1187.2701663735486</v>
@@ -2353,48 +3487,87 @@
         <v>7.378869476878495E-10</v>
       </c>
       <c r="L29" t="n">
+        <v>-0.04430441330713311</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8926151533784328</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5593180332660259</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.015258174262902702</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.048191556962894</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.7232551086894242E-18</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.603622446573159</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.01932257703977874</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.0924959702700274</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.272733485973491E-15</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.4888735236968682</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2.462630953503279E-8</v>
+      </c>
+      <c r="X29" t="n">
         <v>1.160404040801882</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="n">
         <v>0.001324614103102844</v>
       </c>
-      <c r="N29" t="n">
+      <c r="Z29" t="n">
         <v>0.4307452439830412</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AA29" t="n">
         <v>0.2545714751438063</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AB29" t="n">
         <v>0.5544193064494763</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="AC29" t="n">
         <v>0.11708335699409937</v>
       </c>
-      <c r="R29" t="n">
+      <c r="AD29" t="n">
         <v>-0.7296587968188408</v>
       </c>
-      <c r="S29" t="n">
+      <c r="AE29" t="n">
         <v>0.05981505682062654</v>
       </c>
-      <c r="T29" t="s">
-        <v>142</v>
-      </c>
-      <c r="U29" t="s">
-        <v>145</v>
+      <c r="AF29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C30" t="e">
         <v>#N/A</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E30" t="n">
         <v>1296.6872665638286</v>
@@ -2418,48 +3591,87 @@
         <v>5.0012020629092076E-9</v>
       </c>
       <c r="L30" t="n">
+        <v>-0.20854799414023173</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.20044731382375988</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-1.0235050010566855</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.18190085179245E-14</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-1.8050717023346168</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.077788638897474E-34</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.8149570069164538</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.459698083688623E-7</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-1.5965237081943853</v>
+      </c>
+      <c r="U30" t="n">
+        <v>3.7431158602296705E-22</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.7815667012779313</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4.218000489245416E-6</v>
+      </c>
+      <c r="X30" t="n">
         <v>-0.31701252446888534</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="n">
         <v>0.27881012263676147</v>
       </c>
-      <c r="N30" t="n">
+      <c r="Z30" t="n">
         <v>-1.0221215121557716</v>
       </c>
-      <c r="O30" t="n">
+      <c r="AA30" t="n">
         <v>3.269856797777559E-7</v>
       </c>
-      <c r="P30" t="n">
+      <c r="AB30" t="n">
         <v>-1.8464704965718728</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="AC30" t="n">
         <v>1.151179432093457E-19</v>
       </c>
-      <c r="R30" t="n">
+      <c r="AD30" t="n">
         <v>-0.7051089876868863</v>
       </c>
-      <c r="S30" t="n">
+      <c r="AE30" t="n">
         <v>0.0025585539976262822</v>
       </c>
-      <c r="T30" t="s">
-        <v>144</v>
-      </c>
-      <c r="U30" t="s">
-        <v>145</v>
+      <c r="AF30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
         <v>6860.0</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E31" t="n">
         <v>6901.725221904998</v>
@@ -2483,48 +3695,87 @@
         <v>1.9722635614751642E-4</v>
       </c>
       <c r="L31" t="n">
+        <v>-0.2336931902165568</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.14153459055057188</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.473772924721762</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9.292020781372832E-29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-1.8097388426816088</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.7899419041146006E-35</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-1.240079734505205</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.838105914693129E-16</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1.576045652465052</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3.5138552897621265E-22</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.3359659179598469</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.05293539394299776</v>
+      </c>
+      <c r="X31" t="n">
         <v>-0.398449575099886</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="n">
         <v>0.1330868596517937</v>
       </c>
-      <c r="N31" t="n">
+      <c r="Z31" t="n">
         <v>-1.3048615495184601</v>
       </c>
-      <c r="O31" t="n">
+      <c r="AA31" t="n">
         <v>1.624351655072859E-11</v>
       </c>
-      <c r="P31" t="n">
+      <c r="AB31" t="n">
         <v>-1.7249069506461152</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="AC31" t="n">
         <v>7.468230296839553E-18</v>
       </c>
-      <c r="R31" t="n">
+      <c r="AD31" t="n">
         <v>-0.9064119744185741</v>
       </c>
-      <c r="S31" t="n">
+      <c r="AE31" t="n">
         <v>6.14588375606752E-5</v>
       </c>
-      <c r="T31" t="s">
-        <v>144</v>
-      </c>
-      <c r="U31" t="s">
-        <v>145</v>
+      <c r="AF31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
         <v>22949.0</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E32" t="n">
         <v>834.9042614730777</v>
@@ -2548,48 +3799,87 @@
         <v>2.773674310756786E-9</v>
       </c>
       <c r="L32" t="n">
+        <v>-0.7358516803979316</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.8001271260567455E-12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.0305061712747725</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.2567851740841256E-23</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-1.6177884992015394</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.1633188628547332E-45</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.2946544908768411</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.01743532216952417</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-0.881936818803608</v>
+      </c>
+      <c r="U32" t="n">
+        <v>5.397091215706118E-12</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-0.5872823279267668</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7.599753557056546E-6</v>
+      </c>
+      <c r="X32" t="n">
         <v>-0.20936126260793206</v>
       </c>
-      <c r="M32" t="n">
+      <c r="Y32" t="n">
         <v>0.38430141510259136</v>
       </c>
-      <c r="N32" t="n">
+      <c r="Z32" t="n">
         <v>-1.1291426829138818</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AA32" t="n">
         <v>5.523458052821204E-14</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AB32" t="n">
         <v>-1.8469151559504398</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="AC32" t="n">
         <v>2.61823880351761E-32</v>
       </c>
-      <c r="R32" t="n">
+      <c r="AD32" t="n">
         <v>-0.9197814203059497</v>
       </c>
-      <c r="S32" t="n">
+      <c r="AE32" t="n">
         <v>1.1846764341813463E-7</v>
       </c>
-      <c r="T32" t="s">
-        <v>144</v>
-      </c>
-      <c r="U32" t="s">
-        <v>145</v>
+      <c r="AF32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C33" t="n">
         <v>8863.0</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E33" t="n">
         <v>628.894466218071</v>
@@ -2613,48 +3903,87 @@
         <v>7.563299098817226E-4</v>
       </c>
       <c r="L33" t="n">
+        <v>0.33143536386869965</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.04628595902956358</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.1066966853037927</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.3919779810404466E-14</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.419236028348596</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.1267753526626047E-19</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7752613214350931</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.3216217123516325E-6</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.0878006644798965</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3.992011529194291E-10</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.31253934304480335</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.09057538710533093</v>
+      </c>
+      <c r="X33" t="n">
         <v>0.3620692742490191</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="n">
         <v>0.22820452627670668</v>
       </c>
-      <c r="N33" t="n">
+      <c r="Z33" t="n">
         <v>1.044027555925415</v>
       </c>
-      <c r="O33" t="n">
+      <c r="AA33" t="n">
         <v>6.733116107406565E-7</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AB33" t="n">
         <v>1.6140829156090544</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="AC33" t="n">
         <v>4.632125043517218E-14</v>
       </c>
-      <c r="R33" t="n">
+      <c r="AD33" t="n">
         <v>0.6819582816763959</v>
       </c>
-      <c r="S33" t="n">
+      <c r="AE33" t="n">
         <v>0.005560626500956917</v>
       </c>
-      <c r="T33" t="s">
-        <v>144</v>
-      </c>
-      <c r="U33" t="s">
-        <v>145</v>
+      <c r="AF33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C34" t="n">
         <v>64782.0</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E34" t="n">
         <v>4585.054758724314</v>
@@ -2678,48 +4007,87 @@
         <v>6.439125925548952E-4</v>
       </c>
       <c r="L34" t="n">
+        <v>0.11474043829073326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5264189516271318</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.750034082660258</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8.604021411368866E-8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.4277213735235448</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.759117245211378E-21</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.6352936443695246</v>
+      </c>
+      <c r="S34" t="n">
+        <v>7.040255872963993E-5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.3129809352328115</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4.4049400645514E-15</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.6776872908632868</v>
+      </c>
+      <c r="W34" t="n">
+        <v>8.382829213842788E-5</v>
+      </c>
+      <c r="X34" t="n">
         <v>0.1061851366333213</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="n">
         <v>0.8027505198137411</v>
       </c>
-      <c r="N34" t="n">
+      <c r="Z34" t="n">
         <v>1.0399596639640316</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AA34" t="n">
         <v>2.863651413253796E-7</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AB34" t="n">
         <v>1.3703348757831046</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="AC34" t="n">
         <v>3.963171485450625E-11</v>
       </c>
-      <c r="R34" t="n">
+      <c r="AD34" t="n">
         <v>0.9337745273307104</v>
       </c>
-      <c r="S34" t="n">
+      <c r="AE34" t="n">
         <v>5.666704176690379E-5</v>
       </c>
-      <c r="T34" t="s">
-        <v>144</v>
-      </c>
-      <c r="U34" t="s">
-        <v>145</v>
+      <c r="AF34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
         <v>118427.0</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E35" t="n">
         <v>1822.909685924443</v>
@@ -2743,48 +4111,87 @@
         <v>4.43977189834659E-15</v>
       </c>
       <c r="L35" t="n">
+        <v>-1.4768652020721458</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8.558850810563696E-28</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.22676614976944723</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1279434355464819</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-1.4749579015712206</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.2226232739841563E-23</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.7036313518415929</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.9474544477957476E-29</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0019073005009251217</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.9925388524176944</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-1.701724051340668</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.6174222523646919E-24</v>
+      </c>
+      <c r="X35" t="n">
         <v>-1.0402793151019176</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="n">
         <v>8.147917701019045E-7</v>
       </c>
-      <c r="N35" t="n">
+      <c r="Z35" t="n">
         <v>-0.37893472870240236</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AA35" t="n">
         <v>0.08974940281884457</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AB35" t="n">
         <v>-2.051379173180788</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="AC35" t="n">
         <v>1.6354873990551078E-24</v>
       </c>
-      <c r="R35" t="n">
+      <c r="AD35" t="n">
         <v>0.6613445863995152</v>
       </c>
-      <c r="S35" t="n">
+      <c r="AE35" t="n">
         <v>0.004657474955849814</v>
       </c>
-      <c r="T35" t="s">
-        <v>142</v>
-      </c>
-      <c r="U35" t="s">
-        <v>145</v>
+      <c r="AF35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C36" t="n">
         <v>4088.0</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E36" t="n">
         <v>835.1041063163015</v>
@@ -2808,48 +4215,87 @@
         <v>7.224375211724969E-5</v>
       </c>
       <c r="L36" t="n">
+        <v>0.603876609827583</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.280849669158497E-7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.0539545138394877</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6.567876337581481E-21</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.315104215025815</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9.918767987285396E-27</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.4500779040119048</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.657566081817969E-4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.711227605198232</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.0650259094514533E-7</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.26114970118632724</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.0709913741414881</v>
+      </c>
+      <c r="X36" t="n">
         <v>0.6405937661328509</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="n">
         <v>5.650953411457986E-4</v>
       </c>
-      <c r="N36" t="n">
+      <c r="Z36" t="n">
         <v>1.055518258317512</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AA36" t="n">
         <v>7.292261835264292E-11</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AB36" t="n">
         <v>1.5605078527277374</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="AC36" t="n">
         <v>1.0102235679639393E-20</v>
       </c>
-      <c r="R36" t="n">
+      <c r="AD36" t="n">
         <v>0.41492449218466104</v>
       </c>
-      <c r="S36" t="n">
+      <c r="AE36" t="n">
         <v>0.03600456857509408</v>
       </c>
-      <c r="T36" t="s">
-        <v>144</v>
-      </c>
-      <c r="U36" t="s">
-        <v>145</v>
+      <c r="AF36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
         <v>4091.0</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E37" t="n">
         <v>1436.153394413429</v>
@@ -2873,48 +4319,87 @@
         <v>0.059376501461233244</v>
       </c>
       <c r="L37" t="n">
+        <v>0.6020568242125728</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.019595706745883065</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7592034898264378</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0014573589527025505</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.252810481512636</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6.066928372253092E-7</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.15714666561386503</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6099288238082535</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.6507536573000633</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.022618599060046183</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.49360699168619815</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.09611775296732193</v>
+      </c>
+      <c r="X37" t="n">
         <v>0.33895355929823956</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="n">
         <v>0.5591253535717575</v>
       </c>
-      <c r="N37" t="n">
+      <c r="Z37" t="n">
         <v>1.0346720475720301</v>
       </c>
-      <c r="O37" t="n">
+      <c r="AA37" t="n">
         <v>0.00334504487113067</v>
       </c>
-      <c r="P37" t="n">
+      <c r="AB37" t="n">
         <v>1.5753227726177463</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="AC37" t="n">
         <v>6.3216610109230616E-6</v>
       </c>
-      <c r="R37" t="n">
+      <c r="AD37" t="n">
         <v>0.6957184882737906</v>
       </c>
-      <c r="S37" t="n">
+      <c r="AE37" t="n">
         <v>0.0938603272628413</v>
       </c>
-      <c r="T37" t="s">
-        <v>144</v>
-      </c>
-      <c r="U37" t="s">
-        <v>145</v>
+      <c r="AF37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C38" t="n">
         <v>114880.0</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E38" t="n">
         <v>939.5397990914825</v>
@@ -2938,48 +4423,87 @@
         <v>1.8337081109419372E-8</v>
       </c>
       <c r="L38" t="n">
+        <v>0.06586204040205981</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5821256645251519</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.3522423142817752</v>
+      </c>
+      <c r="O38" t="n">
+        <v>8.027373952150937E-56</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.2263045542564803</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8.723810184063912E-38</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.2863802738797157</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6.011833458355345E-40</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.1604425138544205</v>
+      </c>
+      <c r="U38" t="n">
+        <v>4.896578862853646E-28</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.12593776002529491</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.27281651358754805</v>
+      </c>
+      <c r="X38" t="n">
         <v>0.05576096240766027</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="n">
         <v>0.843358291998904</v>
       </c>
-      <c r="N38" t="n">
+      <c r="Z38" t="n">
         <v>1.0080160948327885</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AA38" t="n">
         <v>2.889042831981637E-16</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AB38" t="n">
         <v>1.0853465730040524</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="AC38" t="n">
         <v>6.075452040860389E-17</v>
       </c>
-      <c r="R38" t="n">
+      <c r="AD38" t="n">
         <v>0.9522551324251283</v>
       </c>
-      <c r="S38" t="n">
+      <c r="AE38" t="n">
         <v>1.2539186581933661E-11</v>
       </c>
-      <c r="T38" t="s">
-        <v>144</v>
-      </c>
-      <c r="U38" t="s">
-        <v>145</v>
+      <c r="AF38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C39" t="n">
         <v>4669.0</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E39" t="n">
         <v>1026.1217241418897</v>
@@ -3003,48 +4527,87 @@
         <v>6.584720746735637E-5</v>
       </c>
       <c r="L39" t="n">
+        <v>8.183285198205037E-4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.9961173992335384</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8969455639668552</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.4336145771874525E-21</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.2148199165905649</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>6.326166898307328E-32</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.8961272354470345</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5.3855942502981665E-17</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.2140015880707444</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3.4277908661242767E-26</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.31787435262370967</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.007738592298219482</v>
+      </c>
+      <c r="X39" t="n">
         <v>0.17148336167771097</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="n">
         <v>0.44527234246116304</v>
       </c>
-      <c r="N39" t="n">
+      <c r="Z39" t="n">
         <v>1.1063774709718308</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AA39" t="n">
         <v>1.8896342677300797E-16</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AB39" t="n">
         <v>1.163828666882254</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="AC39" t="n">
         <v>1.51282861984669E-16</v>
       </c>
-      <c r="R39" t="n">
+      <c r="AD39" t="n">
         <v>0.9348941092941199</v>
       </c>
-      <c r="S39" t="n">
+      <c r="AE39" t="n">
         <v>1.4265571173723773E-9</v>
       </c>
-      <c r="T39" t="s">
-        <v>144</v>
-      </c>
-      <c r="U39" t="s">
-        <v>145</v>
+      <c r="AF39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C40" t="n">
         <v>79850.0</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E40" t="n">
         <v>1585.6217067300674</v>
@@ -3068,48 +4631,87 @@
         <v>1.5100257343337463E-38</v>
       </c>
       <c r="L40" t="n">
+        <v>-1.2357047497291729</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.085887295116955E-40</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.3932654049451762</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4.007378769252707E-5</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.8156009602089442</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.2640295540413301E-15</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.8424393447839966</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.3713164273248484E-15</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.42010378952022853</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.757757402966113E-4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.422335555263768</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3.1292904156134273E-4</v>
+      </c>
+      <c r="X40" t="n">
         <v>-1.1325372630164001</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="n">
         <v>1.6995283432245364E-16</v>
       </c>
-      <c r="N40" t="n">
+      <c r="Z40" t="n">
         <v>-0.1424517436188191</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AA40" t="n">
         <v>0.4082041912080354</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AB40" t="n">
         <v>-0.8266178248773957</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="AC40" t="n">
         <v>5.968799359098485E-9</v>
       </c>
-      <c r="R40" t="n">
+      <c r="AD40" t="n">
         <v>0.9900855193975808</v>
       </c>
-      <c r="S40" t="n">
+      <c r="AE40" t="n">
         <v>1.1501005683701373E-10</v>
       </c>
-      <c r="T40" t="s">
-        <v>142</v>
-      </c>
-      <c r="U40" t="s">
-        <v>145</v>
+      <c r="AF40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C41" t="n">
         <v>81551.0</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="E41" t="n">
         <v>3571.1206996269893</v>
@@ -3133,48 +4735,87 @@
         <v>0.03255541286477759</v>
       </c>
       <c r="L41" t="n">
+        <v>-0.9349644292554584</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.748730765118403E-7</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.8403275047943144</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.008755294592058E-6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-0.35934610657214455</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.07656215071125226</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.09463692446114418</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.7010500553405468</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.575618322683314</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.009539619969192193</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.4809813982221699</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.035843163911817806</v>
+      </c>
+      <c r="X41" t="n">
         <v>-0.28619025303567786</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="n">
         <v>0.5166104224423537</v>
       </c>
-      <c r="N41" t="n">
+      <c r="Z41" t="n">
         <v>-1.0328421901999727</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AA41" t="n">
         <v>1.1854537409220113E-4</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AB41" t="n">
         <v>-1.1815862542042934</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="AC41" t="n">
         <v>1.5247514141845351E-5</v>
       </c>
-      <c r="R41" t="n">
+      <c r="AD41" t="n">
         <v>-0.7466519371642947</v>
       </c>
-      <c r="S41" t="n">
+      <c r="AE41" t="n">
         <v>0.017227157385199737</v>
       </c>
-      <c r="T41" t="s">
-        <v>144</v>
-      </c>
-      <c r="U41" t="s">
-        <v>145</v>
+      <c r="AF41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C42" t="n">
         <v>220323.0</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E42" t="n">
         <v>1163.000622731619</v>
@@ -3198,48 +4839,87 @@
         <v>0.0020117572671943464</v>
       </c>
       <c r="L42" t="n">
+        <v>-0.06443327064734354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6767103109285837</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8077218393958856</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3.4550507043083135E-13</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.665909015352133</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.986858468572476E-44</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.8721551100432291</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.377010361913507E-12</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.7303422859994766</v>
+      </c>
+      <c r="U42" t="n">
+        <v>9.594148406680299E-39</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.8581871759562475</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.619421694153582E-10</v>
+      </c>
+      <c r="X42" t="n">
         <v>0.32567610880689085</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="n">
         <v>0.1376158430232607</v>
       </c>
-      <c r="N42" t="n">
+      <c r="Z42" t="n">
         <v>1.0777424064561922</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AA42" t="n">
         <v>1.103655953439767E-11</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AB42" t="n">
         <v>1.712818782987934</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="AC42" t="n">
         <v>7.06868015493273E-26</v>
       </c>
-      <c r="R42" t="n">
+      <c r="AD42" t="n">
         <v>0.7520662976493013</v>
       </c>
-      <c r="S42" t="n">
+      <c r="AE42" t="n">
         <v>4.698843082719348E-5</v>
       </c>
-      <c r="T42" t="s">
-        <v>144</v>
-      </c>
-      <c r="U42" t="s">
-        <v>145</v>
+      <c r="AF42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C43" t="n">
         <v>79627.0</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E43" t="n">
         <v>710.4401570476929</v>
@@ -3263,48 +4943,87 @@
         <v>0.09711727444268115</v>
       </c>
       <c r="L43" t="n">
+        <v>0.5789983175684674</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.5083283198534934E-4</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.1049981212718993</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.390104161990429E-15</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.2885563609208681</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.07639819304106533</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.525999803703432</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0013823652343309383</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-0.29044195664759925</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.10670480367656686</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-0.8164417603510312</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3.504219529491844E-6</v>
+      </c>
+      <c r="X43" t="n">
         <v>0.45965844655186383</v>
       </c>
-      <c r="M43" t="n">
+      <c r="Y43" t="n">
         <v>0.0885746253799352</v>
       </c>
-      <c r="N43" t="n">
+      <c r="Z43" t="n">
         <v>1.1653646607679138</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AA43" t="n">
         <v>1.3538342287711162E-8</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AB43" t="n">
         <v>0.723679736991179</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="AC43" t="n">
         <v>0.0010421170816070635</v>
       </c>
-      <c r="R43" t="n">
+      <c r="AD43" t="n">
         <v>0.70570621421605</v>
       </c>
-      <c r="S43" t="n">
+      <c r="AE43" t="n">
         <v>0.0034618650600802296</v>
       </c>
-      <c r="T43" t="s">
-        <v>144</v>
-      </c>
-      <c r="U43" t="s">
-        <v>145</v>
+      <c r="AF43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C44" t="n">
         <v>59342.0</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E44" t="n">
         <v>1648.6434031561676</v>
@@ -3328,48 +5047,87 @@
         <v>1.399171298225838E-59</v>
       </c>
       <c r="L44" t="n">
+        <v>-0.3166956605249458</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0625737573102506</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.6616655810025618</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9.742934173702036E-30</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.636246404086306</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.0323618326423624E-4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-1.344969920477616</v>
+      </c>
+      <c r="S44" t="n">
+        <v>9.769214725201574E-16</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.3195507435613601</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.08782651692319433</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.025419176916256</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.7635144252923683E-8</v>
+      </c>
+      <c r="X44" t="n">
         <v>-0.3354950415604265</v>
       </c>
-      <c r="M44" t="n">
+      <c r="Y44" t="n">
         <v>0.29126519504158177</v>
       </c>
-      <c r="N44" t="n">
+      <c r="Z44" t="n">
         <v>-1.2632113151816335</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AA44" t="n">
         <v>3.932921221044365E-9</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AB44" t="n">
         <v>-0.49838138180865127</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="AC44" t="n">
         <v>0.03489225136480278</v>
       </c>
-      <c r="R44" t="n">
+      <c r="AD44" t="n">
         <v>-0.9277162736212071</v>
       </c>
-      <c r="S44" t="n">
+      <c r="AE44" t="n">
         <v>1.939587953445587E-4</v>
       </c>
-      <c r="T44" t="s">
-        <v>144</v>
-      </c>
-      <c r="U44" t="s">
-        <v>145</v>
+      <c r="AF44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C45" t="n">
         <v>1809.0</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E45" t="n">
         <v>8273.209608046613</v>
@@ -3393,48 +5151,87 @@
         <v>0.009947882321480044</v>
       </c>
       <c r="L45" t="n">
+        <v>-0.1367702631205021</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3519223832647889</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.2571425976237423</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.284131933256608E-27</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.533118213235509</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.130731112530746E-33</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.3939128607442441</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.011700826615361E-26</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.6698884763560111</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5.78285211361696E-32</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.27597561561176676</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.06940106904490813</v>
+      </c>
+      <c r="X45" t="n">
         <v>0.09076411405069403</v>
       </c>
-      <c r="M45" t="n">
+      <c r="Y45" t="n">
         <v>0.80182459853446</v>
       </c>
-      <c r="N45" t="n">
+      <c r="Z45" t="n">
         <v>1.0015230895100804</v>
       </c>
-      <c r="O45" t="n">
+      <c r="AA45" t="n">
         <v>4.5824361399859374E-9</v>
       </c>
-      <c r="P45" t="n">
+      <c r="AB45" t="n">
         <v>1.0164526610339415</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="AC45" t="n">
         <v>1.0574168319326142E-8</v>
       </c>
-      <c r="R45" t="n">
+      <c r="AD45" t="n">
         <v>0.9107589754593863</v>
       </c>
-      <c r="S45" t="n">
+      <c r="AE45" t="n">
         <v>3.285291495440973E-6</v>
       </c>
-      <c r="T45" t="s">
-        <v>144</v>
-      </c>
-      <c r="U45" t="s">
-        <v>145</v>
+      <c r="AF45" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C46" t="n">
         <v>2894.0</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E46" t="n">
         <v>2267.7515093794254</v>
@@ -3458,48 +5255,87 @@
         <v>0.8572363346009862</v>
       </c>
       <c r="L46" t="n">
+        <v>0.16441455826215404</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.12198896732767339</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.388056064012103</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.28637921605232E-56</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.2125553989864586</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.35284207322589E-118</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.223641505749949</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.1842348933049502E-34</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.048140840724305</v>
+      </c>
+      <c r="U46" t="n">
+        <v>5.306797724411441E-82</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.8244993349743559</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5.429145773043838E-14</v>
+      </c>
+      <c r="X46" t="n">
         <v>0.3555789065872517</v>
       </c>
-      <c r="M46" t="n">
+      <c r="Y46" t="n">
         <v>0.028419390685364292</v>
       </c>
-      <c r="N46" t="n">
+      <c r="Z46" t="n">
         <v>1.2290291834907157</v>
       </c>
-      <c r="O46" t="n">
+      <c r="AA46" t="n">
         <v>1.4407496646833927E-22</v>
       </c>
-      <c r="P46" t="n">
+      <c r="AB46" t="n">
         <v>1.3392018673225463</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="AC46" t="n">
         <v>2.8791727933266972E-24</v>
       </c>
-      <c r="R46" t="n">
+      <c r="AD46" t="n">
         <v>0.873450276903464</v>
       </c>
-      <c r="S46" t="n">
+      <c r="AE46" t="n">
         <v>2.2484527253833697E-9</v>
       </c>
-      <c r="T46" t="s">
-        <v>144</v>
-      </c>
-      <c r="U46" t="s">
-        <v>145</v>
+      <c r="AF46" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C47" t="n">
         <v>89853.0</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E47" t="n">
         <v>1598.1009338466242</v>
@@ -3523,48 +5359,87 @@
         <v>0.17094601889399144</v>
       </c>
       <c r="L47" t="n">
+        <v>-0.043137181458004076</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8054547944761311</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.3007653086614563</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7.6971810794015915E-28</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.063767555970824</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>6.056458199534158E-16</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.3439024901194603</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.706054639770622E-23</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.1069047374288281</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.883569387944218E-14</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.23699775269063222</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.13058998848631456</v>
+      </c>
+      <c r="X47" t="n">
         <v>0.05032953931663614</v>
       </c>
-      <c r="M47" t="n">
+      <c r="Y47" t="n">
         <v>0.9043684522568213</v>
       </c>
-      <c r="N47" t="n">
+      <c r="Z47" t="n">
         <v>1.0099102701229432</v>
       </c>
-      <c r="O47" t="n">
+      <c r="AA47" t="n">
         <v>7.82944213621254E-9</v>
       </c>
-      <c r="P47" t="n">
+      <c r="AB47" t="n">
         <v>0.6486746034539635</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="AC47" t="n">
         <v>5.041069664252155E-4</v>
       </c>
-      <c r="R47" t="n">
+      <c r="AD47" t="n">
         <v>0.9595807308063069</v>
       </c>
-      <c r="S47" t="n">
+      <c r="AE47" t="n">
         <v>1.5121933333343165E-6</v>
       </c>
-      <c r="T47" t="s">
-        <v>144</v>
-      </c>
-      <c r="U47" t="s">
-        <v>145</v>
+      <c r="AF47" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C48" t="n">
         <v>84858.0</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="E48" t="n">
         <v>2020.50538387354</v>
@@ -3588,48 +5463,87 @@
         <v>0.4667056915441399</v>
       </c>
       <c r="L48" t="n">
+        <v>0.09758627363281461</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.2991695238615226</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.9096475603483803</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.7816484486448095E-34</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.3597279671456537</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>7.560379428617592E-63</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.8120612867155658</v>
+      </c>
+      <c r="S48" t="n">
+        <v>6.665606927248242E-22</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.262141693512839</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.84524087186343E-44</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.4500804067972733</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.2101688123630123E-6</v>
+      </c>
+      <c r="X48" t="n">
         <v>0.1901033543954252</v>
       </c>
-      <c r="M48" t="n">
+      <c r="Y48" t="n">
         <v>0.22930208198978685</v>
       </c>
-      <c r="N48" t="n">
+      <c r="Z48" t="n">
         <v>1.0949823089242967</v>
       </c>
-      <c r="O48" t="n">
+      <c r="AA48" t="n">
         <v>3.495599106465507E-25</v>
       </c>
-      <c r="P48" t="n">
+      <c r="AB48" t="n">
         <v>0.9181389614817816</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="AC48" t="n">
         <v>2.2972235185866696E-16</v>
       </c>
-      <c r="R48" t="n">
+      <c r="AD48" t="n">
         <v>0.9048789545288717</v>
       </c>
-      <c r="S48" t="n">
+      <c r="AE48" t="n">
         <v>1.0116485696772125E-13</v>
       </c>
-      <c r="T48" t="s">
-        <v>144</v>
-      </c>
-      <c r="U48" t="s">
-        <v>145</v>
+      <c r="AF48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C49" t="n">
         <v>10221.0</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E49" t="n">
         <v>783.249398745859</v>
@@ -3653,48 +5567,87 @@
         <v>0.41236241505889404</v>
       </c>
       <c r="L49" t="n">
+        <v>0.2502486762429657</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.06426205259434065</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.2702645599248898</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.0483700237427183E-28</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.6473262344023731</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.3502553938495977E-39</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.0200158836819242</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.079685412680754E-15</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.3970775581594075</v>
+      </c>
+      <c r="U49" t="n">
+        <v>9.246001339665011E-24</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.37706167447748334</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.00935733456565624</v>
+      </c>
+      <c r="X49" t="n">
         <v>0.6184280121625836</v>
       </c>
-      <c r="M49" t="n">
+      <c r="Y49" t="n">
         <v>0.0014336889675887182</v>
       </c>
-      <c r="N49" t="n">
+      <c r="Z49" t="n">
         <v>1.276333827444075</v>
       </c>
-      <c r="O49" t="n">
+      <c r="AA49" t="n">
         <v>8.55781943166551E-15</v>
       </c>
-      <c r="P49" t="n">
+      <c r="AB49" t="n">
         <v>0.9539064927372889</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="AC49" t="n">
         <v>4.3226902541920446E-8</v>
       </c>
-      <c r="R49" t="n">
+      <c r="AD49" t="n">
         <v>0.6579058152814913</v>
       </c>
-      <c r="S49" t="n">
+      <c r="AE49" t="n">
         <v>7.597099556088848E-4</v>
       </c>
-      <c r="T49" t="s">
-        <v>144</v>
-      </c>
-      <c r="U49" t="s">
-        <v>145</v>
+      <c r="AF49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C50" t="n">
         <v>221178.0</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E50" t="n">
         <v>751.701017420636</v>
@@ -3718,48 +5671,87 @@
         <v>0.868218379202604</v>
       </c>
       <c r="L50" t="n">
+        <v>0.6380938414873928</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.0585773215671464E-5</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.1900525191541116</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.385347162637749E-18</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.1205977766551781</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.46028399234753387</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.5519586776667188</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.558157594737975E-4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.5174960648322147</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.0022112892138193814</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-1.0694547424989334</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.4135456112775964E-10</v>
+      </c>
+      <c r="X50" t="n">
         <v>0.19137145446712742</v>
       </c>
-      <c r="M50" t="n">
+      <c r="Y50" t="n">
         <v>0.5855332948781635</v>
       </c>
-      <c r="N50" t="n">
+      <c r="Z50" t="n">
         <v>1.0126032560227591</v>
       </c>
-      <c r="O50" t="n">
+      <c r="AA50" t="n">
         <v>3.7573194759482387E-7</v>
       </c>
-      <c r="P50" t="n">
+      <c r="AB50" t="n">
         <v>0.9107032941320827</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="AC50" t="n">
         <v>1.4248125138460358E-5</v>
       </c>
-      <c r="R50" t="n">
+      <c r="AD50" t="n">
         <v>0.8212318015556318</v>
       </c>
-      <c r="S50" t="n">
+      <c r="AE50" t="n">
         <v>3.2717411088393735E-4</v>
       </c>
-      <c r="T50" t="s">
-        <v>144</v>
-      </c>
-      <c r="U50" t="s">
-        <v>145</v>
+      <c r="AF50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C51" t="n">
         <v>11080.0</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E51" t="n">
         <v>876.9844568709265</v>
@@ -3783,48 +5775,87 @@
         <v>0.655543522298085</v>
       </c>
       <c r="L51" t="n">
+        <v>0.27368284989251224</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.11061810807390497</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.9710287449829504</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4.750631772595753E-11</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-1.23153348826067</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.1138509007378837E-14</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-1.2447115948754628</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5.795136848683133E-14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-1.5052163381531825</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3.4190146882559363E-17</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.2605047432777196</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.18041029804078107</v>
+      </c>
+      <c r="X51" t="n">
         <v>-0.13645276253792538</v>
       </c>
-      <c r="M51" t="n">
+      <c r="Y51" t="n">
         <v>0.7513816732270742</v>
       </c>
-      <c r="N51" t="n">
+      <c r="Z51" t="n">
         <v>-1.0569828741900091</v>
       </c>
-      <c r="O51" t="n">
+      <c r="AA51" t="n">
         <v>1.0770908731967652E-6</v>
       </c>
-      <c r="P51" t="n">
+      <c r="AB51" t="n">
         <v>-0.7067662861754507</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="AC51" t="n">
         <v>0.002232903530229133</v>
       </c>
-      <c r="R51" t="n">
+      <c r="AD51" t="n">
         <v>-0.9205301116520839</v>
       </c>
-      <c r="S51" t="n">
+      <c r="AE51" t="n">
         <v>2.0366156720095032E-4</v>
       </c>
-      <c r="T51" t="s">
-        <v>144</v>
-      </c>
-      <c r="U51" t="s">
-        <v>145</v>
+      <c r="AF51" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C52" t="n">
         <v>3162.0</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E52" t="n">
         <v>975.6906136121385</v>
@@ -3848,48 +5879,87 @@
         <v>0.1282493943591524</v>
       </c>
       <c r="L52" t="n">
+        <v>-1.1630340190877244</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5.094166717674356E-4</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8576784988006967</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.008639521394228104</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.306061211679785</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>7.167985796979935E-12</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.3053555202870276</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.44889324254057483</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.46909523076751</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.5815661736591014E-20</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.163739710480482</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.1811880966553947E-16</v>
+      </c>
+      <c r="X52" t="n">
         <v>-1.158077442483516</v>
       </c>
-      <c r="M52" t="n">
+      <c r="Y52" t="n">
         <v>0.04167321151105459</v>
       </c>
-      <c r="N52" t="n">
+      <c r="Z52" t="n">
         <v>-0.2246406220837011</v>
       </c>
-      <c r="O52" t="n">
+      <c r="AA52" t="n">
         <v>0.7219704859045191</v>
       </c>
-      <c r="P52" t="n">
+      <c r="AB52" t="n">
         <v>2.7924051227294617</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="AC52" t="n">
         <v>2.071775428686815E-9</v>
       </c>
-      <c r="R52" t="n">
+      <c r="AD52" t="n">
         <v>0.9334368203998148</v>
       </c>
-      <c r="S52" t="n">
+      <c r="AE52" t="n">
         <v>0.09764864492288475</v>
       </c>
-      <c r="T52" t="s">
-        <v>142</v>
-      </c>
-      <c r="U52" t="s">
-        <v>145</v>
+      <c r="AF52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C53" t="n">
         <v>7466.0</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E53" t="n">
         <v>1084.7394611448387</v>
@@ -3913,48 +5983,87 @@
         <v>1.0192945324835245E-6</v>
       </c>
       <c r="L53" t="n">
+        <v>-1.0940583430341713</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.2219128225343213E-38</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.6401913209067993</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.410341489679225E-86</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.2452794138497234</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3.609832332547996E-41</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.5461329778726278</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.2158974060302286E-8</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-0.1512210708155523</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.16758984506462118</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.39491190705707563</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.525863097204585E-4</v>
+      </c>
+      <c r="X53" t="n">
         <v>-1.1010931105086905</v>
       </c>
-      <c r="M53" t="n">
+      <c r="Y53" t="n">
         <v>3.886325923409007E-19</v>
       </c>
-      <c r="N53" t="n">
+      <c r="Z53" t="n">
         <v>-1.2917021395825699</v>
       </c>
-      <c r="O53" t="n">
+      <c r="AA53" t="n">
         <v>3.6028345114173746E-27</v>
       </c>
-      <c r="P53" t="n">
+      <c r="AB53" t="n">
         <v>-1.344281698358278</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="AC53" t="n">
         <v>1.7389378679245117E-26</v>
       </c>
-      <c r="R53" t="n">
+      <c r="AD53" t="n">
         <v>-0.1906090290738793</v>
       </c>
-      <c r="S53" t="n">
+      <c r="AE53" t="n">
         <v>0.23693411436128894</v>
       </c>
-      <c r="T53" t="s">
-        <v>143</v>
-      </c>
-      <c r="U53" t="s">
-        <v>145</v>
+      <c r="AF53" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C54" t="n">
         <v>221687.0</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E54" t="n">
         <v>880.1306572250414</v>
@@ -3978,48 +6087,87 @@
         <v>1.934032213529965E-6</v>
       </c>
       <c r="L54" t="n">
+        <v>0.35131577620503446</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.5627109207936003E-5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9959227886122014</v>
+      </c>
+      <c r="O54" t="n">
+        <v>5.2955612122464823E-39</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.08966245572383807</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3390498746006551</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.6446070124071669</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.0534929764315691E-13</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.44097823192887253</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4.7948973876035E-6</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-1.0855852443360392</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.093470534135674E-29</v>
+      </c>
+      <c r="X54" t="n">
         <v>0.42183563236902516</v>
       </c>
-      <c r="M54" t="n">
+      <c r="Y54" t="n">
         <v>0.0011038121697365382</v>
       </c>
-      <c r="N54" t="n">
+      <c r="Z54" t="n">
         <v>1.2188186601418642</v>
       </c>
-      <c r="O54" t="n">
+      <c r="AA54" t="n">
         <v>2.11181163502652E-29</v>
       </c>
-      <c r="P54" t="n">
+      <c r="AB54" t="n">
         <v>0.06790408334295425</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="AC54" t="n">
         <v>0.6355551374463301</v>
       </c>
-      <c r="R54" t="n">
+      <c r="AD54" t="n">
         <v>0.7969830277728391</v>
       </c>
-      <c r="S54" t="n">
+      <c r="AE54" t="n">
         <v>2.0906354380801547E-10</v>
       </c>
-      <c r="T54" t="s">
-        <v>144</v>
-      </c>
-      <c r="U54" t="s">
-        <v>145</v>
+      <c r="AF54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C55" t="n">
         <v>5699.0</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E55" t="n">
         <v>681.7421418202324</v>
@@ -4043,48 +6191,87 @@
         <v>0.18971868830544805</v>
       </c>
       <c r="L55" t="n">
+        <v>-0.2383371440742765</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.19782025407299425</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.6240956990321339</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7.424258957669329E-5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.4832814981838414</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.4981902309777333E-19</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.8624328431064103</v>
+      </c>
+      <c r="S55" t="n">
+        <v>8.380206150314802E-7</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.7216186422581177</v>
+      </c>
+      <c r="U55" t="n">
+        <v>9.833359554301179E-21</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.8591857991517073</v>
+      </c>
+      <c r="W55" t="n">
+        <v>5.311264946704472E-6</v>
+      </c>
+      <c r="X55" t="n">
         <v>0.04994160101564904</v>
       </c>
-      <c r="M55" t="n">
+      <c r="Y55" t="n">
         <v>0.9276707258310413</v>
       </c>
-      <c r="N55" t="n">
+      <c r="Z55" t="n">
         <v>1.0087483468731624</v>
       </c>
-      <c r="O55" t="n">
+      <c r="AA55" t="n">
         <v>8.427022760718942E-6</v>
       </c>
-      <c r="P55" t="n">
+      <c r="AB55" t="n">
         <v>1.0128318465505606</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="AC55" t="n">
         <v>1.3631438142806877E-5</v>
       </c>
-      <c r="R55" t="n">
+      <c r="AD55" t="n">
         <v>0.9588067458575132</v>
       </c>
-      <c r="S55" t="n">
+      <c r="AE55" t="n">
         <v>1.9615575480275144E-4</v>
       </c>
-      <c r="T55" t="s">
-        <v>144</v>
-      </c>
-      <c r="U55" t="s">
-        <v>145</v>
+      <c r="AF55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C56" t="n">
         <v>11346.0</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E56" t="n">
         <v>3158.0053769744077</v>
@@ -4108,48 +6295,87 @@
         <v>0.0012061597529597168</v>
       </c>
       <c r="L56" t="n">
+        <v>-0.7999581555674387</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.624460527202393E-6</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-1.133756626871713</v>
+      </c>
+      <c r="O56" t="n">
+        <v>9.47840441022794E-13</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8204826904354997</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.624148675578257E-6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.33379847130427426</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.08482212573872627</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.020524534868061065</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.9276979796340371</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.3132739364362131</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.13101458110964506</v>
+      </c>
+      <c r="X56" t="n">
         <v>-0.39672602532587414</v>
       </c>
-      <c r="M56" t="n">
+      <c r="Y56" t="n">
         <v>0.23394688355767917</v>
       </c>
-      <c r="N56" t="n">
+      <c r="Z56" t="n">
         <v>-1.195257872368703</v>
       </c>
-      <c r="O56" t="n">
+      <c r="AA56" t="n">
         <v>2.884774986618334E-7</v>
       </c>
-      <c r="P56" t="n">
+      <c r="AB56" t="n">
         <v>-1.1047350188040999</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="AC56" t="n">
         <v>5.147257618040936E-6</v>
       </c>
-      <c r="R56" t="n">
+      <c r="AD56" t="n">
         <v>-0.798531847042829</v>
       </c>
-      <c r="S56" t="n">
+      <c r="AE56" t="n">
         <v>0.00350526119584512</v>
       </c>
-      <c r="T56" t="s">
-        <v>144</v>
-      </c>
-      <c r="U56" t="s">
-        <v>145</v>
+      <c r="AF56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C57" t="n">
         <v>5720.0</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E57" t="n">
         <v>1790.4854239924143</v>
@@ -4173,48 +6399,87 @@
         <v>1.893715965691146E-14</v>
       </c>
       <c r="L57" t="n">
+        <v>-0.10984423318635506</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6209487046292862</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5717642314752108</v>
+      </c>
+      <c r="O57" t="n">
+        <v>8.536475905954809E-4</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.3247376000910091</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.0837803655022198</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.6816084646615658</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.7757924810909415E-4</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.43458183327736405</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.03556347930970028</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.24702663138420172</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.26007911819336327</v>
+      </c>
+      <c r="X57" t="n">
         <v>0.3010540671351452</v>
       </c>
-      <c r="M57" t="n">
+      <c r="Y57" t="n">
         <v>0.43825174960515484</v>
       </c>
-      <c r="N57" t="n">
+      <c r="Z57" t="n">
         <v>1.0325888533510905</v>
       </c>
-      <c r="O57" t="n">
+      <c r="AA57" t="n">
         <v>2.7181519033122464E-5</v>
       </c>
-      <c r="P57" t="n">
+      <c r="AB57" t="n">
         <v>-0.007466392292404211</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="AC57" t="n">
         <v>0.9819828858836356</v>
       </c>
-      <c r="R57" t="n">
+      <c r="AD57" t="n">
         <v>0.7315347862159453</v>
       </c>
-      <c r="S57" t="n">
+      <c r="AE57" t="n">
         <v>0.011015931842815858</v>
       </c>
-      <c r="T57" t="s">
-        <v>144</v>
-      </c>
-      <c r="U57" t="s">
-        <v>145</v>
+      <c r="AF57" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C58" t="n">
         <v>2584.0</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E58" t="n">
         <v>1134.5080642074881</v>
@@ -4238,48 +6503,87 @@
         <v>0.0043913055079617975</v>
       </c>
       <c r="L58" t="n">
+        <v>-0.25010162934271063</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.28380537371482023</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5003398610022896</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.013011492241525717</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.2730783285450513</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>8.177124308995379E-10</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.7504414903450003</v>
+      </c>
+      <c r="S58" t="n">
+        <v>6.957945716589142E-4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.5231799578877618</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.8993250143880165E-11</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.7727384675427618</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0011857220912669967</v>
+      </c>
+      <c r="X58" t="n">
         <v>0.11915167997121963</v>
       </c>
-      <c r="M58" t="n">
+      <c r="Y58" t="n">
         <v>0.8459051562116359</v>
       </c>
-      <c r="N58" t="n">
+      <c r="Z58" t="n">
         <v>1.0455704961215073</v>
       </c>
-      <c r="O58" t="n">
+      <c r="AA58" t="n">
         <v>2.665848212333827E-4</v>
       </c>
-      <c r="P58" t="n">
+      <c r="AB58" t="n">
         <v>1.2265301421057988</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="AC58" t="n">
         <v>2.4369669343606643E-5</v>
       </c>
-      <c r="R58" t="n">
+      <c r="AD58" t="n">
         <v>0.9264188161502876</v>
       </c>
-      <c r="S58" t="n">
+      <c r="AE58" t="n">
         <v>0.0047141773422859435</v>
       </c>
-      <c r="T58" t="s">
-        <v>144</v>
-      </c>
-      <c r="U58" t="s">
-        <v>145</v>
+      <c r="AF58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C59" t="n">
         <v>869.0</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E59" t="n">
         <v>1259.6094075355354</v>
@@ -4303,48 +6607,87 @@
         <v>0.45978553613806267</v>
       </c>
       <c r="L59" t="n">
+        <v>0.898025248561934</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.808800543732476E-19</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.44965019958196006</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9.955055003901348E-6</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.0447914093168476</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.9349771951424277E-22</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.4483750489799738</v>
+      </c>
+      <c r="S59" t="n">
+        <v>8.510759449251787E-5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.14676616075491372</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.24722926083919974</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.5951412097348876</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.1897781103182885E-6</v>
+      </c>
+      <c r="X59" t="n">
         <v>1.1309285597138268</v>
       </c>
-      <c r="M59" t="n">
+      <c r="Y59" t="n">
         <v>9.34412221625634E-15</v>
       </c>
-      <c r="N59" t="n">
+      <c r="Z59" t="n">
         <v>0.4852532519887815</v>
       </c>
-      <c r="O59" t="n">
+      <c r="AA59" t="n">
         <v>0.0014055433055158882</v>
       </c>
-      <c r="P59" t="n">
+      <c r="AB59" t="n">
         <v>0.8005721775093806</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="AC59" t="n">
         <v>9.828415971506965E-8</v>
       </c>
-      <c r="R59" t="n">
+      <c r="AD59" t="n">
         <v>-0.6456753077250452</v>
       </c>
-      <c r="S59" t="n">
+      <c r="AE59" t="n">
         <v>1.0352571631275177E-4</v>
       </c>
-      <c r="T59" t="s">
-        <v>142</v>
-      </c>
-      <c r="U59" t="s">
-        <v>145</v>
+      <c r="AF59" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C60" t="n">
         <v>26167.0</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E60" t="n">
         <v>700.5862788752308</v>
@@ -4368,48 +6711,87 @@
         <v>0.015069062361432977</v>
       </c>
       <c r="L60" t="n">
+        <v>0.2209647297622935</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.43458579053004315</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.6025959707122307</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.010550046283875597</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-1.3280275231281742</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>6.20310674703368E-8</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.823560700474524</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.0015382850699893593</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-1.5489922528904676</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.2650373087843761E-8</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.7254315524159435</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.01074073963636942</v>
+      </c>
+      <c r="X60" t="n">
         <v>-0.1892111224728873</v>
       </c>
-      <c r="M60" t="n">
+      <c r="Y60" t="n">
         <v>0.7772148723332853</v>
       </c>
-      <c r="N60" t="n">
+      <c r="Z60" t="n">
         <v>-1.0322242693154862</v>
       </c>
-      <c r="O60" t="n">
+      <c r="AA60" t="n">
         <v>0.0025582835172497623</v>
       </c>
-      <c r="P60" t="n">
+      <c r="AB60" t="n">
         <v>-1.2026567894133027</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="AC60" t="n">
         <v>5.063349271435638E-4</v>
       </c>
-      <c r="R60" t="n">
+      <c r="AD60" t="n">
         <v>-0.8430131468425989</v>
       </c>
-      <c r="S60" t="n">
+      <c r="AE60" t="n">
         <v>0.03209067513943414</v>
       </c>
-      <c r="T60" t="s">
-        <v>144</v>
-      </c>
-      <c r="U60" t="s">
-        <v>145</v>
+      <c r="AF60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C61" t="n">
         <v>4081.0</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E61" t="n">
         <v>11838.122089236627</v>
@@ -4433,48 +6815,87 @@
         <v>1.7500848084606432E-34</v>
       </c>
       <c r="L61" t="n">
+        <v>-0.4361496570474374</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.47317550917511E-4</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.7712868926325542</v>
+      </c>
+      <c r="O61" t="n">
+        <v>6.074761417560939E-13</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-0.8320005993632916</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.0834345387450982E-12</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-0.3351372355851168</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.008158133819622581</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-0.3958509423158543</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.00285277152307621</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-0.06071370673073742</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.6892537070820469</v>
+      </c>
+      <c r="X61" t="n">
         <v>-0.38459256824414306</v>
       </c>
-      <c r="M61" t="n">
+      <c r="Y61" t="n">
         <v>0.053242999128068194</v>
       </c>
-      <c r="N61" t="n">
+      <c r="Z61" t="n">
         <v>-1.2079941871073274</v>
       </c>
-      <c r="O61" t="n">
+      <c r="AA61" t="n">
         <v>2.485876167884307E-15</v>
       </c>
-      <c r="P61" t="n">
+      <c r="AB61" t="n">
         <v>-1.1268589311601305</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="AC61" t="n">
         <v>2.304903386551792E-12</v>
       </c>
-      <c r="R61" t="n">
+      <c r="AD61" t="n">
         <v>-0.8234016188631843</v>
       </c>
-      <c r="S61" t="n">
+      <c r="AE61" t="n">
         <v>3.893718793900846E-6</v>
       </c>
-      <c r="T61" t="s">
-        <v>144</v>
-      </c>
-      <c r="U61" t="s">
-        <v>145</v>
+      <c r="AF61" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C62" t="n">
         <v>2199.0</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E62" t="n">
         <v>1001.606722430123</v>
@@ -4498,48 +6919,87 @@
         <v>3.0524418850828825E-14</v>
       </c>
       <c r="L62" t="n">
+        <v>-0.3743607652835988</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.030063226517905894</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.0288406728002122</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.6896162364209807E-11</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-0.6149434458095752</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.704251054625511E-4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-0.6544799075166134</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.1105556569821728E-4</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-0.24058268052597648</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.21855899886982333</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.4138972269906369</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.034561048237155306</v>
+      </c>
+      <c r="X62" t="n">
         <v>-0.28897763124447595</v>
       </c>
-      <c r="M62" t="n">
+      <c r="Y62" t="n">
         <v>0.41069448860211255</v>
       </c>
-      <c r="N62" t="n">
+      <c r="Z62" t="n">
         <v>-1.0515487151483616</v>
       </c>
-      <c r="O62" t="n">
+      <c r="AA62" t="n">
         <v>2.760825034262194E-6</v>
       </c>
-      <c r="P62" t="n">
+      <c r="AB62" t="n">
         <v>-0.6697413869911167</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="AC62" t="n">
         <v>0.0050078119574561075</v>
       </c>
-      <c r="R62" t="n">
+      <c r="AD62" t="n">
         <v>-0.7625710839038855</v>
       </c>
-      <c r="S62" t="n">
+      <c r="AE62" t="n">
         <v>0.003510162370859597</v>
       </c>
-      <c r="T62" t="s">
-        <v>144</v>
-      </c>
-      <c r="U62" t="s">
-        <v>145</v>
+      <c r="AF62" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C63" t="n">
         <v>51083.0</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E63" t="n">
         <v>4584.560098969364</v>
@@ -4563,34 +7023,73 @@
         <v>0.043909468366173966</v>
       </c>
       <c r="L63" t="n">
+        <v>-1.7241222401074698</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.0421618424024063E-16</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-1.854858670463793</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.5080544032113268E-19</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.850658115027303</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.9813434724813957E-4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.13073643035632326</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.6417395050345135</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.5747803551347728</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6.721675793672951E-25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.7055167854910964</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.7025234482440064E-26</v>
+      </c>
+      <c r="X63" t="n">
         <v>-1.494645724591408</v>
       </c>
-      <c r="M63" t="n">
+      <c r="Y63" t="n">
         <v>4.231382038118903E-6</v>
       </c>
-      <c r="N63" t="n">
+      <c r="Z63" t="n">
         <v>-0.6100510746277411</v>
       </c>
-      <c r="O63" t="n">
+      <c r="AA63" t="n">
         <v>0.07220617887433693</v>
       </c>
-      <c r="P63" t="n">
+      <c r="AB63" t="n">
         <v>0.9287695409756382</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="AC63" t="n">
         <v>0.004134140082695598</v>
       </c>
-      <c r="R63" t="n">
+      <c r="AD63" t="n">
         <v>0.8845946499636669</v>
       </c>
-      <c r="S63" t="n">
+      <c r="AE63" t="n">
         <v>0.014600453590929896</v>
       </c>
-      <c r="T63" t="s">
-        <v>142</v>
-      </c>
-      <c r="U63" t="s">
-        <v>145</v>
+      <c r="AF63" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/4_manuscript/HIF1A_HIF2A_genes.xlsx
+++ b/4_manuscript/HIF1A_HIF2A_genes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="188">
   <si>
     <t>ENSEMBL</t>
   </si>
@@ -143,12 +143,12 @@
     <t>ENSG00000238042</t>
   </si>
   <si>
+    <t>ENSG00000204392</t>
+  </si>
+  <si>
     <t>ENSG00000261175</t>
   </si>
   <si>
-    <t>ENSG00000204392</t>
-  </si>
-  <si>
     <t>ENSG00000100985</t>
   </si>
   <si>
@@ -185,96 +185,93 @@
     <t>ENSG00000124507</t>
   </si>
   <si>
+    <t>ENSG00000173406</t>
+  </si>
+  <si>
     <t>ENSG00000258998</t>
   </si>
   <si>
-    <t>ENSG00000173406</t>
-  </si>
-  <si>
     <t>ENSG00000187013</t>
   </si>
   <si>
     <t>ENSG00000154764</t>
   </si>
   <si>
+    <t>ENSG00000285587</t>
+  </si>
+  <si>
     <t>ENSG00000249898</t>
   </si>
   <si>
-    <t>ENSG00000285587</t>
+    <t>ENSG00000291223</t>
   </si>
   <si>
     <t>ENSG00000244342</t>
   </si>
   <si>
-    <t>ENSG00000291223</t>
-  </si>
-  <si>
     <t>ENSG00000159337</t>
   </si>
   <si>
     <t>ENSG00000163794</t>
   </si>
   <si>
-    <t>ENSG00000292296</t>
-  </si>
-  <si>
     <t>ENSG00000090975</t>
   </si>
   <si>
+    <t>ENSG00000225706</t>
+  </si>
+  <si>
     <t>ENSG00000258818</t>
   </si>
   <si>
-    <t>ENSG00000225706</t>
+    <t>ENSG00000144749</t>
   </si>
   <si>
     <t>ENSG00000163075</t>
   </si>
   <si>
-    <t>ENSG00000144749</t>
+    <t>ENSG00000008394</t>
   </si>
   <si>
     <t>ENSG00000197540</t>
   </si>
   <si>
-    <t>ENSG00000008394</t>
+    <t>ENSG00000165495</t>
+  </si>
+  <si>
+    <t>ENSG00000154975</t>
   </si>
   <si>
     <t>ENSG00000143036</t>
   </si>
   <si>
-    <t>ENSG00000165495</t>
-  </si>
-  <si>
-    <t>ENSG00000154975</t>
-  </si>
-  <si>
     <t>ENSG00000174788</t>
   </si>
   <si>
+    <t>ENSG00000286502</t>
+  </si>
+  <si>
     <t>ENSG00000289741</t>
   </si>
   <si>
-    <t>ENSG00000286502</t>
-  </si>
-  <si>
     <t>ENSG00000231441</t>
   </si>
   <si>
     <t>ENSG00000259439</t>
   </si>
   <si>
+    <t>ENSG00000137809</t>
+  </si>
+  <si>
     <t>ENSG00000249590</t>
   </si>
   <si>
-    <t>ENSG00000137809</t>
+    <t>ENSG00000016402</t>
   </si>
   <si>
     <t>ENSG00000101336</t>
   </si>
   <si>
-    <t>ENSG00000016402</t>
-  </si>
-  <si>
     <t>ENSG00000102445</t>
   </si>
   <si>
@@ -284,18 +281,18 @@
     <t>ENSG00000022355</t>
   </si>
   <si>
+    <t>ENSG00000181218</t>
+  </si>
+  <si>
     <t>ENSG00000182747</t>
   </si>
   <si>
-    <t>ENSG00000181218</t>
+    <t>ENSG00000109906</t>
   </si>
   <si>
     <t>ENSG00000187773</t>
   </si>
   <si>
-    <t>ENSG00000109906</t>
-  </si>
-  <si>
     <t>ENSG00000162631</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>ENSG00000167751</t>
   </si>
   <si>
-    <t>ENSG00000151090</t>
-  </si>
-  <si>
     <t>ENSG00000259281</t>
   </si>
   <si>
@@ -326,12 +320,12 @@
     <t>ENSG00000074219</t>
   </si>
   <si>
+    <t>ENSG00000287743</t>
+  </si>
+  <si>
     <t>ENSG00000268658</t>
   </si>
   <si>
-    <t>ENSG00000287743</t>
-  </si>
-  <si>
     <t>ENSG00000283293</t>
   </si>
   <si>
@@ -392,12 +386,12 @@
     <t>LINC02257</t>
   </si>
   <si>
+    <t>LSM2</t>
+  </si>
+  <si>
     <t>LINC02188</t>
   </si>
   <si>
-    <t>LSM2</t>
-  </si>
-  <si>
     <t>MMP9</t>
   </si>
   <si>
@@ -431,12 +425,12 @@
     <t>PACSIN1</t>
   </si>
   <si>
+    <t>DAB1</t>
+  </si>
+  <si>
     <t>LINC02302</t>
   </si>
   <si>
-    <t>DAB1</t>
-  </si>
-  <si>
     <t>LINC02875</t>
   </si>
   <si>
@@ -446,51 +440,48 @@
     <t>MCPH1-AS1</t>
   </si>
   <si>
+    <t>FAM86DP</t>
+  </si>
+  <si>
     <t>LINC00698</t>
   </si>
   <si>
-    <t>FAM86DP</t>
-  </si>
-  <si>
     <t>PLA2G4D</t>
   </si>
   <si>
     <t>UCN</t>
   </si>
   <si>
-    <t>PINX1</t>
-  </si>
-  <si>
     <t>PITPNM2</t>
   </si>
   <si>
+    <t>PTPRD-AS1</t>
+  </si>
+  <si>
     <t>RNASE4</t>
   </si>
   <si>
-    <t>PTPRD-AS1</t>
+    <t>LRIG1</t>
   </si>
   <si>
     <t>CFAP221</t>
   </si>
   <si>
-    <t>LRIG1</t>
+    <t>MGST1</t>
   </si>
   <si>
     <t>GZMM</t>
   </si>
   <si>
-    <t>MGST1</t>
+    <t>PKNOX2</t>
+  </si>
+  <si>
+    <t>CA10</t>
   </si>
   <si>
     <t>SLC44A3</t>
   </si>
   <si>
-    <t>PKNOX2</t>
-  </si>
-  <si>
-    <t>CA10</t>
-  </si>
-  <si>
     <t>PCP2</t>
   </si>
   <si>
@@ -503,12 +494,12 @@
     <t>ITGA11</t>
   </si>
   <si>
+    <t>IL20RA</t>
+  </si>
+  <si>
     <t>HCK</t>
   </si>
   <si>
-    <t>IL20RA</t>
-  </si>
-  <si>
     <t>RUBCNL</t>
   </si>
   <si>
@@ -518,18 +509,18 @@
     <t>GABRA1</t>
   </si>
   <si>
+    <t>H2AC25</t>
+  </si>
+  <si>
     <t>SLC35D3</t>
   </si>
   <si>
-    <t>H2AC25</t>
+    <t>ZBTB16</t>
   </si>
   <si>
     <t>DIPK1C</t>
   </si>
   <si>
-    <t>ZBTB16</t>
-  </si>
-  <si>
     <t>NTNG1</t>
   </si>
   <si>
@@ -537,9 +528,6 @@
   </si>
   <si>
     <t>KLK2</t>
-  </si>
-  <si>
-    <t>THRB</t>
   </si>
   <si>
     <t>LINGO1-AS2</t>
@@ -763,7 +751,7 @@
         <v>79792.0</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
         <v>130.08440126072807</v>
@@ -847,7 +835,7 @@
         <v>0.6305545971414304</v>
       </c>
       <c r="AF2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG2" t="n">
         <v>15.0</v>
@@ -856,16 +844,16 @@
         <v>1.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AJ2" t="n">
         <v>11.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>82.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="3">
@@ -879,7 +867,7 @@
         <v>1.00310756E8</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
         <v>10.521644814963405</v>
@@ -963,7 +951,7 @@
         <v>0.8969545953213813</v>
       </c>
       <c r="AF3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG3" t="n">
         <v>52.0</v>
@@ -972,7 +960,7 @@
         <v>7.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ3" t="n">
         <v>5.0</v>
@@ -981,7 +969,7 @@
         <v>20.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>87.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="4">
@@ -995,7 +983,7 @@
         <v>10457.0</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" t="n">
         <v>197.15784157917275</v>
@@ -1079,16 +1067,16 @@
         <v>0.98466269064073</v>
       </c>
       <c r="AF4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG4" t="n">
         <v>10.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="AJ4" t="n">
         <v>25.0</v>
@@ -1097,7 +1085,7 @@
         <v>2.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>90.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="5">
@@ -1111,7 +1099,7 @@
         <v>253044.0</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
         <v>133.4340341524444</v>
@@ -1195,7 +1183,7 @@
         <v>0.4072965818584434</v>
       </c>
       <c r="AF5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG5" t="n">
         <v>13.0</v>
@@ -1204,7 +1192,7 @@
         <v>5.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="AJ5" t="n">
         <v>17.0</v>
@@ -1213,7 +1201,7 @@
         <v>45.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>117.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1215,7 @@
         <v>1.0537295E8</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" t="n">
         <v>3.8540473216421574</v>
@@ -1311,7 +1299,7 @@
         <v>0.9116810870994749</v>
       </c>
       <c r="AF6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG6" t="n">
         <v>72.0</v>
@@ -1320,7 +1308,7 @@
         <v>22.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="AJ6" t="n">
         <v>7.0</v>
@@ -1329,7 +1317,7 @@
         <v>15.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>126.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="7">
@@ -1343,7 +1331,7 @@
         <v>#N/A</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" t="n">
         <v>2.653077588670476</v>
@@ -1427,16 +1415,16 @@
         <v>0.871291920680303</v>
       </c>
       <c r="AF7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG7" t="n">
-        <v>80.0</v>
+        <v>79.0</v>
       </c>
       <c r="AH7" t="n">
         <v>18.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AJ7" t="n">
         <v>2.0</v>
@@ -1445,7 +1433,7 @@
         <v>28.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>130.0</v>
+        <v>128.0</v>
       </c>
     </row>
     <row r="8">
@@ -1455,113 +1443,113 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="e">
-        <v>#N/A</v>
+      <c r="C8" t="n">
+        <v>57819.0</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" t="n">
-        <v>21.63626175765859</v>
+        <v>1008.0288055638487</v>
       </c>
       <c r="F8" t="n">
-        <v>8.679560174724754</v>
+        <v>-3.169638512481055</v>
       </c>
       <c r="G8" t="n">
-        <v>3.739016859807179E-46</v>
+        <v>4.65981363804865E-14</v>
       </c>
       <c r="H8" t="n">
-        <v>7.402709307689695</v>
+        <v>-1.894920548675768</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3727804095060676E-17</v>
+        <v>0.001600132172883212</v>
       </c>
       <c r="J8" t="n">
-        <v>6.813599124398201</v>
+        <v>-1.217724508879665</v>
       </c>
       <c r="K8" t="n">
-        <v>1.2143141774509987E-14</v>
+        <v>0.05899525005302078</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.4158875765683119</v>
+        <v>1.0357050892668214</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0016792182739103077</v>
+        <v>0.08908606174003222</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.0623658076500666</v>
+        <v>1.7522697306031958</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2069604599729138E-6</v>
+        <v>0.0013091067456770294</v>
       </c>
       <c r="P8" t="n">
-        <v>-8.646408501636294</v>
+        <v>3.08286231104995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2177714824008247E-19</v>
+        <v>7.460238585771834E-8</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.646478231081755</v>
+        <v>0.7165646413363743</v>
       </c>
       <c r="S8" t="n">
-        <v>0.21709231352592842</v>
+        <v>0.27838869648105746</v>
       </c>
       <c r="T8" t="n">
-        <v>-7.2305209250679825</v>
+        <v>2.047157221783128</v>
       </c>
       <c r="U8" t="n">
-        <v>2.321973885602435E-13</v>
+        <v>0.0015156050314980157</v>
       </c>
       <c r="V8" t="n">
-        <v>-6.584042693986228</v>
+        <v>1.3305925804467542</v>
       </c>
       <c r="W8" t="n">
-        <v>6.712357521847359E-11</v>
+        <v>0.04779983116999042</v>
       </c>
       <c r="X8" t="n">
-        <v>-1.2768508670350591</v>
+        <v>1.2747179638052868</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.49633603013282873</v>
+        <v>0.250399623357985</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1.8659610503265525</v>
+        <v>1.95191400360139</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.15342450191970014</v>
+        <v>0.018340254624117567</v>
       </c>
       <c r="AB8" t="n">
-        <v>-8.37368623633571</v>
+        <v>2.992684303041225</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.220978725250255E-9</v>
+        <v>2.0341575755237692E-4</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.5891101832914933</v>
+        <v>0.6771960397961031</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7264513246114253</v>
+        <v>0.5253845098650355</v>
       </c>
       <c r="AF8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG8" t="n">
-        <v>40.0</v>
+        <v>3.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>134.0</v>
+        <v>131.0</v>
       </c>
     </row>
     <row r="9">
@@ -1571,113 +1559,113 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="n">
-        <v>57819.0</v>
+      <c r="C9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" t="n">
-        <v>1008.0288055638487</v>
+        <v>21.63626175765859</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.169638512481055</v>
+        <v>8.679560174724754</v>
       </c>
       <c r="G9" t="n">
-        <v>4.65981363804865E-14</v>
+        <v>3.739016859807179E-46</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.894920548675768</v>
+        <v>7.402709307689695</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001600132172883212</v>
+        <v>1.3727804095060676E-17</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.217724508879665</v>
+        <v>6.813599124398201</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05899525005302078</v>
+        <v>1.2143141774509987E-14</v>
       </c>
       <c r="L9" t="n">
-        <v>1.0357050892668214</v>
+        <v>-1.4158875765683119</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08908606174003222</v>
+        <v>0.0016792182739103077</v>
       </c>
       <c r="N9" t="n">
-        <v>1.7522697306031958</v>
+        <v>-2.0623658076500666</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0013091067456770294</v>
+        <v>1.2069604599729138E-6</v>
       </c>
       <c r="P9" t="n">
-        <v>3.08286231104995</v>
+        <v>-8.646408501636294</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.460238585771834E-8</v>
+        <v>2.2177714824008247E-19</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7165646413363743</v>
+        <v>-0.646478231081755</v>
       </c>
       <c r="S9" t="n">
-        <v>0.27838869648105746</v>
+        <v>0.21709231352592842</v>
       </c>
       <c r="T9" t="n">
-        <v>2.047157221783128</v>
+        <v>-7.2305209250679825</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0015156050314980157</v>
+        <v>2.321973885602435E-13</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3305925804467542</v>
+        <v>-6.584042693986228</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04779983116999042</v>
+        <v>6.712357521847359E-11</v>
       </c>
       <c r="X9" t="n">
-        <v>1.2747179638052868</v>
+        <v>-1.2768508670350591</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.250399623357985</v>
+        <v>0.49633603013282873</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.95191400360139</v>
+        <v>-1.8659610503265525</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.018340254624117567</v>
+        <v>0.15342450191970014</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.992684303041225</v>
+        <v>-8.37368623633571</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.0341575755237692E-4</v>
+        <v>4.220978725250255E-9</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6771960397961031</v>
+        <v>-0.5891101832914933</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5253845098650355</v>
+        <v>0.7264513246114253</v>
       </c>
       <c r="AF9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>3.0</v>
       </c>
-      <c r="AH9" t="n">
-        <v>36.0</v>
-      </c>
       <c r="AI9" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>134.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="10">
@@ -1691,7 +1679,7 @@
         <v>4318.0</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" t="n">
         <v>55.24800792377605</v>
@@ -1775,7 +1763,7 @@
         <v>0.04524320688043539</v>
       </c>
       <c r="AF10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG10" t="n">
         <v>27.0</v>
@@ -1784,16 +1772,16 @@
         <v>14.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AJ10" t="n">
         <v>26.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>136.0</v>
+        <v>134.0</v>
       </c>
     </row>
     <row r="11">
@@ -1807,7 +1795,7 @@
         <v>158297.0</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
         <v>4.512084669442796</v>
@@ -1891,7 +1879,7 @@
         <v>0.6443667430817451</v>
       </c>
       <c r="AF11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG11" t="n">
         <v>69.0</v>
@@ -1900,7 +1888,7 @@
         <v>12.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.0</v>
@@ -1909,7 +1897,7 @@
         <v>34.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>139.0</v>
+        <v>137.0</v>
       </c>
     </row>
     <row r="12">
@@ -1923,7 +1911,7 @@
         <v>23338.0</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" t="n">
         <v>351.50076017937437</v>
@@ -2007,25 +1995,25 @@
         <v>0.7309596875461097</v>
       </c>
       <c r="AF12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG12" t="n">
         <v>7.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="AK12" t="n">
         <v>9.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>144.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="13">
@@ -2039,7 +2027,7 @@
         <v>#N/A</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" t="n">
         <v>1426.1120010553095</v>
@@ -2123,25 +2111,25 @@
         <v>0.17569099060638166</v>
       </c>
       <c r="AF13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG13" t="n">
         <v>1.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="AJ13" t="n">
         <v>1.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>81.0</v>
+        <v>80.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>148.0</v>
+        <v>144.0</v>
       </c>
     </row>
     <row r="14">
@@ -2155,7 +2143,7 @@
         <v>23526.0</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" t="n">
         <v>1013.0764401274707</v>
@@ -2239,7 +2227,7 @@
         <v>0.030413899656086367</v>
       </c>
       <c r="AF14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG14" t="n">
         <v>2.0</v>
@@ -2248,16 +2236,16 @@
         <v>8.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>59.0</v>
+        <v>57.0</v>
       </c>
       <c r="AK14" t="n">
         <v>49.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>149.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="15">
@@ -2271,7 +2259,7 @@
         <v>10148.0</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" t="n">
         <v>13.396335510849184</v>
@@ -2355,7 +2343,7 @@
         <v>0.7446323067316677</v>
       </c>
       <c r="AF15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="n">
         <v>49.0</v>
@@ -2364,7 +2352,7 @@
         <v>6.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="AJ15" t="n">
         <v>23.0</v>
@@ -2373,7 +2361,7 @@
         <v>32.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>150.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="16">
@@ -2387,7 +2375,7 @@
         <v>642475.0</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" t="n">
         <v>55.97074868410211</v>
@@ -2471,7 +2459,7 @@
         <v>0.8520757843859208</v>
       </c>
       <c r="AF16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="n">
         <v>25.0</v>
@@ -2480,16 +2468,16 @@
         <v>27.0</v>
       </c>
       <c r="AI16" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="AK16" t="n">
         <v>12.0</v>
       </c>
       <c r="AL16" t="n">
-        <v>156.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="17">
@@ -2503,7 +2491,7 @@
         <v>5346.0</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" t="n">
         <v>7.896582175847657</v>
@@ -2587,7 +2575,7 @@
         <v>0.8185314753337187</v>
       </c>
       <c r="AF17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="n">
         <v>58.0</v>
@@ -2596,16 +2584,16 @@
         <v>24.0</v>
       </c>
       <c r="AI17" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="AK17" t="n">
         <v>17.0</v>
       </c>
       <c r="AL17" t="n">
-        <v>156.0</v>
+        <v>153.0</v>
       </c>
     </row>
     <row r="18">
@@ -2619,7 +2607,7 @@
         <v>25849.0</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" t="n">
         <v>98.12140280585382</v>
@@ -2703,7 +2691,7 @@
         <v>0.9644304795968517</v>
       </c>
       <c r="AF18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="n">
         <v>20.0</v>
@@ -2712,16 +2700,16 @@
         <v>23.0</v>
       </c>
       <c r="AI18" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="AK18" t="n">
         <v>3.0</v>
       </c>
       <c r="AL18" t="n">
-        <v>158.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="19">
@@ -2735,7 +2723,7 @@
         <v>9074.0</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" t="n">
         <v>116.90374181260528</v>
@@ -2819,7 +2807,7 @@
         <v>0.5289540316029392</v>
       </c>
       <c r="AF19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="n">
         <v>17.0</v>
@@ -2828,16 +2816,16 @@
         <v>17.0</v>
       </c>
       <c r="AI19" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="AK19" t="n">
         <v>30.0</v>
       </c>
       <c r="AL19" t="n">
-        <v>158.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="20">
@@ -2851,7 +2839,7 @@
         <v>23072.0</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" t="n">
         <v>55.46688749827918</v>
@@ -2935,7 +2923,7 @@
         <v>0.8770258124101133</v>
       </c>
       <c r="AF20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="n">
         <v>26.0</v>
@@ -2944,16 +2932,16 @@
         <v>2.0</v>
       </c>
       <c r="AI20" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55.0</v>
+        <v>53.0</v>
       </c>
       <c r="AK20" t="n">
         <v>18.0</v>
       </c>
       <c r="AL20" t="n">
-        <v>163.0</v>
+        <v>159.0</v>
       </c>
     </row>
     <row r="21">
@@ -2967,7 +2955,7 @@
         <v>29993.0</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" t="n">
         <v>132.687601398257</v>
@@ -3051,25 +3039,25 @@
         <v>0.8359863908862175</v>
       </c>
       <c r="AF21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="n">
         <v>14.0</v>
       </c>
       <c r="AH21" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="AI21" t="n">
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="AK21" t="n">
         <v>8.0</v>
       </c>
       <c r="AL21" t="n">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="22">
@@ -3079,113 +3067,113 @@
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="e">
-        <v>#N/A</v>
+      <c r="C22" t="n">
+        <v>1600.0</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" t="n">
-        <v>12.77962519267662</v>
+        <v>397.90981293541785</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.8149515570658603</v>
+        <v>-1.6346298813725175</v>
       </c>
       <c r="G22" t="n">
-        <v>4.518910994374127E-20</v>
+        <v>1.6207709154724416E-28</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.683579039466635</v>
+        <v>0.2415711553226009</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6249008866597117E-8</v>
+        <v>0.26217316532811585</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.5460804603799811</v>
+        <v>-0.5600857935077653</v>
       </c>
       <c r="K22" t="n">
-        <v>9.997280532473208E-8</v>
+        <v>0.00919211338959536</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3753025527585818</v>
+        <v>1.7435357719532665</v>
       </c>
       <c r="M22" t="n">
-        <v>6.464289670109569E-4</v>
+        <v>1.7740677968697135E-21</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6134663569820886</v>
+        <v>1.3237730137038721</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3287602186418323E-5</v>
+        <v>4.1437535550660297E-13</v>
       </c>
       <c r="P22" t="n">
-        <v>1.9184717380479943</v>
+        <v>1.8657546421788618</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.874762985308525E-7</v>
+        <v>3.3709263030072568E-21</v>
       </c>
       <c r="R22" t="n">
-        <v>0.23816380422350703</v>
+        <v>-0.41976275824939396</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5360644070955684</v>
+        <v>0.051836454935847286</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5431691852894127</v>
+        <v>0.12221887022559552</v>
       </c>
       <c r="U22" t="n">
-        <v>0.14788663057730986</v>
+        <v>0.6062474636393294</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3050053810659057</v>
+        <v>0.5419816284749895</v>
       </c>
       <c r="W22" t="n">
-        <v>0.43312297000776856</v>
+        <v>0.017564329733892273</v>
       </c>
       <c r="X22" t="n">
-        <v>1.1313725175992255</v>
+        <v>1.8762010366951185</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.04858438672055375</v>
+        <v>2.8619548956713804E-12</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.268871096685879</v>
+        <v>1.0745440878647523</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.007122934201401126</v>
+        <v>7.041718407130155E-5</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.221866918192069</v>
+        <v>0.6145321157386203</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.618449413751604E-6</v>
+        <v>0.03310293282408929</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.13749857908665358</v>
+        <v>-0.8016569488303662</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.812144571258313</v>
+        <v>0.00981541314429553</v>
       </c>
       <c r="AF22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="n">
-        <v>50.0</v>
+        <v>5.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>39.0</v>
+        <v>62.0</v>
       </c>
       <c r="AI22" t="n">
-        <v>43.0</v>
+        <v>16.0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="AK22" t="n">
-        <v>10.0</v>
+        <v>48.0</v>
       </c>
       <c r="AL22" t="n">
-        <v>172.0</v>
+        <v>167.0</v>
       </c>
     </row>
     <row r="23">
@@ -3195,113 +3183,113 @@
       <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="n">
-        <v>1600.0</v>
+      <c r="C23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" t="n">
-        <v>397.90981293541785</v>
+        <v>12.77962519267662</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.6346298813725175</v>
+        <v>-2.8149515570658603</v>
       </c>
       <c r="G23" t="n">
-        <v>1.6207709154724416E-28</v>
+        <v>4.518910994374127E-20</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2415711553226009</v>
+        <v>-1.683579039466635</v>
       </c>
       <c r="I23" t="n">
-        <v>0.26217316532811585</v>
+        <v>1.6249008866597117E-8</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.5600857935077653</v>
+        <v>-1.5460804603799811</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00919211338959536</v>
+        <v>9.997280532473208E-8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.7435357719532665</v>
+        <v>1.3753025527585818</v>
       </c>
       <c r="M23" t="n">
-        <v>1.7740677968697135E-21</v>
+        <v>6.464289670109569E-4</v>
       </c>
       <c r="N23" t="n">
-        <v>1.3237730137038721</v>
+        <v>1.6134663569820886</v>
       </c>
       <c r="O23" t="n">
-        <v>4.1437535550660297E-13</v>
+        <v>1.3287602186418323E-5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8657546421788618</v>
+        <v>1.9184717380479943</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.3709263030072568E-21</v>
+        <v>7.874762985308525E-7</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.41976275824939396</v>
+        <v>0.23816380422350703</v>
       </c>
       <c r="S23" t="n">
-        <v>0.051836454935847286</v>
+        <v>0.5360644070955684</v>
       </c>
       <c r="T23" t="n">
-        <v>0.12221887022559552</v>
+        <v>0.5431691852894127</v>
       </c>
       <c r="U23" t="n">
-        <v>0.6062474636393294</v>
+        <v>0.14788663057730986</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5419816284749895</v>
+        <v>0.3050053810659057</v>
       </c>
       <c r="W23" t="n">
-        <v>0.017564329733892273</v>
+        <v>0.43312297000776856</v>
       </c>
       <c r="X23" t="n">
-        <v>1.8762010366951185</v>
+        <v>1.1313725175992255</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.8619548956713804E-12</v>
+        <v>0.04858438672055375</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.0745440878647523</v>
+        <v>1.268871096685879</v>
       </c>
       <c r="AA23" t="n">
-        <v>7.041718407130155E-5</v>
+        <v>0.007122934201401126</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.6145321157386203</v>
+        <v>2.221866918192069</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.03310293282408929</v>
+        <v>2.618449413751604E-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.8016569488303662</v>
+        <v>0.13749857908665358</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.00981541314429553</v>
+        <v>0.812144571258313</v>
       </c>
       <c r="AF23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.0</v>
+        <v>50.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>64.0</v>
+        <v>38.0</v>
       </c>
       <c r="AI23" t="n">
-        <v>18.0</v>
+        <v>41.0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
       <c r="AK23" t="n">
-        <v>48.0</v>
+        <v>10.0</v>
       </c>
       <c r="AL23" t="n">
-        <v>172.0</v>
+        <v>168.0</v>
       </c>
     </row>
     <row r="24">
@@ -3315,7 +3303,7 @@
         <v>388407.0</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" t="n">
         <v>21.948545783875517</v>
@@ -3399,16 +3387,16 @@
         <v>0.4966968487835711</v>
       </c>
       <c r="AF24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG24" t="n">
         <v>39.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="AI24" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="AJ24" t="n">
         <v>27.0</v>
@@ -3417,7 +3405,7 @@
         <v>25.0</v>
       </c>
       <c r="AL24" t="n">
-        <v>173.0</v>
+        <v>170.0</v>
       </c>
     </row>
     <row r="25">
@@ -3431,7 +3419,7 @@
         <v>7476.0</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E25" t="n">
         <v>22.32490102654067</v>
@@ -3515,7 +3503,7 @@
         <v>0.8176145479211755</v>
       </c>
       <c r="AF25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="n">
         <v>38.0</v>
@@ -3524,16 +3512,16 @@
         <v>4.0</v>
       </c>
       <c r="AI25" t="n">
-        <v>69.0</v>
+        <v>67.0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="AK25" t="n">
         <v>29.0</v>
       </c>
       <c r="AL25" t="n">
-        <v>176.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="26">
@@ -3543,113 +3531,113 @@
       <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="e">
-        <v>#N/A</v>
+      <c r="C26" t="n">
+        <v>1.07984273E8</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E26" t="n">
-        <v>5.749694536797972</v>
+        <v>23.197704638246122</v>
       </c>
       <c r="F26" t="n">
-        <v>3.091769134325756</v>
+        <v>-1.151981506448659</v>
       </c>
       <c r="G26" t="n">
-        <v>1.733338248916687E-8</v>
+        <v>2.6777620304569114E-12</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6748075114138865</v>
+        <v>0.3298481188664698</v>
       </c>
       <c r="I26" t="n">
-        <v>0.40671988371250883</v>
+        <v>0.06675099694930171</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.381441623162635</v>
+        <v>0.09925892974827448</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1057901041639081</v>
+        <v>0.644615663316306</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.07190920790669</v>
+        <v>1.5049996208887229</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002894013029055267</v>
+        <v>6.365695649053125E-16</v>
       </c>
       <c r="N26" t="n">
-        <v>-3.305711106263623</v>
+        <v>1.2361834913983079</v>
       </c>
       <c r="O26" t="n">
-        <v>2.452909734627342E-6</v>
+        <v>3.6236542244374223E-11</v>
       </c>
       <c r="P26" t="n">
-        <v>-4.604012317674907</v>
+        <v>0.6782980601190169</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.7139903400381097E-6</v>
+        <v>0.002993020197582734</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.2338018983569328</v>
+        <v>-0.268816129490415</v>
       </c>
       <c r="S26" t="n">
-        <v>0.14819448394224174</v>
+        <v>0.1560998878137489</v>
       </c>
       <c r="T26" t="n">
-        <v>-2.5321031097682165</v>
+        <v>-0.8267015607697059</v>
       </c>
       <c r="U26" t="n">
-        <v>0.019323207119592456</v>
+        <v>1.3215601125635961E-4</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.2983012114112837</v>
+        <v>-0.5578854312792909</v>
       </c>
       <c r="W26" t="n">
-        <v>0.2760781238687557</v>
+        <v>0.013777773525952577</v>
       </c>
       <c r="X26" t="n">
-        <v>-2.4169616229118693</v>
+        <v>1.4818296253151286</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.05169791074946219</v>
+        <v>1.6966298437966436E-8</v>
       </c>
       <c r="Z26" t="n">
-        <v>-4.473210757488391</v>
+        <v>1.2512404361969334</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.730093223285665E-6</v>
+        <v>9.831620277437192E-7</v>
       </c>
       <c r="AB26" t="n">
-        <v>-5.553177477355837</v>
+        <v>1.0742840482439473</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.38670920391925E-6</v>
+        <v>2.929202403732327E-4</v>
       </c>
       <c r="AD26" t="n">
-        <v>-2.0562491345765217</v>
+        <v>-0.23058918911819534</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.09290470053094992</v>
+        <v>0.4554633784755886</v>
       </c>
       <c r="AF26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG26" t="n">
-        <v>63.0</v>
+        <v>36.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>37.0</v>
+        <v>74.0</v>
       </c>
       <c r="AI26" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3.0</v>
+        <v>31.0</v>
       </c>
       <c r="AK26" t="n">
-        <v>70.0</v>
+        <v>16.0</v>
       </c>
       <c r="AL26" t="n">
-        <v>185.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="27">
@@ -3659,113 +3647,113 @@
       <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="n">
-        <v>1.07984273E8</v>
+      <c r="C27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E27" t="n">
-        <v>23.197704638246122</v>
+        <v>5.749694536797972</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.151981506448659</v>
+        <v>3.091769134325756</v>
       </c>
       <c r="G27" t="n">
-        <v>2.6777620304569114E-12</v>
+        <v>1.733338248916687E-8</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3298481188664698</v>
+        <v>0.6748075114138865</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06675099694930171</v>
+        <v>0.40671988371250883</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09925892974827448</v>
+        <v>-1.381441623162635</v>
       </c>
       <c r="K27" t="n">
-        <v>0.644615663316306</v>
+        <v>0.1057901041639081</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5049996208887229</v>
+        <v>-2.07190920790669</v>
       </c>
       <c r="M27" t="n">
-        <v>6.365695649053125E-16</v>
+        <v>0.002894013029055267</v>
       </c>
       <c r="N27" t="n">
-        <v>1.2361834913983079</v>
+        <v>-3.305711106263623</v>
       </c>
       <c r="O27" t="n">
-        <v>3.6236542244374223E-11</v>
+        <v>2.452909734627342E-6</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6782980601190169</v>
+        <v>-4.604012317674907</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.002993020197582734</v>
+        <v>3.7139903400381097E-6</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.268816129490415</v>
+        <v>-1.2338018983569328</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1560998878137489</v>
+        <v>0.14819448394224174</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.8267015607697059</v>
+        <v>-2.5321031097682165</v>
       </c>
       <c r="U27" t="n">
-        <v>1.3215601125635961E-4</v>
+        <v>0.019323207119592456</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.5578854312792909</v>
+        <v>-1.2983012114112837</v>
       </c>
       <c r="W27" t="n">
-        <v>0.013777773525952577</v>
+        <v>0.2760781238687557</v>
       </c>
       <c r="X27" t="n">
-        <v>1.4818296253151286</v>
+        <v>-2.4169616229118693</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.6966298437966436E-8</v>
+        <v>0.05169791074946219</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.2512404361969334</v>
+        <v>-4.473210757488391</v>
       </c>
       <c r="AA27" t="n">
-        <v>9.831620277437192E-7</v>
+        <v>9.730093223285665E-6</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.0742840482439473</v>
+        <v>-5.553177477355837</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.929202403732327E-4</v>
+        <v>8.38670920391925E-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.23058918911819534</v>
+        <v>-2.0562491345765217</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.4554633784755886</v>
+        <v>0.09290470053094992</v>
       </c>
       <c r="AF27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG27" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AH27" t="n">
         <v>36.0</v>
       </c>
-      <c r="AH27" t="n">
-        <v>76.0</v>
-      </c>
       <c r="AI27" t="n">
-        <v>27.0</v>
+        <v>11.0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK27" t="n">
-        <v>16.0</v>
+        <v>69.0</v>
       </c>
       <c r="AL27" t="n">
-        <v>187.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="28">
@@ -3776,112 +3764,112 @@
         <v>63</v>
       </c>
       <c r="C28" t="n">
-        <v>285401.0</v>
+        <v>692099.0</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" t="n">
-        <v>5.283471994214754</v>
+        <v>20.677095921254388</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.2630508420184468</v>
+        <v>-1.490531810764447</v>
       </c>
       <c r="G28" t="n">
-        <v>8.689335545492435E-12</v>
+        <v>7.412725172614401E-4</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.8398841106326551</v>
+        <v>-0.010529271920634145</v>
       </c>
       <c r="I28" t="n">
-        <v>2.274630865762529E-5</v>
+        <v>0.9876687084886924</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.1537335554164543</v>
+        <v>0.5373458067532607</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0033556000415641157</v>
+        <v>0.41938867962264514</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4020126360781597</v>
+        <v>1.368175218859697</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03718065668866057</v>
+        <v>0.021380016162668238</v>
       </c>
       <c r="N28" t="n">
-        <v>2.0616102094565423</v>
+        <v>1.9154832310230288</v>
       </c>
       <c r="O28" t="n">
-        <v>2.729104391597707E-4</v>
+        <v>4.0020915955400196E-4</v>
       </c>
       <c r="P28" t="n">
-        <v>2.61860624228296</v>
+        <v>2.5999876526508388</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.8817485081725625E-6</v>
+        <v>4.822454404380455E-6</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6595975733783824</v>
+        <v>0.5473080121633316</v>
       </c>
       <c r="S28" t="n">
-        <v>0.21045720740078214</v>
+        <v>0.3987152910367086</v>
       </c>
       <c r="T28" t="n">
-        <v>1.2165936062048004</v>
+        <v>1.2318124337911418</v>
       </c>
       <c r="U28" t="n">
-        <v>0.017203793344376064</v>
+        <v>0.05009444155553756</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5569960328264181</v>
+        <v>0.6845044216278102</v>
       </c>
       <c r="W28" t="n">
-        <v>0.25554097343744747</v>
+        <v>0.30345036908585704</v>
       </c>
       <c r="X28" t="n">
-        <v>1.4231667313857914</v>
+        <v>1.4800025388438127</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.11669275583896242</v>
+        <v>0.15092434925299306</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.1093172866019927</v>
+        <v>2.027877617517708</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0016833064454686549</v>
+        <v>0.012053745595969194</v>
       </c>
       <c r="AB28" t="n">
-        <v>2.0821863304037467</v>
+        <v>1.7357793968762356</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0016861608276525497</v>
+        <v>0.033569718014628575</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.686150555216201</v>
+        <v>0.5478750786738948</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.319495616701217</v>
+        <v>0.6032796290939405</v>
       </c>
       <c r="AF28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="n">
-        <v>66.0</v>
+        <v>42.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>34.0</v>
+        <v>67.0</v>
       </c>
       <c r="AI28" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AK28" t="n">
-        <v>42.0</v>
+        <v>33.0</v>
       </c>
       <c r="AL28" t="n">
-        <v>187.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="29">
@@ -3892,112 +3880,112 @@
         <v>64</v>
       </c>
       <c r="C29" t="n">
-        <v>692099.0</v>
+        <v>285401.0</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E29" t="n">
-        <v>20.677095921254388</v>
+        <v>5.283471994214754</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.490531810764447</v>
+        <v>-3.2630508420184468</v>
       </c>
       <c r="G29" t="n">
-        <v>7.412725172614401E-4</v>
+        <v>8.689335545492435E-12</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.010529271920634145</v>
+        <v>-1.8398841106326551</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9876687084886924</v>
+        <v>2.274630865762529E-5</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5373458067532607</v>
+        <v>-1.1537335554164543</v>
       </c>
       <c r="K29" t="n">
-        <v>0.41938867962264514</v>
+        <v>0.0033556000415641157</v>
       </c>
       <c r="L29" t="n">
-        <v>1.368175218859697</v>
+        <v>1.4020126360781597</v>
       </c>
       <c r="M29" t="n">
-        <v>0.021380016162668238</v>
+        <v>0.03718065668866057</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9154832310230288</v>
+        <v>2.0616102094565423</v>
       </c>
       <c r="O29" t="n">
-        <v>4.0020915955400196E-4</v>
+        <v>2.729104391597707E-4</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5999876526508388</v>
+        <v>2.61860624228296</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.822454404380455E-6</v>
+        <v>3.8817485081725625E-6</v>
       </c>
       <c r="R29" t="n">
-        <v>0.5473080121633316</v>
+        <v>0.6595975733783824</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3987152910367086</v>
+        <v>0.21045720740078214</v>
       </c>
       <c r="T29" t="n">
-        <v>1.2318124337911418</v>
+        <v>1.2165936062048004</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05009444155553756</v>
+        <v>0.017203793344376064</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6845044216278102</v>
+        <v>0.5569960328264181</v>
       </c>
       <c r="W29" t="n">
-        <v>0.30345036908585704</v>
+        <v>0.25554097343744747</v>
       </c>
       <c r="X29" t="n">
-        <v>1.4800025388438127</v>
+        <v>1.4231667313857914</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.15092434925299306</v>
+        <v>0.11669275583896242</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.027877617517708</v>
+        <v>2.1093172866019927</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.012053745595969194</v>
+        <v>0.0016833064454686549</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.7357793968762356</v>
+        <v>2.0821863304037467</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.033569718014628575</v>
+        <v>0.0016861608276525497</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.5478750786738948</v>
+        <v>0.686150555216201</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.6032796290939405</v>
+        <v>0.319495616701217</v>
       </c>
       <c r="AF29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG29" t="n">
-        <v>42.0</v>
+        <v>66.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>69.0</v>
+        <v>33.0</v>
       </c>
       <c r="AI29" t="n">
         <v>28.0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="AK29" t="n">
-        <v>33.0</v>
+        <v>42.0</v>
       </c>
       <c r="AL29" t="n">
-        <v>188.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="30">
@@ -4011,7 +3999,7 @@
         <v>283748.0</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" t="n">
         <v>35.9682008286396</v>
@@ -4095,25 +4083,25 @@
         <v>0.0222766857630509</v>
       </c>
       <c r="AF30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG30" t="n">
         <v>32.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>40.0</v>
+        <v>39.0</v>
       </c>
       <c r="AI30" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="AJ30" t="n">
         <v>14.0</v>
       </c>
       <c r="AK30" t="n">
-        <v>57.0</v>
+        <v>56.0</v>
       </c>
       <c r="AL30" t="n">
-        <v>190.0</v>
+        <v>186.0</v>
       </c>
     </row>
     <row r="31">
@@ -4127,7 +4115,7 @@
         <v>7349.0</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" t="n">
         <v>28.04273841462717</v>
@@ -4211,25 +4199,25 @@
         <v>0.9992642686140727</v>
       </c>
       <c r="AF31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG31" t="n">
         <v>35.0</v>
       </c>
       <c r="AH31" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="AI31" t="n">
-        <v>70.0</v>
+        <v>68.0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="AK31" t="n">
         <v>1.0</v>
       </c>
       <c r="AL31" t="n">
-        <v>195.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="32">
@@ -4240,112 +4228,112 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>54984.0</v>
+        <v>57605.0</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32" t="n">
-        <v>3.4503714539835997</v>
+        <v>153.8288754808122</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.526141773068094</v>
+        <v>-2.270756752877306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002166025213365134</v>
+        <v>1.21291164767839E-90</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.2597550178484305</v>
+        <v>-1.4256913545232017</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4024309326487255</v>
+        <v>5.265932804688141E-26</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.1177979175969726</v>
+        <v>-0.5146381205748353</v>
       </c>
       <c r="K32" t="n">
-        <v>0.18564864875650566</v>
+        <v>1.7249691652795003E-4</v>
       </c>
       <c r="L32" t="n">
-        <v>3.7025081941396762</v>
+        <v>1.1021395919732462</v>
       </c>
       <c r="M32" t="n">
-        <v>0.013813158189764314</v>
+        <v>6.396242112117955E-15</v>
       </c>
       <c r="N32" t="n">
-        <v>2.5513811087328375</v>
+        <v>2.0005692490353355</v>
       </c>
       <c r="O32" t="n">
-        <v>0.09020958485366647</v>
+        <v>7.491178724784828E-53</v>
       </c>
       <c r="P32" t="n">
-        <v>5.220791496658123</v>
+        <v>2.487156504190816</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.100380000472592E-4</v>
+        <v>1.2777253004949334E-69</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.1511270854068387</v>
+        <v>0.8984296570620891</v>
       </c>
       <c r="S32" t="n">
-        <v>0.49054664469887604</v>
+        <v>1.1134795269645156E-10</v>
       </c>
       <c r="T32" t="n">
-        <v>1.5182833025184468</v>
+        <v>1.3850169122175693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3401877209578169</v>
+        <v>6.376260743513337E-21</v>
       </c>
       <c r="V32" t="n">
-        <v>2.6694103879252853</v>
+        <v>0.4865872551554801</v>
       </c>
       <c r="W32" t="n">
-        <v>0.10070329285606974</v>
+        <v>0.0010541125106983146</v>
       </c>
       <c r="X32" t="n">
-        <v>2.2663867552196635</v>
+        <v>0.845065398354104</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.46040586355955626</v>
+        <v>3.911649613557343E-5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.4083438554711212</v>
+        <v>1.7561186323024705</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.57864728707024</v>
+        <v>3.031068058037884E-23</v>
       </c>
       <c r="AB32" t="n">
-        <v>4.947781662133776</v>
+        <v>2.935807496483194</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.015062993267831773</v>
+        <v>5.428718777430644E-57</v>
       </c>
       <c r="AD32" t="n">
-        <v>-0.8580428997485423</v>
+        <v>0.9110532339483663</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.7519340454956562</v>
+        <v>4.172029282161984E-6</v>
       </c>
       <c r="AF32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG32" t="n">
-        <v>75.0</v>
+        <v>12.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c r="AI32" t="n">
-        <v>14.0</v>
+        <v>57.0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="AK32" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="AL32" t="n">
-        <v>197.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="33">
@@ -4356,112 +4344,112 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>57605.0</v>
+        <v>1.01929407E8</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33" t="n">
-        <v>153.8288754808122</v>
+        <v>19.69505334615217</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.270756752877306</v>
+        <v>-1.791885795863562</v>
       </c>
       <c r="G33" t="n">
-        <v>1.21291164767839E-90</v>
+        <v>1.4781146928190743E-17</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.4256913545232017</v>
+        <v>-0.7382412847702291</v>
       </c>
       <c r="I33" t="n">
-        <v>5.265932804688141E-26</v>
+        <v>0.0013580752377983743</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.5146381205748353</v>
+        <v>-0.46907069870691387</v>
       </c>
       <c r="K33" t="n">
-        <v>1.7249691652795003E-4</v>
+        <v>0.03539284831591679</v>
       </c>
       <c r="L33" t="n">
-        <v>1.1021395919732462</v>
+        <v>1.1219269047498557</v>
       </c>
       <c r="M33" t="n">
-        <v>6.396242112117955E-15</v>
+        <v>2.6708282031750675E-5</v>
       </c>
       <c r="N33" t="n">
-        <v>2.0005692490353355</v>
+        <v>1.795204057625412</v>
       </c>
       <c r="O33" t="n">
-        <v>7.491178724784828E-53</v>
+        <v>3.533131532386825E-14</v>
       </c>
       <c r="P33" t="n">
-        <v>2.487156504190816</v>
+        <v>0.1500781871762938</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.2777253004949334E-69</v>
+        <v>0.6756200021886251</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8984296570620891</v>
+        <v>0.6732771528755563</v>
       </c>
       <c r="S33" t="n">
-        <v>1.1134795269645156E-10</v>
+        <v>0.0046952788530033145</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3850169122175693</v>
+        <v>-0.9718487175735618</v>
       </c>
       <c r="U33" t="n">
-        <v>6.376260743513337E-21</v>
+        <v>0.002676503823391226</v>
       </c>
       <c r="V33" t="n">
-        <v>0.4865872551554801</v>
+        <v>-1.645125870449118</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0010541125106983146</v>
+        <v>1.550501300370966E-7</v>
       </c>
       <c r="X33" t="n">
-        <v>0.845065398354104</v>
+        <v>1.0536445110933328</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.911649613557343E-5</v>
+        <v>0.006155300494293724</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.7561186323024705</v>
+        <v>1.322815097156648</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.031068058037884E-23</v>
+        <v>3.058570750568321E-5</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.935807496483194</v>
+        <v>0.019408883377275258</v>
       </c>
       <c r="AC33" t="n">
-        <v>5.428718777430644E-57</v>
+        <v>0.9693971225321661</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.9110532339483663</v>
+        <v>0.2691705860633153</v>
       </c>
       <c r="AE33" t="n">
-        <v>4.172029282161984E-6</v>
+        <v>0.48756642021264446</v>
       </c>
       <c r="AF33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.0</v>
+        <v>43.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>51.0</v>
+        <v>60.0</v>
       </c>
       <c r="AI33" t="n">
-        <v>59.0</v>
+        <v>44.0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="AK33" t="n">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
       <c r="AL33" t="n">
-        <v>197.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="34">
@@ -4475,7 +4463,7 @@
         <v>6038.0</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" t="n">
         <v>20.858746870302813</v>
@@ -4559,7 +4547,7 @@
         <v>0.3141890402112403</v>
       </c>
       <c r="AF34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="n">
         <v>41.0</v>
@@ -4568,16 +4556,16 @@
         <v>25.0</v>
       </c>
       <c r="AI34" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>56.0</v>
+        <v>54.0</v>
       </c>
       <c r="AK34" t="n">
         <v>44.0</v>
       </c>
       <c r="AL34" t="n">
-        <v>200.0</v>
+        <v>196.0</v>
       </c>
     </row>
     <row r="35">
@@ -4588,112 +4576,112 @@
         <v>70</v>
       </c>
       <c r="C35" t="n">
-        <v>1.01929407E8</v>
+        <v>26018.0</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" t="n">
-        <v>19.69505334615217</v>
+        <v>39.62412432541371</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.791885795863562</v>
+        <v>-1.0990708513597527</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4781146928190743E-17</v>
+        <v>3.820983026219828E-5</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.7382412847702291</v>
+        <v>0.09362694620643719</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0013580752377983743</v>
+        <v>0.804447100574111</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.46907069870691387</v>
+        <v>-0.11570310955932078</v>
       </c>
       <c r="K35" t="n">
-        <v>0.03539284831591679</v>
+        <v>0.78633778240796</v>
       </c>
       <c r="L35" t="n">
-        <v>1.1219269047498557</v>
+        <v>1.9845698373762553</v>
       </c>
       <c r="M35" t="n">
-        <v>2.6708282031750675E-5</v>
+        <v>6.949000475702763E-10</v>
       </c>
       <c r="N35" t="n">
-        <v>1.795204057625412</v>
+        <v>1.3799260493114833</v>
       </c>
       <c r="O35" t="n">
-        <v>3.533131532386825E-14</v>
+        <v>1.8907021783237788E-5</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1500781871762938</v>
+        <v>1.8415123535512588</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6756200021886251</v>
+        <v>7.032135151904272E-8</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6732771528755563</v>
+        <v>-0.604643788064772</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0046952788530033145</v>
+        <v>0.09357682159757526</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.9718487175735618</v>
+        <v>-0.14305748382499656</v>
       </c>
       <c r="U35" t="n">
-        <v>0.002676503823391226</v>
+        <v>0.7196071789491976</v>
       </c>
       <c r="V35" t="n">
-        <v>-1.645125870449118</v>
+        <v>0.4615863042397755</v>
       </c>
       <c r="W35" t="n">
-        <v>1.550501300370966E-7</v>
+        <v>0.24223607324012708</v>
       </c>
       <c r="X35" t="n">
-        <v>1.0536445110933328</v>
+        <v>1.1926977975661899</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.006155300494293724</v>
+        <v>0.03143498926141179</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.322815097156648</v>
+        <v>0.9833677418004318</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.058570750568321E-5</v>
+        <v>0.04842924034403348</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.019408883377275258</v>
+        <v>0.9019983306424095</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.9693971225321661</v>
+        <v>0.06905939900557116</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.2691705860633153</v>
+        <v>-0.20933005576575797</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.48756642021264446</v>
+        <v>0.7443835491019699</v>
       </c>
       <c r="AF35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG35" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>62.0</v>
+        <v>80.0</v>
       </c>
       <c r="AI35" t="n">
-        <v>46.0</v>
+        <v>37.0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>29.0</v>
+        <v>37.0</v>
       </c>
       <c r="AK35" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="AL35" t="n">
-        <v>201.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="36">
@@ -4707,7 +4695,7 @@
         <v>200373.0</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
         <v>7.03283305678711</v>
@@ -4791,25 +4779,25 @@
         <v>0.6103762318619372</v>
       </c>
       <c r="AF36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG36" t="n">
         <v>61.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="AI36" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="AK36" t="n">
         <v>26.0</v>
       </c>
       <c r="AL36" t="n">
-        <v>203.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="37">
@@ -4820,112 +4808,112 @@
         <v>72</v>
       </c>
       <c r="C37" t="n">
-        <v>26018.0</v>
+        <v>4257.0</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" t="n">
-        <v>39.62412432541371</v>
+        <v>60.81784554590649</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.0990708513597527</v>
+        <v>-2.20936286023181</v>
       </c>
       <c r="G37" t="n">
-        <v>3.820983026219828E-5</v>
+        <v>2.733298889933373E-12</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09362694620643719</v>
+        <v>-1.5944163506778923</v>
       </c>
       <c r="I37" t="n">
-        <v>0.804447100574111</v>
+        <v>2.428699911086003E-5</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.11570310955932078</v>
+        <v>-1.4554144863784817</v>
       </c>
       <c r="K37" t="n">
-        <v>0.78633778240796</v>
+        <v>1.5600950867050004E-4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.9845698373762553</v>
+        <v>2.5278712759768203</v>
       </c>
       <c r="M37" t="n">
-        <v>6.949000475702763E-10</v>
+        <v>4.009418539358702E-11</v>
       </c>
       <c r="N37" t="n">
-        <v>1.3799260493114833</v>
+        <v>3.442312717381349</v>
       </c>
       <c r="O37" t="n">
-        <v>1.8907021783237788E-5</v>
+        <v>3.5639957910813526E-21</v>
       </c>
       <c r="P37" t="n">
-        <v>1.8415123535512588</v>
+        <v>2.611829855823044</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.032135151904272E-8</v>
+        <v>8.635073560486897E-11</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.604643788064772</v>
+        <v>0.9144414414045287</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09357682159757526</v>
+        <v>0.0215746006712125</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.14305748382499656</v>
+        <v>0.08395857984622339</v>
       </c>
       <c r="U37" t="n">
-        <v>0.7196071789491976</v>
+        <v>0.8593116573642553</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4615863042397755</v>
+        <v>-0.8304828615583053</v>
       </c>
       <c r="W37" t="n">
-        <v>0.24223607324012708</v>
+        <v>0.0551610514856399</v>
       </c>
       <c r="X37" t="n">
-        <v>1.1926977975661899</v>
+        <v>0.6149465095539175</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.03143498926141179</v>
+        <v>0.46738604100626824</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.9833677418004318</v>
+        <v>0.7539483738533281</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.04842924034403348</v>
+        <v>0.21315383752262884</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.9019983306424095</v>
+        <v>2.1350393128728067</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06905939900557116</v>
+        <v>9.74853804537144E-5</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.20933005576575797</v>
+        <v>0.1390018642994107</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.7443835491019699</v>
+        <v>0.853437038044145</v>
       </c>
       <c r="AF37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG37" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>82.0</v>
+        <v>50.0</v>
       </c>
       <c r="AI37" t="n">
-        <v>39.0</v>
+        <v>69.0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="AK37" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="AL37" t="n">
-        <v>204.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="38">
@@ -4939,7 +4927,7 @@
         <v>3004.0</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" t="n">
         <v>10.254264237426048</v>
@@ -5023,7 +5011,7 @@
         <v>0.036424011057633425</v>
       </c>
       <c r="AF38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG38" t="n">
         <v>53.0</v>
@@ -5032,16 +5020,16 @@
         <v>9.0</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="AJ38" t="n">
-        <v>60.0</v>
+        <v>58.0</v>
       </c>
       <c r="AK38" t="n">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="AL38" t="n">
-        <v>204.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="39">
@@ -5052,112 +5040,112 @@
         <v>74</v>
       </c>
       <c r="C39" t="n">
-        <v>4257.0</v>
+        <v>63876.0</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E39" t="n">
-        <v>60.81784554590649</v>
+        <v>33.68434751828632</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.20936286023181</v>
+        <v>-1.2787721790711561</v>
       </c>
       <c r="G39" t="n">
-        <v>2.733298889933373E-12</v>
+        <v>1.2902350761766602E-8</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.5944163506778923</v>
+        <v>0.28966364257460603</v>
       </c>
       <c r="I39" t="n">
-        <v>2.428699911086003E-5</v>
+        <v>0.34553296437152636</v>
       </c>
       <c r="J39" t="n">
-        <v>-1.4554144863784817</v>
+        <v>-0.3127446490145925</v>
       </c>
       <c r="K39" t="n">
-        <v>1.5600950867050004E-4</v>
+        <v>0.30962569402712914</v>
       </c>
       <c r="L39" t="n">
-        <v>2.5278712759768203</v>
+        <v>1.0390165527529447</v>
       </c>
       <c r="M39" t="n">
-        <v>4.009418539358702E-11</v>
+        <v>3.3536510750069206E-4</v>
       </c>
       <c r="N39" t="n">
-        <v>3.442312717381349</v>
+        <v>1.8494057064904788</v>
       </c>
       <c r="O39" t="n">
-        <v>3.5639957910813526E-21</v>
+        <v>1.5043722029687767E-12</v>
       </c>
       <c r="P39" t="n">
-        <v>2.611829855823044</v>
+        <v>1.0406021661392215</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.635073560486897E-11</v>
+        <v>5.32935663039666E-4</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9144414414045287</v>
+        <v>0.8103891537375342</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0215746006712125</v>
+        <v>0.004943625041571551</v>
       </c>
       <c r="T39" t="n">
-        <v>0.08395857984622339</v>
+        <v>0.001585613386276539</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8593116573642553</v>
+        <v>0.9967832068185994</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.8304828615583053</v>
+        <v>-0.8088035403512575</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0551610514856399</v>
+        <v>0.0111013541852854</v>
       </c>
       <c r="X39" t="n">
-        <v>0.6149465095539175</v>
+        <v>1.5684358216457621</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.46738604100626824</v>
+        <v>2.320834575316554E-4</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.7539483738533281</v>
+        <v>0.9660275300565636</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.21315383752262884</v>
+        <v>0.014962458074966666</v>
       </c>
       <c r="AB39" t="n">
-        <v>2.1350393128728067</v>
+        <v>0.8120897159738736</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.74853804537144E-5</v>
+        <v>0.05391768208561493</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.1390018642994107</v>
+        <v>-0.6024082915891985</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.853437038044145</v>
+        <v>0.1875418266692487</v>
       </c>
       <c r="AF39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG39" t="n">
-        <v>24.0</v>
+        <v>33.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>52.0</v>
+        <v>72.0</v>
       </c>
       <c r="AI39" t="n">
-        <v>71.0</v>
+        <v>21.0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>47.0</v>
+        <v>38.0</v>
       </c>
       <c r="AK39" t="n">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="AL39" t="n">
-        <v>205.0</v>
+        <v>201.0</v>
       </c>
     </row>
     <row r="40">
@@ -5168,112 +5156,112 @@
         <v>75</v>
       </c>
       <c r="C40" t="n">
-        <v>126969.0</v>
+        <v>56934.0</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" t="n">
-        <v>17.331219165539398</v>
+        <v>40.580715697017084</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.2015951414053285</v>
+        <v>-1.20143487809533</v>
       </c>
       <c r="G40" t="n">
-        <v>2.3184911503338712E-30</v>
+        <v>7.988292509303468E-10</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.2588410704718433</v>
+        <v>-0.1868614408677238</v>
       </c>
       <c r="I40" t="n">
-        <v>1.0906016636212498E-17</v>
+        <v>0.4842365214328254</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.2567846477262312</v>
+        <v>-0.39283088219152046</v>
       </c>
       <c r="K40" t="n">
-        <v>4.550249948812226E-6</v>
+        <v>0.14730172288109192</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4086892448653914</v>
+        <v>1.1856931706368297</v>
       </c>
       <c r="M40" t="n">
-        <v>1.2167107361639355E-4</v>
+        <v>1.2489026209487167E-6</v>
       </c>
       <c r="N40" t="n">
-        <v>1.5431528150068086</v>
+        <v>1.1526761034465562</v>
       </c>
       <c r="O40" t="n">
-        <v>6.815600441831714E-6</v>
+        <v>1.1092965497346406E-6</v>
       </c>
       <c r="P40" t="n">
-        <v>1.08516523437733</v>
+        <v>0.09901394621623683</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0071824139152469315</v>
+        <v>0.7480507053317036</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1344635701414171</v>
+        <v>-0.03301706719027328</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7172411205480029</v>
+        <v>0.9170512640962875</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.32352401048806134</v>
+        <v>-1.0866792244205927</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4136507483379997</v>
+        <v>1.8159579515559257E-4</v>
       </c>
       <c r="V40" t="n">
-        <v>-0.4579875806294784</v>
+        <v>-1.0536621572303193</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2475691595170494</v>
+        <v>3.6376154157963E-4</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9427540709334851</v>
+        <v>1.014573437227606</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.07532143131187513</v>
+        <v>0.009875857002930227</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.944810493679097</v>
+        <v>0.8086039959038094</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.548019792396576E-6</v>
+        <v>0.023635597656916748</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.2805353711296223</v>
+        <v>0.5136893945985033</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.0073536923951030295</v>
+        <v>0.20013620565458073</v>
       </c>
       <c r="AD40" t="n">
-        <v>1.0020564227456121</v>
+        <v>-0.20596944132379663</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.015159483024828375</v>
+        <v>0.6527376901443587</v>
       </c>
       <c r="AF40" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG40" t="n">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="AH40" t="n">
-        <v>35.0</v>
+        <v>73.0</v>
       </c>
       <c r="AI40" t="n">
-        <v>53.0</v>
+        <v>46.0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="AK40" t="n">
-        <v>54.0</v>
+        <v>13.0</v>
       </c>
       <c r="AL40" t="n">
-        <v>206.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="41">
@@ -5284,112 +5272,112 @@
         <v>76</v>
       </c>
       <c r="C41" t="n">
-        <v>63876.0</v>
+        <v>126969.0</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" t="n">
-        <v>33.68434751828632</v>
+        <v>17.331219165539398</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.2787721790711561</v>
+        <v>-3.2015951414053285</v>
       </c>
       <c r="G41" t="n">
-        <v>1.2902350761766602E-8</v>
+        <v>2.3184911503338712E-30</v>
       </c>
       <c r="H41" t="n">
-        <v>0.28966364257460603</v>
+        <v>-2.2588410704718433</v>
       </c>
       <c r="I41" t="n">
-        <v>0.34553296437152636</v>
+        <v>1.0906016636212498E-17</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.3127446490145925</v>
+        <v>-1.2567846477262312</v>
       </c>
       <c r="K41" t="n">
-        <v>0.30962569402712914</v>
+        <v>4.550249948812226E-6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.0390165527529447</v>
+        <v>1.4086892448653914</v>
       </c>
       <c r="M41" t="n">
-        <v>3.3536510750069206E-4</v>
+        <v>1.2167107361639355E-4</v>
       </c>
       <c r="N41" t="n">
-        <v>1.8494057064904788</v>
+        <v>1.5431528150068086</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5043722029687767E-12</v>
+        <v>6.815600441831714E-6</v>
       </c>
       <c r="P41" t="n">
-        <v>1.0406021661392215</v>
+        <v>1.08516523437733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.32935663039666E-4</v>
+        <v>0.0071824139152469315</v>
       </c>
       <c r="R41" t="n">
-        <v>0.8103891537375342</v>
+        <v>0.1344635701414171</v>
       </c>
       <c r="S41" t="n">
-        <v>0.004943625041571551</v>
+        <v>0.7172411205480029</v>
       </c>
       <c r="T41" t="n">
-        <v>0.001585613386276539</v>
+        <v>-0.32352401048806134</v>
       </c>
       <c r="U41" t="n">
-        <v>0.9967832068185994</v>
+        <v>0.4136507483379997</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.8088035403512575</v>
+        <v>-0.4579875806294784</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0111013541852854</v>
+        <v>0.2475691595170494</v>
       </c>
       <c r="X41" t="n">
-        <v>1.5684358216457621</v>
+        <v>0.9427540709334851</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.320834575316554E-4</v>
+        <v>0.07532143131187513</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.9660275300565636</v>
+        <v>1.944810493679097</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.014962458074966666</v>
+        <v>2.548019792396576E-6</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.8120897159738736</v>
+        <v>1.2805353711296223</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.05391768208561493</v>
+        <v>0.0073536923951030295</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.6024082915891985</v>
+        <v>1.0020564227456121</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.1875418266692487</v>
+        <v>0.015159483024828375</v>
       </c>
       <c r="AF41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG41" t="n">
-        <v>33.0</v>
+        <v>45.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>74.0</v>
+        <v>34.0</v>
       </c>
       <c r="AI41" t="n">
-        <v>23.0</v>
+        <v>51.0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>40.0</v>
+        <v>19.0</v>
       </c>
       <c r="AK41" t="n">
-        <v>37.0</v>
+        <v>53.0</v>
       </c>
       <c r="AL41" t="n">
-        <v>207.0</v>
+        <v>202.0</v>
       </c>
     </row>
     <row r="42">
@@ -5400,112 +5388,112 @@
         <v>77</v>
       </c>
       <c r="C42" t="n">
-        <v>56934.0</v>
+        <v>126006.0</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" t="n">
-        <v>40.580715697017084</v>
+        <v>3.522908030810223</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.20143487809533</v>
+        <v>6.047664951359168</v>
       </c>
       <c r="G42" t="n">
-        <v>7.988292509303468E-10</v>
+        <v>1.6666991417461835E-18</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1868614408677238</v>
+        <v>4.617413129386918</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4842365214328254</v>
+        <v>4.372872259928312E-6</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.39283088219152046</v>
+        <v>5.386215822101057</v>
       </c>
       <c r="K42" t="n">
-        <v>0.14730172288109192</v>
+        <v>9.121455436379762E-8</v>
       </c>
       <c r="L42" t="n">
-        <v>1.1856931706368297</v>
+        <v>-1.9299606805759268</v>
       </c>
       <c r="M42" t="n">
-        <v>1.2489026209487167E-6</v>
+        <v>0.004702504082734216</v>
       </c>
       <c r="N42" t="n">
-        <v>1.1526761034465562</v>
+        <v>-1.2185251313239498</v>
       </c>
       <c r="O42" t="n">
-        <v>1.1092965497346406E-6</v>
+        <v>0.05861145470984842</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09901394621623683</v>
+        <v>-6.014513253347755</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7480507053317036</v>
+        <v>1.1950302452750515E-8</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.03301706719027328</v>
+        <v>0.711435549251977</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9170512640962875</v>
+        <v>0.3701015590782214</v>
       </c>
       <c r="T42" t="n">
-        <v>-1.0866792244205927</v>
+        <v>-4.084552572771828</v>
       </c>
       <c r="U42" t="n">
-        <v>1.8159579515559257E-4</v>
+        <v>2.900521898564554E-4</v>
       </c>
       <c r="V42" t="n">
-        <v>-1.0536621572303193</v>
+        <v>-4.795988122023806</v>
       </c>
       <c r="W42" t="n">
-        <v>3.6376154157963E-4</v>
+        <v>2.0996558789469205E-5</v>
       </c>
       <c r="X42" t="n">
-        <v>1.014573437227606</v>
+        <v>-1.4302518219722493</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.009875857002930227</v>
+        <v>0.5056652110296994</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.8086039959038094</v>
+        <v>-0.6614491292581101</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.023635597656916748</v>
+        <v>0.7085582271850346</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.5136893945985033</v>
+        <v>-5.74179372116728</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.20013620565458073</v>
+        <v>2.534360857926738E-4</v>
       </c>
       <c r="AD42" t="n">
-        <v>-0.20596944132379663</v>
+        <v>0.7688026927141393</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.6527376901443587</v>
+        <v>0.6834654488716208</v>
       </c>
       <c r="AF42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="n">
-        <v>28.0</v>
+        <v>73.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>75.0</v>
+        <v>11.0</v>
       </c>
       <c r="AI42" t="n">
-        <v>48.0</v>
+        <v>27.0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>44.0</v>
+        <v>47.0</v>
       </c>
       <c r="AK42" t="n">
-        <v>13.0</v>
+        <v>46.0</v>
       </c>
       <c r="AL42" t="n">
-        <v>208.0</v>
+        <v>204.0</v>
       </c>
     </row>
     <row r="43">
@@ -5516,112 +5504,112 @@
         <v>78</v>
       </c>
       <c r="C43" t="n">
-        <v>126006.0</v>
+        <v>1.24902301E8</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="E43" t="n">
-        <v>3.522908030810223</v>
+        <v>14.310906913926937</v>
       </c>
       <c r="F43" t="n">
-        <v>6.047664951359168</v>
+        <v>6.6223645137021245</v>
       </c>
       <c r="G43" t="n">
-        <v>1.6666991417461835E-18</v>
+        <v>8.870124027657256E-34</v>
       </c>
       <c r="H43" t="n">
-        <v>4.617413129386918</v>
+        <v>4.10708762782315</v>
       </c>
       <c r="I43" t="n">
-        <v>4.372872259928312E-6</v>
+        <v>1.0806831407399475E-14</v>
       </c>
       <c r="J43" t="n">
-        <v>5.386215822101057</v>
+        <v>6.978908049051489</v>
       </c>
       <c r="K43" t="n">
-        <v>9.121455436379762E-8</v>
+        <v>8.62283392644818E-18</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.9299606805759268</v>
+        <v>-1.0747552783057592</v>
       </c>
       <c r="M43" t="n">
-        <v>0.004702504082734216</v>
+        <v>7.793499677336861E-4</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.2185251313239498</v>
+        <v>-1.276515648429181</v>
       </c>
       <c r="O43" t="n">
-        <v>0.05861145470984842</v>
+        <v>2.7328215863489772E-5</v>
       </c>
       <c r="P43" t="n">
-        <v>-6.014513253347755</v>
+        <v>-0.8422841173661295</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.1950302452750515E-8</v>
+        <v>0.011546837207392734</v>
       </c>
       <c r="R43" t="n">
-        <v>0.711435549251977</v>
+        <v>-0.20176037012342177</v>
       </c>
       <c r="S43" t="n">
-        <v>0.3701015590782214</v>
+        <v>0.6168225099242157</v>
       </c>
       <c r="T43" t="n">
-        <v>-4.084552572771828</v>
+        <v>0.2324711609396297</v>
       </c>
       <c r="U43" t="n">
-        <v>2.900521898564554E-4</v>
+        <v>0.5575432497767059</v>
       </c>
       <c r="V43" t="n">
-        <v>-4.795988122023806</v>
+        <v>0.43423153106305173</v>
       </c>
       <c r="W43" t="n">
-        <v>2.0996558789469205E-5</v>
+        <v>0.27882621033831034</v>
       </c>
       <c r="X43" t="n">
-        <v>-1.4302518219722493</v>
+        <v>-2.5152768858789742</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.5056652110296994</v>
+        <v>0.009254735420691364</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.6614491292581101</v>
+        <v>0.3565435353493643</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.7085582271850346</v>
+        <v>0.8127334097801584</v>
       </c>
       <c r="AB43" t="n">
-        <v>-5.74179372116728</v>
+        <v>-1.919316115653013</v>
       </c>
       <c r="AC43" t="n">
-        <v>2.534360857926738E-4</v>
+        <v>0.03732229601848247</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.7688026927141393</v>
+        <v>2.8718204212283385</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.6834654488716208</v>
+        <v>0.006375199019588169</v>
       </c>
       <c r="AF43" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG43" t="n">
-        <v>73.0</v>
+        <v>48.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="AI43" t="n">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>49.0</v>
+        <v>65.0</v>
       </c>
       <c r="AK43" t="n">
-        <v>46.0</v>
+        <v>77.0</v>
       </c>
       <c r="AL43" t="n">
-        <v>208.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="44">
@@ -5635,7 +5623,7 @@
         <v>#N/A</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E44" t="n">
         <v>38.644388583051935</v>
@@ -5719,7 +5707,7 @@
         <v>0.1616540076459512</v>
       </c>
       <c r="AF44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG44" t="n">
         <v>31.0</v>
@@ -5728,16 +5716,16 @@
         <v>19.0</v>
       </c>
       <c r="AI44" t="n">
-        <v>78.0</v>
+        <v>76.0</v>
       </c>
       <c r="AJ44" t="n">
         <v>9.0</v>
       </c>
       <c r="AK44" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="AL44" t="n">
-        <v>214.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="45">
@@ -5747,113 +5735,113 @@
       <c r="B45" t="s">
         <v>80</v>
       </c>
-      <c r="C45" t="n">
-        <v>1.24902301E8</v>
+      <c r="C45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E45" t="n">
-        <v>14.310906913926937</v>
+        <v>12.498241469377989</v>
       </c>
       <c r="F45" t="n">
-        <v>6.6223645137021245</v>
+        <v>2.5053774986945077</v>
       </c>
       <c r="G45" t="n">
-        <v>8.870124027657256E-34</v>
+        <v>3.085914945373455E-27</v>
       </c>
       <c r="H45" t="n">
-        <v>4.10708762782315</v>
+        <v>1.7251505535646576</v>
       </c>
       <c r="I45" t="n">
-        <v>1.0806831407399475E-14</v>
+        <v>4.244225525577061E-7</v>
       </c>
       <c r="J45" t="n">
-        <v>6.978908049051489</v>
+        <v>1.788676624333423</v>
       </c>
       <c r="K45" t="n">
-        <v>8.62283392644818E-18</v>
+        <v>1.7331152824289332E-6</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.0747552783057592</v>
+        <v>-1.2190988670945628</v>
       </c>
       <c r="M45" t="n">
-        <v>7.793499677336861E-4</v>
+        <v>2.497312728731572E-6</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.276515648429181</v>
+        <v>-1.5436889642994038</v>
       </c>
       <c r="O45" t="n">
-        <v>2.7328215863489772E-5</v>
+        <v>1.254648308461082E-9</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.8422841173661295</v>
+        <v>-1.3232720396645936</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.011546837207392734</v>
+        <v>4.542023677381468E-6</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.20176037012342177</v>
+        <v>-0.3245900972048411</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6168225099242157</v>
+        <v>0.32283596996860914</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2324711609396297</v>
+        <v>-0.10417317257003084</v>
       </c>
       <c r="U45" t="n">
-        <v>0.5575432497767059</v>
+        <v>0.7731788884808015</v>
       </c>
       <c r="V45" t="n">
-        <v>0.43423153106305173</v>
+        <v>0.22041692463481027</v>
       </c>
       <c r="W45" t="n">
-        <v>0.27882621033831034</v>
+        <v>0.5532813685002579</v>
       </c>
       <c r="X45" t="n">
-        <v>-2.5152768858789742</v>
+        <v>-0.78022694512985</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.009254735420691364</v>
+        <v>0.20356721243518586</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.3565435353493643</v>
+        <v>-0.7167008743610848</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.8127334097801584</v>
+        <v>0.17753066788091848</v>
       </c>
       <c r="AB45" t="n">
-        <v>-1.919316115653013</v>
+        <v>-1.813125096209682</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.03732229601848247</v>
+        <v>3.253109672831041E-5</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.8718204212283385</v>
+        <v>0.06352607076876528</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.006375199019588169</v>
+        <v>0.9324732243293433</v>
       </c>
       <c r="AF45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG45" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>10.0</v>
+        <v>44.0</v>
       </c>
       <c r="AI45" t="n">
-        <v>11.0</v>
+        <v>64.0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>67.0</v>
+        <v>46.0</v>
       </c>
       <c r="AK45" t="n">
-        <v>78.0</v>
+        <v>7.0</v>
       </c>
       <c r="AL45" t="n">
-        <v>214.0</v>
+        <v>212.0</v>
       </c>
     </row>
     <row r="46">
@@ -5863,113 +5851,113 @@
       <c r="B46" t="s">
         <v>81</v>
       </c>
-      <c r="C46" t="e">
-        <v>#N/A</v>
+      <c r="C46" t="n">
+        <v>1.07985879E8</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E46" t="n">
-        <v>12.498241469377989</v>
+        <v>39.776717633241994</v>
       </c>
       <c r="F46" t="n">
-        <v>2.5053774986945077</v>
+        <v>-1.5810740263880885</v>
       </c>
       <c r="G46" t="n">
-        <v>3.085914945373455E-27</v>
+        <v>2.1367709696246774E-10</v>
       </c>
       <c r="H46" t="n">
-        <v>1.7251505535646576</v>
+        <v>-0.7517616137841566</v>
       </c>
       <c r="I46" t="n">
-        <v>4.244225525577061E-7</v>
+        <v>0.015502531612632034</v>
       </c>
       <c r="J46" t="n">
-        <v>1.788676624333423</v>
+        <v>-0.3838810506629641</v>
       </c>
       <c r="K46" t="n">
-        <v>1.7331152824289332E-6</v>
+        <v>0.26892654648155023</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.2190988670945628</v>
+        <v>1.8189519878963134</v>
       </c>
       <c r="M46" t="n">
-        <v>2.497312728731572E-6</v>
+        <v>2.315660770088482E-9</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.5436889642994038</v>
+        <v>1.7009572744879549</v>
       </c>
       <c r="O46" t="n">
-        <v>1.254648308461082E-9</v>
+        <v>1.0618144544493464E-8</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.3232720396645936</v>
+        <v>1.696503743182745</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.542023677381468E-6</v>
+        <v>1.5332499495562496E-7</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.3245900972048411</v>
+        <v>-0.11799471340835838</v>
       </c>
       <c r="S46" t="n">
-        <v>0.32283596996860914</v>
+        <v>0.7561451353482405</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.10417317257003084</v>
+        <v>-0.12244824471356848</v>
       </c>
       <c r="U46" t="n">
-        <v>0.7731788884808015</v>
+        <v>0.7428004918129287</v>
       </c>
       <c r="V46" t="n">
-        <v>0.22041692463481027</v>
+        <v>-0.004453531305210106</v>
       </c>
       <c r="W46" t="n">
-        <v>0.5532813685002579</v>
+        <v>0.9919769012004049</v>
       </c>
       <c r="X46" t="n">
-        <v>-0.78022694512985</v>
+        <v>0.829312412603932</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.20356721243518586</v>
+        <v>0.13747887220798827</v>
       </c>
       <c r="Z46" t="n">
-        <v>-0.7167008743610848</v>
+        <v>1.1971929757251245</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.17753066788091848</v>
+        <v>0.006582656161696921</v>
       </c>
       <c r="AB46" t="n">
-        <v>-1.813125096209682</v>
+        <v>1.1787209816254909</v>
       </c>
       <c r="AC46" t="n">
-        <v>3.253109672831041E-5</v>
+        <v>0.008847700131673285</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.06352607076876528</v>
+        <v>0.36788056312119255</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.9324732243293433</v>
+        <v>0.49828728625042945</v>
       </c>
       <c r="AF46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="n">
-        <v>51.0</v>
+        <v>29.0</v>
       </c>
       <c r="AH46" t="n">
-        <v>45.0</v>
+        <v>65.0</v>
       </c>
       <c r="AI46" t="n">
-        <v>66.0</v>
+        <v>59.0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>48.0</v>
+        <v>33.0</v>
       </c>
       <c r="AK46" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="AL46" t="n">
-        <v>217.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="47">
@@ -5980,112 +5968,112 @@
         <v>82</v>
       </c>
       <c r="C47" t="n">
-        <v>1.07985879E8</v>
+        <v>22801.0</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E47" t="n">
-        <v>39.776717633241994</v>
+        <v>266.33058517370716</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.5810740263880885</v>
+        <v>-2.303726559412611</v>
       </c>
       <c r="G47" t="n">
-        <v>2.1367709696246774E-10</v>
+        <v>2.0932334643504784E-21</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.7517616137841566</v>
+        <v>-2.6159541668215995</v>
       </c>
       <c r="I47" t="n">
-        <v>0.015502531612632034</v>
+        <v>3.902717304710207E-15</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.3838810506629641</v>
+        <v>1.6733480013283109</v>
       </c>
       <c r="K47" t="n">
-        <v>0.26892654648155023</v>
+        <v>1.4269341175050676E-6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.8189519878963134</v>
+        <v>1.070369481948823</v>
       </c>
       <c r="M47" t="n">
-        <v>2.315660770088482E-9</v>
+        <v>0.0011291670151210454</v>
       </c>
       <c r="N47" t="n">
-        <v>1.7009572744879549</v>
+        <v>1.8281301529671723</v>
       </c>
       <c r="O47" t="n">
-        <v>1.0618144544493464E-8</v>
+        <v>1.641180284480983E-9</v>
       </c>
       <c r="P47" t="n">
-        <v>1.696503743182745</v>
+        <v>0.748031493088377</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.5332499495562496E-7</v>
+        <v>0.028541241846249548</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.11799471340835838</v>
+        <v>0.7577606710183492</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7561451353482405</v>
+        <v>0.03401878373220311</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.12244824471356848</v>
+        <v>-0.32233798886044607</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7428004918129287</v>
+        <v>0.4106830131651368</v>
       </c>
       <c r="V47" t="n">
-        <v>-0.004453531305210106</v>
+        <v>-1.0800986598787954</v>
       </c>
       <c r="W47" t="n">
-        <v>0.9919769012004049</v>
+        <v>0.004345464880063133</v>
       </c>
       <c r="X47" t="n">
-        <v>0.829312412603932</v>
+        <v>-0.3122276074089886</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.13747887220798827</v>
+        <v>0.7121753002167095</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.1971929757251245</v>
+        <v>3.9770745607409217</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.006582656161696921</v>
+        <v>7.139417817640577E-21</v>
       </c>
       <c r="AB47" t="n">
-        <v>1.1787209816254909</v>
+        <v>2.7079086490311344</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.008847700131673285</v>
+        <v>2.780310935766701E-9</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.36788056312119255</v>
+        <v>4.28930216814991</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.49828728625042945</v>
+        <v>4.404705529071882E-19</v>
       </c>
       <c r="AF47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG47" t="n">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
       <c r="AH47" t="n">
-        <v>67.0</v>
+        <v>48.0</v>
       </c>
       <c r="AI47" t="n">
-        <v>61.0</v>
+        <v>75.0</v>
       </c>
       <c r="AJ47" t="n">
-        <v>34.0</v>
+        <v>4.0</v>
       </c>
       <c r="AK47" t="n">
-        <v>27.0</v>
+        <v>81.0</v>
       </c>
       <c r="AL47" t="n">
-        <v>218.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="48">
@@ -6099,7 +6087,7 @@
         <v>#N/A</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E48" t="n">
         <v>7.065818190975107</v>
@@ -6183,25 +6171,25 @@
         <v>0.33515321663311964</v>
       </c>
       <c r="AF48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG48" t="n">
         <v>60.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>71.0</v>
+        <v>69.0</v>
       </c>
       <c r="AI48" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AJ48" t="n">
         <v>24.0</v>
       </c>
       <c r="AK48" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="AL48" t="n">
-        <v>222.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="49">
@@ -6212,112 +6200,112 @@
         <v>84</v>
       </c>
       <c r="C49" t="n">
-        <v>22801.0</v>
+        <v>53832.0</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E49" t="n">
-        <v>266.33058517370716</v>
+        <v>111.82168094665144</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.303726559412611</v>
+        <v>1.5694717560389986</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0932334643504784E-21</v>
+        <v>2.128099146284193E-6</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.6159541668215995</v>
+        <v>-0.41887186082972544</v>
       </c>
       <c r="I49" t="n">
-        <v>3.902717304710207E-15</v>
+        <v>0.4033695483900667</v>
       </c>
       <c r="J49" t="n">
-        <v>1.6733480013283109</v>
+        <v>2.3261929080176107</v>
       </c>
       <c r="K49" t="n">
-        <v>1.4269341175050676E-6</v>
+        <v>1.4195621937056908E-6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.070369481948823</v>
+        <v>-1.8844284456520062</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0011291670151210454</v>
+        <v>1.358604650364535E-5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8281301529671723</v>
+        <v>-1.3975522447473205</v>
       </c>
       <c r="O49" t="n">
-        <v>1.641180284480983E-9</v>
+        <v>9.736605428373073E-4</v>
       </c>
       <c r="P49" t="n">
-        <v>0.748031493088377</v>
+        <v>-1.5157587663289833</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.028541241846249548</v>
+        <v>8.39378028465613E-4</v>
       </c>
       <c r="R49" t="n">
-        <v>0.7577606710183492</v>
+        <v>0.4868762009046856</v>
       </c>
       <c r="S49" t="n">
-        <v>0.03401878373220311</v>
+        <v>0.3534087775114483</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.32233798886044607</v>
+        <v>0.3686696793230229</v>
       </c>
       <c r="U49" t="n">
-        <v>0.4106830131651368</v>
+        <v>0.49373425252500847</v>
       </c>
       <c r="V49" t="n">
-        <v>-1.0800986598787954</v>
+        <v>-0.11820652158166278</v>
       </c>
       <c r="W49" t="n">
-        <v>0.004345464880063133</v>
+        <v>0.8435799604994527</v>
       </c>
       <c r="X49" t="n">
-        <v>-0.3122276074089886</v>
+        <v>-1.988343616868724</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.7121753002167095</v>
+        <v>0.004375921552172426</v>
       </c>
       <c r="Z49" t="n">
-        <v>3.9770745607409217</v>
+        <v>0.7567211519786119</v>
       </c>
       <c r="AA49" t="n">
-        <v>7.139417817640577E-21</v>
+        <v>0.3024563984473089</v>
       </c>
       <c r="AB49" t="n">
-        <v>2.7079086490311344</v>
+        <v>0.1297812344083786</v>
       </c>
       <c r="AC49" t="n">
-        <v>2.780310935766701E-9</v>
+        <v>0.8716221011820569</v>
       </c>
       <c r="AD49" t="n">
-        <v>4.28930216814991</v>
+        <v>2.7450647688473357</v>
       </c>
       <c r="AE49" t="n">
-        <v>4.404705529071882E-19</v>
+        <v>7.585745574445043E-5</v>
       </c>
       <c r="AF49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG49" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>50.0</v>
+        <v>66.0</v>
       </c>
       <c r="AI49" t="n">
-        <v>77.0</v>
+        <v>15.0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>4.0</v>
+        <v>44.0</v>
       </c>
       <c r="AK49" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="AL49" t="n">
-        <v>222.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="50">
@@ -6331,7 +6319,7 @@
         <v>3055.0</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E50" t="n">
         <v>3.2381999570950315</v>
@@ -6415,25 +6403,25 @@
         <v>0.973340087878005</v>
       </c>
       <c r="AF50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG50" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="AH50" t="n">
         <v>16.0</v>
       </c>
       <c r="AI50" t="n">
-        <v>74.0</v>
+        <v>72.0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="AK50" t="n">
         <v>6.0</v>
       </c>
       <c r="AL50" t="n">
-        <v>225.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="51">
@@ -6444,112 +6432,112 @@
         <v>86</v>
       </c>
       <c r="C51" t="n">
-        <v>53832.0</v>
+        <v>80183.0</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E51" t="n">
-        <v>111.82168094665144</v>
+        <v>62.811608238689324</v>
       </c>
       <c r="F51" t="n">
-        <v>1.5694717560389986</v>
+        <v>-1.1180529383901694</v>
       </c>
       <c r="G51" t="n">
-        <v>2.128099146284193E-6</v>
+        <v>4.887522563626535E-17</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.41887186082972544</v>
+        <v>-0.1644129975223384</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4033695483900667</v>
+        <v>0.3296843759931726</v>
       </c>
       <c r="J51" t="n">
-        <v>2.3261929080176107</v>
+        <v>-0.5117102558784231</v>
       </c>
       <c r="K51" t="n">
-        <v>1.4195621937056908E-6</v>
+        <v>0.0016305178333913947</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.8844284456520062</v>
+        <v>1.1604226019201076</v>
       </c>
       <c r="M51" t="n">
-        <v>1.358604650364535E-5</v>
+        <v>3.6200014622687466E-13</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.3975522447473205</v>
+        <v>1.1081400319549677</v>
       </c>
       <c r="O51" t="n">
-        <v>9.736605428373073E-4</v>
+        <v>1.2679432838327927E-12</v>
       </c>
       <c r="P51" t="n">
-        <v>-1.5157587663289833</v>
+        <v>1.8896351863851237</v>
       </c>
       <c r="Q51" t="n">
-        <v>8.39378028465613E-4</v>
+        <v>4.766404291397135E-31</v>
       </c>
       <c r="R51" t="n">
-        <v>0.4868762009046856</v>
+        <v>-0.05228256996513996</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3534087775114483</v>
+        <v>0.7922640133268256</v>
       </c>
       <c r="T51" t="n">
-        <v>0.3686696793230229</v>
+        <v>0.729212584465016</v>
       </c>
       <c r="U51" t="n">
-        <v>0.49373425252500847</v>
+        <v>1.671335254655771E-5</v>
       </c>
       <c r="V51" t="n">
-        <v>-0.11820652158166278</v>
+        <v>0.7814951544301559</v>
       </c>
       <c r="W51" t="n">
-        <v>0.8435799604994527</v>
+        <v>5.314089221071956E-6</v>
       </c>
       <c r="X51" t="n">
-        <v>-1.988343616868724</v>
+        <v>0.953639940867831</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.004375921552172426</v>
+        <v>6.670968087539071E-5</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.7567211519786119</v>
+        <v>0.6063426825117463</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.3024563984473089</v>
+        <v>0.008395632284043074</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.1297812344083786</v>
+        <v>1.5122982969002472</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.8716221011820569</v>
+        <v>5.815928822072678E-12</v>
       </c>
       <c r="AD51" t="n">
-        <v>2.7450647688473357</v>
+        <v>-0.3472972583560847</v>
       </c>
       <c r="AE51" t="n">
-        <v>7.585745574445043E-5</v>
+        <v>0.17574083912781488</v>
       </c>
       <c r="AF51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG51" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="AH51" t="n">
-        <v>68.0</v>
+        <v>76.0</v>
       </c>
       <c r="AI51" t="n">
-        <v>17.0</v>
+        <v>50.0</v>
       </c>
       <c r="AJ51" t="n">
-        <v>46.0</v>
+        <v>51.0</v>
       </c>
       <c r="AK51" t="n">
-        <v>76.0</v>
+        <v>23.0</v>
       </c>
       <c r="AL51" t="n">
-        <v>226.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="52">
@@ -6560,112 +6548,112 @@
         <v>87</v>
       </c>
       <c r="C52" t="n">
-        <v>80183.0</v>
+        <v>93010.0</v>
       </c>
       <c r="D52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E52" t="n">
-        <v>62.811608238689324</v>
+        <v>571.7322994494922</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.1180529383901694</v>
+        <v>2.4148337625249834</v>
       </c>
       <c r="G52" t="n">
-        <v>4.887522563626535E-17</v>
+        <v>2.351511179481622E-56</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.1644129975223384</v>
+        <v>1.2600796414158701</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3296843759931726</v>
+        <v>5.074558006563725E-9</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.5117102558784231</v>
+        <v>2.4492859866738748</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0016305178333913947</v>
+        <v>5.494585418135473E-29</v>
       </c>
       <c r="L52" t="n">
-        <v>1.1604226019201076</v>
+        <v>-1.2007697723404296</v>
       </c>
       <c r="M52" t="n">
-        <v>3.6200014622687466E-13</v>
+        <v>9.708488663011003E-10</v>
       </c>
       <c r="N52" t="n">
-        <v>1.1081400319549677</v>
+        <v>-1.7462116069897566</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2679432838327927E-12</v>
+        <v>2.087816367970153E-20</v>
       </c>
       <c r="P52" t="n">
-        <v>1.8896351863851237</v>
+        <v>-1.5978793800298412</v>
       </c>
       <c r="Q52" t="n">
-        <v>4.766404291397135E-31</v>
+        <v>1.496808822762607E-14</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.05228256996513996</v>
+        <v>-0.5454418346493272</v>
       </c>
       <c r="S52" t="n">
-        <v>0.7922640133268256</v>
+        <v>0.016164083842511324</v>
       </c>
       <c r="T52" t="n">
-        <v>0.729212584465016</v>
+        <v>-0.39710960768941167</v>
       </c>
       <c r="U52" t="n">
-        <v>1.671335254655771E-5</v>
+        <v>0.10060809550391726</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7814951544301559</v>
+        <v>0.14833222695991546</v>
       </c>
       <c r="W52" t="n">
-        <v>5.314089221071956E-6</v>
+        <v>0.576480006953785</v>
       </c>
       <c r="X52" t="n">
-        <v>0.953639940867831</v>
+        <v>-1.1547541211091132</v>
       </c>
       <c r="Y52" t="n">
-        <v>6.670968087539071E-5</v>
+        <v>2.0845648875532764E-4</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.6063426825117463</v>
+        <v>0.03445222414889153</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.008395632284043074</v>
+        <v>0.9388676838803857</v>
       </c>
       <c r="AB52" t="n">
-        <v>1.5122982969002472</v>
+        <v>-1.0164701173917925</v>
       </c>
       <c r="AC52" t="n">
-        <v>5.815928822072678E-12</v>
+        <v>6.512984390047341E-4</v>
       </c>
       <c r="AD52" t="n">
-        <v>-0.3472972583560847</v>
+        <v>1.1892063452580046</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.17574083912781488</v>
+        <v>2.711051852631394E-4</v>
       </c>
       <c r="AF52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG52" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="AH52" t="n">
-        <v>78.0</v>
+        <v>45.0</v>
       </c>
       <c r="AI52" t="n">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>53.0</v>
+        <v>79.0</v>
       </c>
       <c r="AK52" t="n">
-        <v>23.0</v>
+        <v>58.0</v>
       </c>
       <c r="AL52" t="n">
-        <v>229.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="53">
@@ -6676,112 +6664,112 @@
         <v>88</v>
       </c>
       <c r="C53" t="n">
-        <v>93010.0</v>
+        <v>2554.0</v>
       </c>
       <c r="D53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E53" t="n">
-        <v>571.7322994494922</v>
+        <v>30.04877318823566</v>
       </c>
       <c r="F53" t="n">
-        <v>2.4148337625249834</v>
+        <v>-2.1027251193989045</v>
       </c>
       <c r="G53" t="n">
-        <v>2.351511179481622E-56</v>
+        <v>3.880757634332163E-5</v>
       </c>
       <c r="H53" t="n">
-        <v>1.2600796414158701</v>
+        <v>0.4912682946065926</v>
       </c>
       <c r="I53" t="n">
-        <v>5.074558006563725E-9</v>
+        <v>0.4675859551152637</v>
       </c>
       <c r="J53" t="n">
-        <v>2.4492859866738748</v>
+        <v>-1.7202862837318063</v>
       </c>
       <c r="K53" t="n">
-        <v>5.494585418135473E-29</v>
+        <v>0.00568093433604085</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.2007697723404296</v>
+        <v>1.8905009752357032</v>
       </c>
       <c r="M53" t="n">
-        <v>9.708488663011003E-10</v>
+        <v>0.004241232738944674</v>
       </c>
       <c r="N53" t="n">
-        <v>-1.7462116069897566</v>
+        <v>2.5739853853984016</v>
       </c>
       <c r="O53" t="n">
-        <v>2.087816367970153E-20</v>
+        <v>2.0946017468272623E-5</v>
       </c>
       <c r="P53" t="n">
-        <v>-1.5978793800298412</v>
+        <v>5.02901602292331</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.496808822762607E-14</v>
+        <v>3.7731019536026136E-16</v>
       </c>
       <c r="R53" t="n">
-        <v>-0.5454418346493272</v>
+        <v>0.6834844101626983</v>
       </c>
       <c r="S53" t="n">
-        <v>0.016164083842511324</v>
+        <v>0.31544451317688194</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.39710960768941167</v>
+        <v>3.138515047687606</v>
       </c>
       <c r="U53" t="n">
-        <v>0.10060809550391726</v>
+        <v>9.37159072068176E-7</v>
       </c>
       <c r="V53" t="n">
-        <v>0.14833222695991546</v>
+        <v>2.4550306375249074</v>
       </c>
       <c r="W53" t="n">
-        <v>0.576480006953785</v>
+        <v>1.4256887279652758E-4</v>
       </c>
       <c r="X53" t="n">
-        <v>-1.1547541211091132</v>
+        <v>2.5939934140054968</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.0845648875532764E-4</v>
+        <v>0.00993078967405926</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.03445222414889153</v>
+        <v>0.382438835667098</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.9388676838803857</v>
+        <v>0.7391002138773829</v>
       </c>
       <c r="AB53" t="n">
-        <v>-1.0164701173917925</v>
+        <v>1.4109004048547606</v>
       </c>
       <c r="AC53" t="n">
-        <v>6.512984390047341E-4</v>
+        <v>0.11631472328188883</v>
       </c>
       <c r="AD53" t="n">
-        <v>1.1892063452580046</v>
+        <v>-2.211554578338399</v>
       </c>
       <c r="AE53" t="n">
-        <v>2.711051852631394E-4</v>
+        <v>0.018169362592103597</v>
       </c>
       <c r="AF53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG53" t="n">
-        <v>4.0</v>
+        <v>34.0</v>
       </c>
       <c r="AH53" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="AI53" t="n">
-        <v>42.0</v>
+        <v>8.0</v>
       </c>
       <c r="AJ53" t="n">
-        <v>81.0</v>
+        <v>64.0</v>
       </c>
       <c r="AK53" t="n">
-        <v>59.0</v>
+        <v>70.0</v>
       </c>
       <c r="AL53" t="n">
-        <v>233.0</v>
+        <v>228.0</v>
       </c>
     </row>
     <row r="54">
@@ -6792,112 +6780,112 @@
         <v>89</v>
       </c>
       <c r="C54" t="n">
-        <v>2554.0</v>
+        <v>92815.0</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E54" t="n">
-        <v>30.04877318823566</v>
+        <v>175.7291128415637</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.1027251193989045</v>
+        <v>1.9266248345318329</v>
       </c>
       <c r="G54" t="n">
-        <v>3.880757634332163E-5</v>
+        <v>0.013717513056711704</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4912682946065926</v>
+        <v>2.0142271512620984</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4675859551152637</v>
+        <v>0.07226699227442206</v>
       </c>
       <c r="J54" t="n">
-        <v>-1.7202862837318063</v>
+        <v>2.0687108628704314</v>
       </c>
       <c r="K54" t="n">
-        <v>0.00568093433604085</v>
+        <v>0.08069330026614759</v>
       </c>
       <c r="L54" t="n">
-        <v>1.8905009752357032</v>
+        <v>-2.257244727683714</v>
       </c>
       <c r="M54" t="n">
-        <v>0.004241232738944674</v>
+        <v>0.036281157160948846</v>
       </c>
       <c r="N54" t="n">
-        <v>2.5739853853984016</v>
+        <v>-2.6381461670513966</v>
       </c>
       <c r="O54" t="n">
-        <v>2.0946017468272623E-5</v>
+        <v>0.0083117230608471</v>
       </c>
       <c r="P54" t="n">
-        <v>5.02901602292331</v>
+        <v>1.2747931670553019</v>
       </c>
       <c r="Q54" t="n">
-        <v>3.7731019536026136E-16</v>
+        <v>0.2443886381466906</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6834844101626983</v>
+        <v>-0.38090143936768206</v>
       </c>
       <c r="S54" t="n">
-        <v>0.31544451317688194</v>
+        <v>0.7751382497328798</v>
       </c>
       <c r="T54" t="n">
-        <v>3.138515047687606</v>
+        <v>3.532037894739016</v>
       </c>
       <c r="U54" t="n">
-        <v>9.37159072068176E-7</v>
+        <v>0.0025248636636140613</v>
       </c>
       <c r="V54" t="n">
-        <v>2.4550306375249074</v>
+        <v>3.912939334106698</v>
       </c>
       <c r="W54" t="n">
-        <v>1.4256887279652758E-4</v>
+        <v>9.966709131979108E-4</v>
       </c>
       <c r="X54" t="n">
-        <v>2.5939934140054968</v>
+        <v>0.08760231673026543</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.00993078967405926</v>
+        <v>0.982649800277191</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.382438835667098</v>
+        <v>0.14208602833859854</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.7391002138773829</v>
+        <v>0.949310558521015</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.4109004048547606</v>
+        <v>0.1089479499612643</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.11631472328188883</v>
+        <v>0.9536819543277171</v>
       </c>
       <c r="AD54" t="n">
-        <v>-2.211554578338399</v>
+        <v>0.0544837116083331</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.018169362592103597</v>
+        <v>0.9813685702978086</v>
       </c>
       <c r="AF54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="n">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c r="AH54" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="AI54" t="n">
-        <v>9.0</v>
+        <v>81.0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>66.0</v>
+        <v>76.0</v>
       </c>
       <c r="AK54" t="n">
-        <v>71.0</v>
+        <v>5.0</v>
       </c>
       <c r="AL54" t="n">
-        <v>234.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="55">
@@ -6911,7 +6899,7 @@
         <v>340146.0</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E55" t="n">
         <v>22.60489763768202</v>
@@ -6995,7 +6983,7 @@
         <v>6.993415311419652E-5</v>
       </c>
       <c r="AF55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG55" t="n">
         <v>37.0</v>
@@ -7004,16 +6992,16 @@
         <v>28.0</v>
       </c>
       <c r="AI55" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>82.0</v>
+        <v>80.0</v>
       </c>
       <c r="AK55" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="AL55" t="n">
-        <v>234.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="56">
@@ -7024,112 +7012,112 @@
         <v>91</v>
       </c>
       <c r="C56" t="n">
-        <v>92815.0</v>
+        <v>7704.0</v>
       </c>
       <c r="D56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E56" t="n">
-        <v>175.7291128415637</v>
+        <v>88.57006306507957</v>
       </c>
       <c r="F56" t="n">
-        <v>1.9266248345318329</v>
+        <v>-1.831071118370159</v>
       </c>
       <c r="G56" t="n">
-        <v>0.013717513056711704</v>
+        <v>3.462802861623764E-17</v>
       </c>
       <c r="H56" t="n">
-        <v>2.0142271512620984</v>
+        <v>-0.8751988571999424</v>
       </c>
       <c r="I56" t="n">
-        <v>0.07226699227442206</v>
+        <v>0.002424256382171761</v>
       </c>
       <c r="J56" t="n">
-        <v>2.0687108628704314</v>
+        <v>-1.5077305052708174</v>
       </c>
       <c r="K56" t="n">
-        <v>0.08069330026614759</v>
+        <v>1.196458014205783E-7</v>
       </c>
       <c r="L56" t="n">
-        <v>-2.257244727683714</v>
+        <v>1.1770879634061788</v>
       </c>
       <c r="M56" t="n">
-        <v>0.036281157160948846</v>
+        <v>3.2021905678536376E-5</v>
       </c>
       <c r="N56" t="n">
-        <v>-2.6381461670513966</v>
+        <v>1.6640431635429804</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0083117230608471</v>
+        <v>3.23486734811799E-10</v>
       </c>
       <c r="P56" t="n">
-        <v>1.2747931670553019</v>
+        <v>1.1391464615185327</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.2443886381466906</v>
+        <v>1.154260720889235E-4</v>
       </c>
       <c r="R56" t="n">
-        <v>-0.38090143936768206</v>
+        <v>0.4869552001368016</v>
       </c>
       <c r="S56" t="n">
-        <v>0.7751382497328798</v>
+        <v>0.11574336337163446</v>
       </c>
       <c r="T56" t="n">
-        <v>3.532037894739016</v>
+        <v>-0.03794150188764598</v>
       </c>
       <c r="U56" t="n">
-        <v>0.0025248636636140613</v>
+        <v>0.9175443975062748</v>
       </c>
       <c r="V56" t="n">
-        <v>3.912939334106698</v>
+        <v>-0.5248967020244476</v>
       </c>
       <c r="W56" t="n">
-        <v>9.966709131979108E-4</v>
+        <v>0.11416231725247336</v>
       </c>
       <c r="X56" t="n">
-        <v>0.08760231673026543</v>
+        <v>0.9558722611702165</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.982649800277191</v>
+        <v>0.04419952159638178</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.14208602833859854</v>
+        <v>0.32334061309934153</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.949310558521015</v>
+        <v>0.5028364747545124</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.1089479499612643</v>
+        <v>0.22712675820250333</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.9536819543277171</v>
+        <v>0.6287919766248629</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.0544837116083331</v>
+        <v>-0.632531648070875</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.9813685702978086</v>
+        <v>0.1719285548312037</v>
       </c>
       <c r="AF56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG56" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="AH56" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="AI56" t="n">
-        <v>83.0</v>
+        <v>49.0</v>
       </c>
       <c r="AJ56" t="n">
-        <v>78.0</v>
+        <v>69.0</v>
       </c>
       <c r="AK56" t="n">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="AL56" t="n">
-        <v>235.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="57">
@@ -7143,7 +7131,7 @@
         <v>125704.0</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E57" t="n">
         <v>1.9444913331379483</v>
@@ -7227,25 +7215,25 @@
         <v>0.2592018879956027</v>
       </c>
       <c r="AF57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG57" t="n">
-        <v>82.0</v>
+        <v>81.0</v>
       </c>
       <c r="AH57" t="n">
         <v>15.0</v>
       </c>
       <c r="AI57" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="AJ57" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="AK57" t="n">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="AL57" t="n">
-        <v>241.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="58">
@@ -7256,112 +7244,112 @@
         <v>93</v>
       </c>
       <c r="C58" t="n">
-        <v>7704.0</v>
+        <v>22854.0</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E58" t="n">
-        <v>88.57006306507957</v>
+        <v>127.59066271037675</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.831071118370159</v>
+        <v>-1.8692912572001437</v>
       </c>
       <c r="G58" t="n">
-        <v>3.462802861623764E-17</v>
+        <v>1.0249189715300991E-10</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.8751988571999424</v>
+        <v>-0.3013558720969745</v>
       </c>
       <c r="I58" t="n">
-        <v>0.002424256382171761</v>
+        <v>0.4826920343993713</v>
       </c>
       <c r="J58" t="n">
-        <v>-1.5077305052708174</v>
+        <v>-1.8846242528591322</v>
       </c>
       <c r="K58" t="n">
-        <v>1.196458014205783E-7</v>
+        <v>2.1690579308125818E-6</v>
       </c>
       <c r="L58" t="n">
-        <v>1.1770879634061788</v>
+        <v>1.1153827310775437</v>
       </c>
       <c r="M58" t="n">
-        <v>3.2021905678536376E-5</v>
+        <v>0.004538384470478848</v>
       </c>
       <c r="N58" t="n">
-        <v>1.6640431635429804</v>
+        <v>1.8231329799751157</v>
       </c>
       <c r="O58" t="n">
-        <v>3.23486734811799E-10</v>
+        <v>3.914471291784617E-7</v>
       </c>
       <c r="P58" t="n">
-        <v>1.1391464615185327</v>
+        <v>1.8711879205035173</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.154260720889235E-4</v>
+        <v>1.436401093861635E-6</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4869552001368016</v>
+        <v>0.707750248897572</v>
       </c>
       <c r="S58" t="n">
-        <v>0.11574336337163446</v>
+        <v>0.09459178903545871</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.03794150188764598</v>
+        <v>0.7558051894259736</v>
       </c>
       <c r="U58" t="n">
-        <v>0.9175443975062748</v>
+        <v>0.08516755158263924</v>
       </c>
       <c r="V58" t="n">
-        <v>-0.5248967020244476</v>
+        <v>0.048054940528401514</v>
       </c>
       <c r="W58" t="n">
-        <v>0.11416231725247336</v>
+        <v>0.9264732481102499</v>
       </c>
       <c r="X58" t="n">
-        <v>0.9558722611702165</v>
+        <v>1.5679353851031692</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.04419952159638178</v>
+        <v>0.010682502440874294</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.32334061309934153</v>
+        <v>-0.015332995658988383</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.5028364747545124</v>
+        <v>0.9863002276793822</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.22712675820250333</v>
+        <v>0.3443707089477368</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.6287919766248629</v>
+        <v>0.5826535548862654</v>
       </c>
       <c r="AD58" t="n">
-        <v>-0.632531648070875</v>
+        <v>-1.5832683807621577</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.1719285548312037</v>
+        <v>0.008228818569326841</v>
       </c>
       <c r="AF58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG58" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="AH58" t="n">
-        <v>61.0</v>
+        <v>58.0</v>
       </c>
       <c r="AI58" t="n">
-        <v>51.0</v>
+        <v>22.0</v>
       </c>
       <c r="AJ58" t="n">
-        <v>71.0</v>
+        <v>81.0</v>
       </c>
       <c r="AK58" t="n">
-        <v>38.0</v>
+        <v>63.0</v>
       </c>
       <c r="AL58" t="n">
-        <v>242.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="59">
@@ -7371,113 +7359,113 @@
       <c r="B59" t="s">
         <v>94</v>
       </c>
-      <c r="C59" t="n">
-        <v>22854.0</v>
+      <c r="C59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="E59" t="n">
-        <v>127.59066271037675</v>
+        <v>17.468675434358314</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.8692912572001437</v>
+        <v>4.2836037915710445</v>
       </c>
       <c r="G59" t="n">
-        <v>1.0249189715300991E-10</v>
+        <v>6.283783494329015E-45</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.3013558720969745</v>
+        <v>4.540390998375869</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4826920343993713</v>
+        <v>3.194620104290914E-17</v>
       </c>
       <c r="J59" t="n">
-        <v>-1.8846242528591322</v>
+        <v>3.8982690648026717</v>
       </c>
       <c r="K59" t="n">
-        <v>2.1690579308125818E-6</v>
+        <v>1.8876915519917474E-17</v>
       </c>
       <c r="L59" t="n">
-        <v>1.1153827310775437</v>
+        <v>-1.17310164642168</v>
       </c>
       <c r="M59" t="n">
-        <v>0.004538384470478848</v>
+        <v>9.673727698062487E-5</v>
       </c>
       <c r="N59" t="n">
-        <v>1.8231329799751157</v>
+        <v>-1.0841489655623366</v>
       </c>
       <c r="O59" t="n">
-        <v>3.914471291784617E-7</v>
+        <v>1.689959990315163E-4</v>
       </c>
       <c r="P59" t="n">
-        <v>1.8711879205035173</v>
+        <v>-3.4487073734537814</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.436401093861635E-6</v>
+        <v>8.422785176120866E-18</v>
       </c>
       <c r="R59" t="n">
-        <v>0.707750248897572</v>
+        <v>0.08895268085934344</v>
       </c>
       <c r="S59" t="n">
-        <v>0.09459178903545871</v>
+        <v>0.8244989306714452</v>
       </c>
       <c r="T59" t="n">
-        <v>0.7558051894259736</v>
+        <v>-2.2756057270321013</v>
       </c>
       <c r="U59" t="n">
-        <v>0.08516755158263924</v>
+        <v>1.5229777123580068E-7</v>
       </c>
       <c r="V59" t="n">
-        <v>0.048054940528401514</v>
+        <v>-2.364558407891445</v>
       </c>
       <c r="W59" t="n">
-        <v>0.9264732481102499</v>
+        <v>7.231165750468516E-8</v>
       </c>
       <c r="X59" t="n">
-        <v>1.5679353851031692</v>
+        <v>0.2567872068048241</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.010682502440874294</v>
+        <v>0.8616521476495441</v>
       </c>
       <c r="Z59" t="n">
-        <v>-0.015332995658988383</v>
+        <v>-0.38533472676837266</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.9863002276793822</v>
+        <v>0.6226616808292696</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.3443707089477368</v>
+        <v>-1.786302320381493</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.5826535548862654</v>
+        <v>0.027108209989300962</v>
       </c>
       <c r="AD59" t="n">
-        <v>-1.5832683807621577</v>
+        <v>-0.6421219335731967</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.008228818569326841</v>
+        <v>0.4735782158315602</v>
       </c>
       <c r="AF59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG59" t="n">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
       <c r="AH59" t="n">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
       <c r="AI59" t="n">
-        <v>24.0</v>
+        <v>78.0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>83.0</v>
+        <v>63.0</v>
       </c>
       <c r="AK59" t="n">
-        <v>64.0</v>
+        <v>39.0</v>
       </c>
       <c r="AL59" t="n">
-        <v>247.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="60">
@@ -7487,113 +7475,113 @@
       <c r="B60" t="s">
         <v>95</v>
       </c>
-      <c r="C60" t="e">
-        <v>#N/A</v>
+      <c r="C60" t="n">
+        <v>57586.0</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="E60" t="n">
-        <v>17.468675434358314</v>
+        <v>85.37140111949246</v>
       </c>
       <c r="F60" t="n">
-        <v>4.2836037915710445</v>
+        <v>-1.6329590303694432</v>
       </c>
       <c r="G60" t="n">
-        <v>6.283783494329015E-45</v>
+        <v>4.200329859249937E-9</v>
       </c>
       <c r="H60" t="n">
-        <v>4.540390998375869</v>
+        <v>0.6967604700225017</v>
       </c>
       <c r="I60" t="n">
-        <v>3.194620104290914E-17</v>
+        <v>0.06611822186101986</v>
       </c>
       <c r="J60" t="n">
-        <v>3.8982690648026717</v>
+        <v>-1.7861705221886945</v>
       </c>
       <c r="K60" t="n">
-        <v>1.8876915519917474E-17</v>
+        <v>1.2095908718721912E-6</v>
       </c>
       <c r="L60" t="n">
-        <v>-1.17310164642168</v>
+        <v>2.0154549851350985</v>
       </c>
       <c r="M60" t="n">
-        <v>9.673727698062487E-5</v>
+        <v>6.38396552271039E-9</v>
       </c>
       <c r="N60" t="n">
-        <v>-1.0841489655623366</v>
+        <v>1.9578690263595433</v>
       </c>
       <c r="O60" t="n">
-        <v>1.689959990315163E-4</v>
+        <v>6.746603214392471E-9</v>
       </c>
       <c r="P60" t="n">
-        <v>-3.4487073734537814</v>
+        <v>2.3778470698252194</v>
       </c>
       <c r="Q60" t="n">
-        <v>8.422785176120866E-18</v>
+        <v>5.505701377195907E-11</v>
       </c>
       <c r="R60" t="n">
-        <v>0.08895268085934344</v>
+        <v>-0.05758595877555498</v>
       </c>
       <c r="S60" t="n">
-        <v>0.8244989306714452</v>
+        <v>0.9023221514147752</v>
       </c>
       <c r="T60" t="n">
-        <v>-2.2756057270321013</v>
+        <v>0.36239208469012113</v>
       </c>
       <c r="U60" t="n">
-        <v>1.5229777123580068E-7</v>
+        <v>0.38499412320909393</v>
       </c>
       <c r="V60" t="n">
-        <v>-2.364558407891445</v>
+        <v>0.41997804346567613</v>
       </c>
       <c r="W60" t="n">
-        <v>7.231165750468516E-8</v>
+        <v>0.3286429432781702</v>
       </c>
       <c r="X60" t="n">
-        <v>0.2567872068048241</v>
+        <v>2.329719500391945</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.8616521476495441</v>
+        <v>7.650886519155184E-6</v>
       </c>
       <c r="Z60" t="n">
-        <v>-0.38533472676837266</v>
+        <v>-0.15321149181925134</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.6226616808292696</v>
+        <v>0.827288739337466</v>
       </c>
       <c r="AB60" t="n">
-        <v>-1.786302320381493</v>
+        <v>0.8942941176760866</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.027108209989300962</v>
+        <v>0.09382543628592849</v>
       </c>
       <c r="AD60" t="n">
-        <v>-0.6421219335731967</v>
+        <v>-2.4829309922111964</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.4735782158315602</v>
+        <v>3.0546085858499045E-6</v>
       </c>
       <c r="AF60" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG60" t="n">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="AH60" t="n">
-        <v>20.0</v>
+        <v>63.0</v>
       </c>
       <c r="AI60" t="n">
-        <v>80.0</v>
+        <v>12.0</v>
       </c>
       <c r="AJ60" t="n">
-        <v>65.0</v>
+        <v>75.0</v>
       </c>
       <c r="AK60" t="n">
-        <v>39.0</v>
+        <v>72.0</v>
       </c>
       <c r="AL60" t="n">
-        <v>248.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="61">
@@ -7604,112 +7592,112 @@
         <v>96</v>
       </c>
       <c r="C61" t="n">
-        <v>57586.0</v>
+        <v>3817.0</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E61" t="n">
-        <v>85.37140111949246</v>
+        <v>9.136912578700402</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.6329590303694432</v>
+        <v>3.6577504644718655</v>
       </c>
       <c r="G61" t="n">
-        <v>4.200329859249937E-9</v>
+        <v>3.881421758085581E-22</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6967604700225017</v>
+        <v>2.0467887643859</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06611822186101986</v>
+        <v>4.840388693732893E-5</v>
       </c>
       <c r="J61" t="n">
-        <v>-1.7861705221886945</v>
+        <v>3.7376285420434674</v>
       </c>
       <c r="K61" t="n">
-        <v>1.2095908718721912E-6</v>
+        <v>7.736992806714129E-9</v>
       </c>
       <c r="L61" t="n">
-        <v>2.0154549851350985</v>
+        <v>-1.3932009465803399</v>
       </c>
       <c r="M61" t="n">
-        <v>6.38396552271039E-9</v>
+        <v>5.448603361568109E-4</v>
       </c>
       <c r="N61" t="n">
-        <v>1.9578690263595433</v>
+        <v>-1.223791233329121</v>
       </c>
       <c r="O61" t="n">
-        <v>6.746603214392471E-9</v>
+        <v>0.0013669372950277558</v>
       </c>
       <c r="P61" t="n">
-        <v>2.3778470698252194</v>
+        <v>-1.1589047848510816</v>
       </c>
       <c r="Q61" t="n">
-        <v>5.505701377195907E-11</v>
+        <v>0.005957245920867674</v>
       </c>
       <c r="R61" t="n">
-        <v>-0.05758595877555498</v>
+        <v>0.16940971325121895</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9023221514147752</v>
+        <v>0.7464567029676217</v>
       </c>
       <c r="T61" t="n">
-        <v>0.36239208469012113</v>
+        <v>0.23429616172925832</v>
       </c>
       <c r="U61" t="n">
-        <v>0.38499412320909393</v>
+        <v>0.6454327403342758</v>
       </c>
       <c r="V61" t="n">
-        <v>0.41997804346567613</v>
+        <v>0.06488644847803945</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3286429432781702</v>
+        <v>0.9091789190113557</v>
       </c>
       <c r="X61" t="n">
-        <v>2.329719500391945</v>
+        <v>-1.610961700085965</v>
       </c>
       <c r="Y61" t="n">
-        <v>7.650886519155184E-6</v>
+        <v>0.0560850631519759</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.15321149181925134</v>
+        <v>0.07987807757160179</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.827288739337466</v>
+        <v>0.949310558521015</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.8942941176760866</v>
+        <v>0.02101354065081974</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.09382543628592849</v>
+        <v>0.9846026079172703</v>
       </c>
       <c r="AD61" t="n">
-        <v>-2.4829309922111964</v>
+        <v>1.690839777657567</v>
       </c>
       <c r="AE61" t="n">
-        <v>3.0546085858499045E-6</v>
+        <v>0.06305653484382301</v>
       </c>
       <c r="AF61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG61" t="n">
-        <v>22.0</v>
+        <v>56.0</v>
       </c>
       <c r="AH61" t="n">
-        <v>65.0</v>
+        <v>26.0</v>
       </c>
       <c r="AI61" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="AJ61" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="AK61" t="n">
-        <v>73.0</v>
+        <v>66.0</v>
       </c>
       <c r="AL61" t="n">
-        <v>250.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="62">
@@ -7720,112 +7708,112 @@
         <v>97</v>
       </c>
       <c r="C62" t="n">
-        <v>3817.0</v>
+        <v>1.01929478E8</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E62" t="n">
-        <v>9.136912578700402</v>
+        <v>3.30384676040384</v>
       </c>
       <c r="F62" t="n">
-        <v>3.6577504644718655</v>
+        <v>5.446437093945339</v>
       </c>
       <c r="G62" t="n">
-        <v>3.881421758085581E-22</v>
+        <v>1.5887320577199556E-15</v>
       </c>
       <c r="H62" t="n">
-        <v>2.0467887643859</v>
+        <v>4.538784933841772</v>
       </c>
       <c r="I62" t="n">
-        <v>4.840388693732893E-5</v>
+        <v>4.30050829815483E-6</v>
       </c>
       <c r="J62" t="n">
-        <v>3.7376285420434674</v>
+        <v>5.1328706500890116</v>
       </c>
       <c r="K62" t="n">
-        <v>7.736992806714129E-9</v>
+        <v>3.021432153330795E-7</v>
       </c>
       <c r="L62" t="n">
-        <v>-1.3932009465803399</v>
+        <v>-1.407358866452462</v>
       </c>
       <c r="M62" t="n">
-        <v>5.448603361568109E-4</v>
+        <v>0.03838123189947342</v>
       </c>
       <c r="N62" t="n">
-        <v>-1.223791233329121</v>
+        <v>-1.2313139350369422</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0013669372950277558</v>
+        <v>0.05290518670171212</v>
       </c>
       <c r="P62" t="n">
-        <v>-1.1589047848510816</v>
+        <v>-3.973557755839683</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.005957245920867674</v>
+        <v>4.0311703557890774E-5</v>
       </c>
       <c r="R62" t="n">
-        <v>0.16940971325121895</v>
+        <v>0.17604493141551986</v>
       </c>
       <c r="S62" t="n">
-        <v>0.7464567029676217</v>
+        <v>0.8365947324740268</v>
       </c>
       <c r="T62" t="n">
-        <v>0.23429616172925832</v>
+        <v>-2.566198889387221</v>
       </c>
       <c r="U62" t="n">
-        <v>0.6454327403342758</v>
+        <v>0.013640842648966454</v>
       </c>
       <c r="V62" t="n">
-        <v>0.06488644847803945</v>
+        <v>-2.7422438208027407</v>
       </c>
       <c r="W62" t="n">
-        <v>0.9091789190113557</v>
+        <v>0.009416020459003879</v>
       </c>
       <c r="X62" t="n">
-        <v>-1.610961700085965</v>
+        <v>-0.9076521601035675</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0560850631519759</v>
+        <v>0.7103075700917255</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.07987807757160179</v>
+        <v>-0.3135664438563273</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.949310558521015</v>
+        <v>0.8676776697618261</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.02101354065081974</v>
+        <v>-3.3401682040089073</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.9846026079172703</v>
+        <v>0.03105265568873995</v>
       </c>
       <c r="AD62" t="n">
-        <v>1.690839777657567</v>
+        <v>0.5940857162472403</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.06305653484382301</v>
+        <v>0.7544364819699251</v>
       </c>
       <c r="AF62" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG62" t="n">
-        <v>56.0</v>
+        <v>75.0</v>
       </c>
       <c r="AH62" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="AI62" t="n">
-        <v>22.0</v>
+        <v>53.0</v>
       </c>
       <c r="AJ62" t="n">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
       <c r="AK62" t="n">
-        <v>67.0</v>
+        <v>36.0</v>
       </c>
       <c r="AL62" t="n">
-        <v>251.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="63">
@@ -7835,113 +7823,113 @@
       <c r="B63" t="s">
         <v>98</v>
       </c>
-      <c r="C63" t="n">
-        <v>7068.0</v>
+      <c r="C63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E63" t="n">
-        <v>1.883310658969338</v>
+        <v>9.263277352186323</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.435590660033821</v>
+        <v>-2.3763288628960217</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0014548203669253186</v>
+        <v>1.138058620551332E-12</v>
       </c>
       <c r="H63" t="n">
-        <v>2.3297711284994183</v>
+        <v>-1.6530784629906679</v>
       </c>
       <c r="I63" t="n">
-        <v>0.031621740287701504</v>
+        <v>6.574521649342696E-7</v>
       </c>
       <c r="J63" t="n">
-        <v>-3.481982748220489</v>
+        <v>0.10175743378090263</v>
       </c>
       <c r="K63" t="n">
-        <v>8.601789090566828E-5</v>
+        <v>0.8035910868687075</v>
       </c>
       <c r="L63" t="n">
-        <v>2.125606203260186</v>
+        <v>1.1908884006278082</v>
       </c>
       <c r="M63" t="n">
-        <v>0.032700345392485224</v>
+        <v>0.008154016942221095</v>
       </c>
       <c r="N63" t="n">
-        <v>1.0333508059531282</v>
+        <v>1.9512378095506824</v>
       </c>
       <c r="O63" t="n">
-        <v>0.3553989442396517</v>
+        <v>3.6906718533736916E-7</v>
       </c>
       <c r="P63" t="n">
-        <v>0.6994347450052155</v>
+        <v>2.3179419421137046</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.5823474476000555</v>
+        <v>6.636732777226901E-9</v>
       </c>
       <c r="R63" t="n">
-        <v>-1.0922553973070583</v>
+        <v>0.7603494089228743</v>
       </c>
       <c r="S63" t="n">
-        <v>0.2939784023818267</v>
+        <v>0.04170452427951267</v>
       </c>
       <c r="T63" t="n">
-        <v>-1.4261714582549698</v>
+        <v>1.1270535414858964</v>
       </c>
       <c r="U63" t="n">
-        <v>0.2332542680442984</v>
+        <v>0.0031942788493385015</v>
       </c>
       <c r="V63" t="n">
-        <v>-0.33391606094791276</v>
+        <v>0.3667041325630222</v>
       </c>
       <c r="W63" t="n">
-        <v>0.81498462106222</v>
+        <v>0.3385312467432435</v>
       </c>
       <c r="X63" t="n">
-        <v>4.765361788533239</v>
+        <v>0.7232503999053539</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.002333215515585838</v>
+        <v>0.33799988193433067</v>
       </c>
       <c r="Z63" t="n">
-        <v>-1.0463920881866682</v>
+        <v>2.4780862966769246</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.49960177405138156</v>
+        <v>4.213551727846059E-7</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.1458552076636812</v>
+        <v>2.0430433868909312</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.9353763410476923</v>
+        <v>4.158500180944842E-5</v>
       </c>
       <c r="AD63" t="n">
-        <v>-5.811753876719908</v>
+        <v>1.7548358967715705</v>
       </c>
       <c r="AE63" t="n">
-        <v>4.241744176713259E-5</v>
+        <v>3.1449607966038017E-4</v>
       </c>
       <c r="AF63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG63" t="n">
-        <v>83.0</v>
+        <v>55.0</v>
       </c>
       <c r="AH63" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="AI63" t="n">
-        <v>1.0</v>
+        <v>66.0</v>
       </c>
       <c r="AJ63" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="AK63" t="n">
-        <v>83.0</v>
+        <v>67.0</v>
       </c>
       <c r="AL63" t="n">
-        <v>251.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="64">
@@ -7952,112 +7940,112 @@
         <v>99</v>
       </c>
       <c r="C64" t="n">
-        <v>1.01929478E8</v>
+        <v>606293.0</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E64" t="n">
-        <v>3.30384676040384</v>
+        <v>4.512192017689596</v>
       </c>
       <c r="F64" t="n">
-        <v>5.446437093945339</v>
+        <v>1.5890254314641168</v>
       </c>
       <c r="G64" t="n">
-        <v>1.5887320577199556E-15</v>
+        <v>2.553099598707646E-4</v>
       </c>
       <c r="H64" t="n">
-        <v>4.538784933841772</v>
+        <v>0.09087710599018041</v>
       </c>
       <c r="I64" t="n">
-        <v>4.30050829815483E-6</v>
+        <v>0.8967486132743445</v>
       </c>
       <c r="J64" t="n">
-        <v>5.1328706500890116</v>
+        <v>3.720425349632018</v>
       </c>
       <c r="K64" t="n">
-        <v>3.021432153330795E-7</v>
+        <v>7.640196838775578E-5</v>
       </c>
       <c r="L64" t="n">
-        <v>-1.407358866452462</v>
+        <v>-1.447287164519275</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03838123189947342</v>
+        <v>0.012932607044177187</v>
       </c>
       <c r="N64" t="n">
-        <v>-1.2313139350369422</v>
+        <v>-1.0261068804027014</v>
       </c>
       <c r="O64" t="n">
-        <v>0.05290518670171212</v>
+        <v>0.05905783345472617</v>
       </c>
       <c r="P64" t="n">
-        <v>-3.973557755839683</v>
+        <v>-1.3395800019970534</v>
       </c>
       <c r="Q64" t="n">
-        <v>4.0311703557890774E-5</v>
+        <v>0.026846939581814066</v>
       </c>
       <c r="R64" t="n">
-        <v>0.17604493141551986</v>
+        <v>0.42118028411657393</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8365947324740268</v>
+        <v>0.541734079630551</v>
       </c>
       <c r="T64" t="n">
-        <v>-2.566198889387221</v>
+        <v>0.1077071625222215</v>
       </c>
       <c r="U64" t="n">
-        <v>0.013640842648966454</v>
+        <v>0.8893038228821294</v>
       </c>
       <c r="V64" t="n">
-        <v>-2.7422438208027407</v>
+        <v>-0.3134731215943518</v>
       </c>
       <c r="W64" t="n">
-        <v>0.009416020459003879</v>
+        <v>0.6777694652049294</v>
       </c>
       <c r="X64" t="n">
-        <v>-0.9076521601035675</v>
+        <v>-1.4981483254739363</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.7103075700917255</v>
+        <v>0.1611763552678316</v>
       </c>
       <c r="Z64" t="n">
-        <v>-0.3135664438563273</v>
+        <v>2.1313999181679013</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.8676776697618261</v>
+        <v>0.07153750184160243</v>
       </c>
       <c r="AB64" t="n">
-        <v>-3.3401682040089073</v>
+        <v>0.5420899529879785</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.03105265568873995</v>
+        <v>0.6345282330219217</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.5940857162472403</v>
+        <v>3.629548243641838</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.7544364819699251</v>
+        <v>0.0018563783805028622</v>
       </c>
       <c r="AF64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG64" t="n">
-        <v>76.0</v>
+        <v>68.0</v>
       </c>
       <c r="AH64" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>13.0</v>
       </c>
-      <c r="AI64" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>72.0</v>
-      </c>
       <c r="AK64" t="n">
-        <v>36.0</v>
+        <v>79.0</v>
       </c>
       <c r="AL64" t="n">
-        <v>252.0</v>
+        <v>247.0</v>
       </c>
     </row>
     <row r="65">
@@ -8071,109 +8059,109 @@
         <v>#N/A</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E65" t="n">
-        <v>9.263277352186323</v>
+        <v>5.313893106689583</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.3763288628960217</v>
+        <v>3.5299028371036156</v>
       </c>
       <c r="G65" t="n">
-        <v>1.138058620551332E-12</v>
+        <v>1.2070918112269503E-16</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.6530784629906679</v>
+        <v>2.3024985525717536</v>
       </c>
       <c r="I65" t="n">
-        <v>6.574521649342696E-7</v>
+        <v>8.001808606090363E-5</v>
       </c>
       <c r="J65" t="n">
-        <v>0.10175743378090263</v>
+        <v>3.195025417694483</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8035910868687075</v>
+        <v>4.0511305834251864E-5</v>
       </c>
       <c r="L65" t="n">
-        <v>1.1908884006278082</v>
+        <v>-1.2448706716387816</v>
       </c>
       <c r="M65" t="n">
-        <v>0.008154016942221095</v>
+        <v>0.005732147499826632</v>
       </c>
       <c r="N65" t="n">
-        <v>1.9512378095506824</v>
+        <v>-1.7207236122973453</v>
       </c>
       <c r="O65" t="n">
-        <v>3.6906718533736916E-7</v>
+        <v>6.866335908259545E-5</v>
       </c>
       <c r="P65" t="n">
-        <v>2.3179419421137046</v>
+        <v>-2.9936540942024474</v>
       </c>
       <c r="Q65" t="n">
-        <v>6.636732777226901E-9</v>
+        <v>4.5069385112962454E-7</v>
       </c>
       <c r="R65" t="n">
-        <v>0.7603494089228743</v>
+        <v>-0.4758529406585637</v>
       </c>
       <c r="S65" t="n">
-        <v>0.04170452427951267</v>
+        <v>0.3840441010912997</v>
       </c>
       <c r="T65" t="n">
-        <v>1.1270535414858964</v>
+        <v>-1.7487834225636656</v>
       </c>
       <c r="U65" t="n">
-        <v>0.0031942788493385015</v>
+        <v>0.006952611541016489</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3667041325630222</v>
+        <v>-1.2729304819051022</v>
       </c>
       <c r="W65" t="n">
-        <v>0.3385312467432435</v>
+        <v>0.062036188407282096</v>
       </c>
       <c r="X65" t="n">
-        <v>0.7232503999053539</v>
+        <v>-1.2274042845318622</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.33799988193433067</v>
+        <v>0.2685362112934141</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.4780862966769246</v>
+        <v>-0.334877419409133</v>
       </c>
       <c r="AA65" t="n">
-        <v>4.213551727846059E-7</v>
+        <v>0.7993633870705972</v>
       </c>
       <c r="AB65" t="n">
-        <v>2.0430433868909312</v>
+        <v>-1.6014122250734886</v>
       </c>
       <c r="AC65" t="n">
-        <v>4.158500180944842E-5</v>
+        <v>0.15732395775756175</v>
       </c>
       <c r="AD65" t="n">
-        <v>1.7548358967715705</v>
+        <v>0.8925268651227292</v>
       </c>
       <c r="AE65" t="n">
-        <v>3.1449607966038017E-4</v>
+        <v>0.4532233315681778</v>
       </c>
       <c r="AF65" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG65" t="n">
-        <v>55.0</v>
+        <v>65.0</v>
       </c>
       <c r="AH65" t="n">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="AI65" t="n">
-        <v>68.0</v>
+        <v>36.0</v>
       </c>
       <c r="AJ65" t="n">
-        <v>12.0</v>
+        <v>67.0</v>
       </c>
       <c r="AK65" t="n">
-        <v>68.0</v>
+        <v>51.0</v>
       </c>
       <c r="AL65" t="n">
-        <v>252.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="66">
@@ -8184,112 +8172,112 @@
         <v>101</v>
       </c>
       <c r="C66" t="n">
-        <v>606293.0</v>
+        <v>8463.0</v>
       </c>
       <c r="D66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E66" t="n">
-        <v>4.512192017689596</v>
+        <v>112.46890512752644</v>
       </c>
       <c r="F66" t="n">
-        <v>1.5890254314641168</v>
+        <v>-1.4809693731943983</v>
       </c>
       <c r="G66" t="n">
-        <v>2.553099598707646E-4</v>
+        <v>0.0034769097092625296</v>
       </c>
       <c r="H66" t="n">
-        <v>0.09087710599018041</v>
+        <v>-0.8952359749030695</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8967486132743445</v>
+        <v>0.1597220025351261</v>
       </c>
       <c r="J66" t="n">
-        <v>3.720425349632018</v>
+        <v>-1.2480747507208452</v>
       </c>
       <c r="K66" t="n">
-        <v>7.640196838775578E-5</v>
+        <v>0.05929635159638165</v>
       </c>
       <c r="L66" t="n">
-        <v>-1.447287164519275</v>
+        <v>3.199375725455516</v>
       </c>
       <c r="M66" t="n">
-        <v>0.012932607044177187</v>
+        <v>1.2852725357106478E-7</v>
       </c>
       <c r="N66" t="n">
-        <v>-1.0261068804027014</v>
+        <v>2.6785345339092212</v>
       </c>
       <c r="O66" t="n">
-        <v>0.05905783345472617</v>
+        <v>6.931457121696119E-6</v>
       </c>
       <c r="P66" t="n">
-        <v>-1.3395800019970534</v>
+        <v>6.689430684834776</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.026846939581814066</v>
+        <v>1.2584160922986274E-27</v>
       </c>
       <c r="R66" t="n">
-        <v>0.42118028411657393</v>
+        <v>-0.5208411915462952</v>
       </c>
       <c r="S66" t="n">
-        <v>0.541734079630551</v>
+        <v>0.4586182354779694</v>
       </c>
       <c r="T66" t="n">
-        <v>0.1077071625222215</v>
+        <v>3.4900549593792607</v>
       </c>
       <c r="U66" t="n">
-        <v>0.8893038228821294</v>
+        <v>7.192474505897726E-8</v>
       </c>
       <c r="V66" t="n">
-        <v>-0.3134731215943518</v>
+        <v>4.010896150925555</v>
       </c>
       <c r="W66" t="n">
-        <v>0.6777694652049294</v>
+        <v>1.213891362535526E-9</v>
       </c>
       <c r="X66" t="n">
-        <v>-1.4981483254739363</v>
+        <v>0.5857333982913288</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1611763552678316</v>
+        <v>0.7140357419233322</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.1313999181679013</v>
+        <v>0.23289462247355305</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.07153750184160243</v>
+        <v>0.8490206459618711</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.5420899529879785</v>
+        <v>0.9072594523788922</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.6345282330219217</v>
+        <v>0.34055865413963055</v>
       </c>
       <c r="AD66" t="n">
-        <v>3.629548243641838</v>
+        <v>-0.3528387758177757</v>
       </c>
       <c r="AE66" t="n">
-        <v>0.0018563783805028622</v>
+        <v>0.7634140617934803</v>
       </c>
       <c r="AF66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG66" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AH66" t="n">
         <v>68.0</v>
       </c>
-      <c r="AH66" t="n">
-        <v>66.0</v>
-      </c>
       <c r="AI66" t="n">
-        <v>25.0</v>
+        <v>70.0</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13.0</v>
+        <v>71.0</v>
       </c>
       <c r="AK66" t="n">
-        <v>80.0</v>
+        <v>24.0</v>
       </c>
       <c r="AL66" t="n">
-        <v>252.0</v>
+        <v>251.0</v>
       </c>
     </row>
     <row r="67">
@@ -8303,106 +8291,106 @@
         <v>#N/A</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E67" t="n">
-        <v>5.313893106689583</v>
+        <v>4.184551175139637</v>
       </c>
       <c r="F67" t="n">
-        <v>3.5299028371036156</v>
+        <v>-1.9760590520419514</v>
       </c>
       <c r="G67" t="n">
-        <v>1.2070918112269503E-16</v>
+        <v>8.853538502199793E-6</v>
       </c>
       <c r="H67" t="n">
-        <v>2.3024985525717536</v>
+        <v>-1.1080188924429484</v>
       </c>
       <c r="I67" t="n">
-        <v>8.001808606090363E-5</v>
+        <v>0.010847495642288032</v>
       </c>
       <c r="J67" t="n">
-        <v>3.195025417694483</v>
+        <v>-0.03711345971446829</v>
       </c>
       <c r="K67" t="n">
-        <v>4.0511305834251864E-5</v>
+        <v>0.9426709023507766</v>
       </c>
       <c r="L67" t="n">
-        <v>-1.2448706716387816</v>
+        <v>1.3145418430814857</v>
       </c>
       <c r="M67" t="n">
-        <v>0.005732147499826632</v>
+        <v>0.025467899736285122</v>
       </c>
       <c r="N67" t="n">
-        <v>-1.7207236122973453</v>
+        <v>1.9811372204230844</v>
       </c>
       <c r="O67" t="n">
-        <v>6.866335908259545E-5</v>
+        <v>7.71722231284711E-5</v>
       </c>
       <c r="P67" t="n">
-        <v>-2.9936540942024474</v>
+        <v>1.6208112465024067</v>
       </c>
       <c r="Q67" t="n">
-        <v>4.5069385112962454E-7</v>
+        <v>0.004118737598921683</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.4758529406585637</v>
+        <v>0.6665953773415988</v>
       </c>
       <c r="S67" t="n">
-        <v>0.3840441010912997</v>
+        <v>0.16804189598080974</v>
       </c>
       <c r="T67" t="n">
-        <v>-1.7487834225636656</v>
+        <v>0.30626940342092096</v>
       </c>
       <c r="U67" t="n">
-        <v>0.006952611541016489</v>
+        <v>0.5858026692105333</v>
       </c>
       <c r="V67" t="n">
-        <v>-1.2729304819051022</v>
+        <v>-0.36032597392067783</v>
       </c>
       <c r="W67" t="n">
-        <v>0.062036188407282096</v>
+        <v>0.5107322854386077</v>
       </c>
       <c r="X67" t="n">
-        <v>-1.2274042845318622</v>
+        <v>0.8680401595990032</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.2685362112934141</v>
+        <v>0.38977287043234693</v>
       </c>
       <c r="Z67" t="n">
-        <v>-0.334877419409133</v>
+        <v>1.9389455923274832</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.7993633870705972</v>
+        <v>0.0033136241976570954</v>
       </c>
       <c r="AB67" t="n">
-        <v>-1.6014122250734886</v>
+        <v>1.6245466888318676</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.15732395775756175</v>
+        <v>0.024212740112712745</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.8925268651227292</v>
+        <v>1.07090543272848</v>
       </c>
       <c r="AE67" t="n">
-        <v>0.4532233315681778</v>
+        <v>0.10602211553126764</v>
       </c>
       <c r="AF67" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG67" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="AH67" t="n">
-        <v>29.0</v>
+        <v>54.0</v>
       </c>
       <c r="AI67" t="n">
-        <v>38.0</v>
+        <v>55.0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>69.0</v>
+        <v>20.0</v>
       </c>
       <c r="AK67" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="AL67" t="n">
         <v>253.0</v>
@@ -8416,112 +8404,112 @@
         <v>103</v>
       </c>
       <c r="C68" t="n">
-        <v>8463.0</v>
+        <v>400680.0</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E68" t="n">
-        <v>112.46890512752644</v>
+        <v>3.461639003834674</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.4809693731943983</v>
+        <v>3.4230029464722005</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0034769097092625296</v>
+        <v>3.468409720906504E-11</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.8952359749030695</v>
+        <v>2.8438356859074836</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1597220025351261</v>
+        <v>4.2646942261705703E-4</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.2480747507208452</v>
+        <v>0.8707135095999163</v>
       </c>
       <c r="K68" t="n">
-        <v>0.05929635159638165</v>
+        <v>0.21576432065613685</v>
       </c>
       <c r="L68" t="n">
-        <v>3.199375725455516</v>
+        <v>-1.2298844197102758</v>
       </c>
       <c r="M68" t="n">
-        <v>1.2852725357106478E-7</v>
+        <v>0.026992283418922923</v>
       </c>
       <c r="N68" t="n">
-        <v>2.6785345339092212</v>
+        <v>-1.537545372665038</v>
       </c>
       <c r="O68" t="n">
-        <v>6.931457121696119E-6</v>
+        <v>0.003366503404895805</v>
       </c>
       <c r="P68" t="n">
-        <v>6.689430684834776</v>
+        <v>-5.075848439852672</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.2584160922986274E-27</v>
+        <v>2.1941325968853857E-7</v>
       </c>
       <c r="R68" t="n">
-        <v>-0.5208411915462952</v>
+        <v>-0.3076609529547624</v>
       </c>
       <c r="S68" t="n">
-        <v>0.4586182354779694</v>
+        <v>0.656792248034273</v>
       </c>
       <c r="T68" t="n">
-        <v>3.4900549593792607</v>
+        <v>-3.8459640201423966</v>
       </c>
       <c r="U68" t="n">
-        <v>7.192474505897726E-8</v>
+        <v>1.7648332914550456E-4</v>
       </c>
       <c r="V68" t="n">
-        <v>4.010896150925555</v>
+        <v>-3.538303067187634</v>
       </c>
       <c r="W68" t="n">
-        <v>1.213891362535526E-9</v>
+        <v>7.75517260837656E-4</v>
       </c>
       <c r="X68" t="n">
-        <v>0.5857333982913288</v>
+        <v>-0.5791672605647169</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.7140357419233322</v>
+        <v>0.7784545638628398</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.23289462247355305</v>
+        <v>-2.552289436872284</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.8490206459618711</v>
+        <v>0.004669362643829223</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.9072594523788922</v>
+        <v>-5.993909010334579</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.34055865413963055</v>
+        <v>1.0248774228568358E-6</v>
       </c>
       <c r="AD68" t="n">
-        <v>-0.3528387758177757</v>
+        <v>-1.9731221763075673</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.7634140617934803</v>
+        <v>0.08526064399089861</v>
       </c>
       <c r="AF68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG68" t="n">
-        <v>18.0</v>
+        <v>74.0</v>
       </c>
       <c r="AH68" t="n">
-        <v>70.0</v>
+        <v>30.0</v>
       </c>
       <c r="AI68" t="n">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="AJ68" t="n">
-        <v>73.0</v>
+        <v>10.0</v>
       </c>
       <c r="AK68" t="n">
-        <v>24.0</v>
+        <v>68.0</v>
       </c>
       <c r="AL68" t="n">
-        <v>257.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="69">
@@ -8532,112 +8520,112 @@
         <v>104</v>
       </c>
       <c r="C69" t="n">
-        <v>400680.0</v>
+        <v>125050.0</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E69" t="n">
-        <v>3.461639003834674</v>
+        <v>281.5582257504158</v>
       </c>
       <c r="F69" t="n">
-        <v>3.4230029464722005</v>
+        <v>1.3204693964074707</v>
       </c>
       <c r="G69" t="n">
-        <v>3.468409720906504E-11</v>
+        <v>0.001657729533290273</v>
       </c>
       <c r="H69" t="n">
-        <v>2.8438356859074836</v>
+        <v>1.6003236111651773</v>
       </c>
       <c r="I69" t="n">
-        <v>4.2646942261705703E-4</v>
+        <v>0.007006445124649302</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8707135095999163</v>
+        <v>0.816427412573981</v>
       </c>
       <c r="K69" t="n">
-        <v>0.21576432065613685</v>
+        <v>0.2137295483203593</v>
       </c>
       <c r="L69" t="n">
-        <v>-1.2298844197102758</v>
+        <v>-1.0539766957228074</v>
       </c>
       <c r="M69" t="n">
-        <v>0.026992283418922923</v>
+        <v>0.07530190667627905</v>
       </c>
       <c r="N69" t="n">
-        <v>-1.537545372665038</v>
+        <v>-1.6249172375016812</v>
       </c>
       <c r="O69" t="n">
-        <v>0.003366503404895805</v>
+        <v>0.002398284384436353</v>
       </c>
       <c r="P69" t="n">
-        <v>-5.075848439852672</v>
+        <v>-0.5658858720022006</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.1941325968853857E-7</v>
+        <v>0.34511470200285355</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.3076609529547624</v>
+        <v>-0.5709405417788734</v>
       </c>
       <c r="S69" t="n">
-        <v>0.656792248034273</v>
+        <v>0.3872551244627873</v>
       </c>
       <c r="T69" t="n">
-        <v>-3.8459640201423966</v>
+        <v>0.4880908237206068</v>
       </c>
       <c r="U69" t="n">
-        <v>1.7648332914550456E-4</v>
+        <v>0.4667965021552482</v>
       </c>
       <c r="V69" t="n">
-        <v>-3.538303067187634</v>
+        <v>1.0590313654994803</v>
       </c>
       <c r="W69" t="n">
-        <v>7.75517260837656E-4</v>
+        <v>0.11219985086216099</v>
       </c>
       <c r="X69" t="n">
-        <v>-0.5791672605647169</v>
+        <v>0.27985421475770667</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.7784545638628398</v>
+        <v>0.8684307992356121</v>
       </c>
       <c r="Z69" t="n">
-        <v>-2.552289436872284</v>
+        <v>-0.5040419838334899</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.004669362643829223</v>
+        <v>0.6170483702397904</v>
       </c>
       <c r="AB69" t="n">
-        <v>-5.993909010334579</v>
+        <v>-0.029556603432471393</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.0248774228568358E-6</v>
+        <v>0.9770164046497322</v>
       </c>
       <c r="AD69" t="n">
-        <v>-1.9731221763075673</v>
+        <v>-0.7838961985911964</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.08526064399089861</v>
+        <v>0.444980120817094</v>
       </c>
       <c r="AF69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG69" t="n">
-        <v>74.0</v>
+        <v>8.0</v>
       </c>
       <c r="AH69" t="n">
-        <v>31.0</v>
+        <v>71.0</v>
       </c>
       <c r="AI69" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="AJ69" t="n">
-        <v>10.0</v>
+        <v>56.0</v>
       </c>
       <c r="AK69" t="n">
-        <v>69.0</v>
+        <v>47.0</v>
       </c>
       <c r="AL69" t="n">
-        <v>257.0</v>
+        <v>259.0</v>
       </c>
     </row>
     <row r="70">
@@ -8647,113 +8635,113 @@
       <c r="B70" t="s">
         <v>105</v>
       </c>
-      <c r="C70" t="e">
-        <v>#N/A</v>
+      <c r="C70" t="n">
+        <v>80157.0</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="E70" t="n">
-        <v>4.184551175139637</v>
+        <v>5.725659103921375</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.9760590520419514</v>
+        <v>1.6850408929984773</v>
       </c>
       <c r="G70" t="n">
-        <v>8.853538502199793E-6</v>
+        <v>3.96692598955974E-8</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.1080188924429484</v>
+        <v>-0.06499347928838092</v>
       </c>
       <c r="I70" t="n">
-        <v>0.010847495642288032</v>
+        <v>0.8882970178074159</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.03711345971446829</v>
+        <v>1.2054013399370074</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9426709023507766</v>
+        <v>0.028472683513712533</v>
       </c>
       <c r="L70" t="n">
-        <v>1.3145418430814857</v>
+        <v>-1.0739642285288797</v>
       </c>
       <c r="M70" t="n">
-        <v>0.025467899736285122</v>
+        <v>0.005558312929874405</v>
       </c>
       <c r="N70" t="n">
-        <v>1.9811372204230844</v>
+        <v>-1.6738758712348287</v>
       </c>
       <c r="O70" t="n">
-        <v>7.71722231284711E-5</v>
+        <v>1.1978408155181088E-5</v>
       </c>
       <c r="P70" t="n">
-        <v>1.6208112465024067</v>
+        <v>-3.5724576398132495</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.004118737598921683</v>
+        <v>2.207894000555876E-7</v>
       </c>
       <c r="R70" t="n">
-        <v>0.6665953773415988</v>
+        <v>-0.599911642705949</v>
       </c>
       <c r="S70" t="n">
-        <v>0.16804189598080974</v>
+        <v>0.20209905647890652</v>
       </c>
       <c r="T70" t="n">
-        <v>0.30626940342092096</v>
+        <v>-2.4984934112843695</v>
       </c>
       <c r="U70" t="n">
-        <v>0.5858026692105333</v>
+        <v>5.694328674824463E-4</v>
       </c>
       <c r="V70" t="n">
-        <v>-0.36032597392067783</v>
+        <v>-1.8985817685784203</v>
       </c>
       <c r="W70" t="n">
-        <v>0.5107322854386077</v>
+        <v>0.012591803477953443</v>
       </c>
       <c r="X70" t="n">
-        <v>0.8680401595990032</v>
+        <v>-1.750034372286858</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.38977287043234693</v>
+        <v>0.00471362119530669</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.9389455923274832</v>
+        <v>-0.47963955306147</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.0033136241976570954</v>
+        <v>0.5610041997261405</v>
       </c>
       <c r="AB70" t="n">
-        <v>1.6245466888318676</v>
+        <v>-2.142931910984709</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.024212740112712745</v>
+        <v>0.02175015294312528</v>
       </c>
       <c r="AD70" t="n">
-        <v>1.07090543272848</v>
+        <v>1.2703948192253882</v>
       </c>
       <c r="AE70" t="n">
-        <v>0.10602211553126764</v>
+        <v>0.08323472502776282</v>
       </c>
       <c r="AF70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG70" t="n">
-        <v>70.0</v>
+        <v>64.0</v>
       </c>
       <c r="AH70" t="n">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="AI70" t="n">
-        <v>57.0</v>
+        <v>17.0</v>
       </c>
       <c r="AJ70" t="n">
-        <v>20.0</v>
+        <v>59.0</v>
       </c>
       <c r="AK70" t="n">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="AL70" t="n">
-        <v>258.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="71">
@@ -8763,113 +8751,113 @@
       <c r="B71" t="s">
         <v>106</v>
       </c>
-      <c r="C71" t="n">
-        <v>125050.0</v>
+      <c r="C71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E71" t="n">
-        <v>281.5582257504158</v>
+        <v>16.460286684035363</v>
       </c>
       <c r="F71" t="n">
-        <v>1.3204693964074707</v>
+        <v>1.0405475564067785</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001657729533290273</v>
+        <v>0.011189834061302644</v>
       </c>
       <c r="H71" t="n">
-        <v>1.6003236111651773</v>
+        <v>0.684379069342053</v>
       </c>
       <c r="I71" t="n">
-        <v>0.007006445124649302</v>
+        <v>0.2704499628887478</v>
       </c>
       <c r="J71" t="n">
-        <v>0.816427412573981</v>
+        <v>0.642772229219862</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2137295483203593</v>
+        <v>0.34622299603700946</v>
       </c>
       <c r="L71" t="n">
-        <v>-1.0539766957228074</v>
+        <v>-1.671126402047363</v>
       </c>
       <c r="M71" t="n">
-        <v>0.07530190667627905</v>
+        <v>0.0023136553365820604</v>
       </c>
       <c r="N71" t="n">
-        <v>-1.6249172375016812</v>
+        <v>-2.0073264309387504</v>
       </c>
       <c r="O71" t="n">
-        <v>0.002398284384436353</v>
+        <v>1.1502442500441266E-4</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.5658858720022006</v>
+        <v>-1.686492310425656</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.34511470200285355</v>
+        <v>0.0029437458382594187</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.5709405417788734</v>
+        <v>-0.33620002889138706</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3872551244627873</v>
+        <v>0.6255671824897935</v>
       </c>
       <c r="T71" t="n">
-        <v>0.4880908237206068</v>
+        <v>-0.015365908378292957</v>
       </c>
       <c r="U71" t="n">
-        <v>0.4667965021552482</v>
+        <v>0.9838256930200369</v>
       </c>
       <c r="V71" t="n">
-        <v>1.0590313654994803</v>
+        <v>0.32083412051309407</v>
       </c>
       <c r="W71" t="n">
-        <v>0.11219985086216099</v>
+        <v>0.6586007475992358</v>
       </c>
       <c r="X71" t="n">
-        <v>0.27985421475770667</v>
+        <v>-0.3561684870647255</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.8684307992356121</v>
+        <v>0.8241904455387719</v>
       </c>
       <c r="Z71" t="n">
-        <v>-0.5040419838334899</v>
+        <v>-0.3977753271869165</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.6170483702397904</v>
+        <v>0.7027484097059264</v>
       </c>
       <c r="AB71" t="n">
-        <v>-0.029556603432471393</v>
+        <v>-0.41164648169576684</v>
       </c>
       <c r="AC71" t="n">
-        <v>0.9770164046497322</v>
+        <v>0.6611534889630772</v>
       </c>
       <c r="AD71" t="n">
-        <v>-0.7838961985911964</v>
+        <v>-0.04160684012219103</v>
       </c>
       <c r="AE71" t="n">
-        <v>0.444980120817094</v>
+        <v>0.9737285855669823</v>
       </c>
       <c r="AF71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG71" t="n">
-        <v>8.0</v>
+        <v>46.0</v>
       </c>
       <c r="AH71" t="n">
-        <v>73.0</v>
+        <v>81.0</v>
       </c>
       <c r="AI71" t="n">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
       <c r="AJ71" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="AK71" t="n">
-        <v>47.0</v>
+        <v>4.0</v>
       </c>
       <c r="AL71" t="n">
-        <v>265.0</v>
+        <v>267.0</v>
       </c>
     </row>
     <row r="72">
@@ -8879,110 +8867,110 @@
       <c r="B72" t="s">
         <v>107</v>
       </c>
-      <c r="C72" t="n">
-        <v>80157.0</v>
+      <c r="C72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E72" t="n">
-        <v>5.725659103921375</v>
+        <v>9.5920971138355</v>
       </c>
       <c r="F72" t="n">
-        <v>1.6850408929984773</v>
+        <v>1.1168653897543308</v>
       </c>
       <c r="G72" t="n">
-        <v>3.96692598955974E-8</v>
+        <v>0.006381715686644298</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.06499347928838092</v>
+        <v>0.3182689726190431</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8882970178074159</v>
+        <v>0.6229846824686831</v>
       </c>
       <c r="J72" t="n">
-        <v>1.2054013399370074</v>
+        <v>0.5739896624545444</v>
       </c>
       <c r="K72" t="n">
-        <v>0.028472683513712533</v>
+        <v>0.39983652903916717</v>
       </c>
       <c r="L72" t="n">
-        <v>-1.0739642285288797</v>
+        <v>-1.6102676758134022</v>
       </c>
       <c r="M72" t="n">
-        <v>0.005558312929874405</v>
+        <v>0.0036071203250476807</v>
       </c>
       <c r="N72" t="n">
-        <v>-1.6738758712348287</v>
+        <v>-1.5112896791196981</v>
       </c>
       <c r="O72" t="n">
-        <v>1.1978408155181088E-5</v>
+        <v>0.0038088454173908037</v>
       </c>
       <c r="P72" t="n">
-        <v>-3.5724576398132495</v>
+        <v>-1.681684925892348</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.207894000555876E-7</v>
+        <v>0.003705895672703633</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.599911642705949</v>
+        <v>0.09897799669370436</v>
       </c>
       <c r="S72" t="n">
-        <v>0.20209905647890652</v>
+        <v>0.8942981859399673</v>
       </c>
       <c r="T72" t="n">
-        <v>-2.4984934112843695</v>
+        <v>-0.0714172500789458</v>
       </c>
       <c r="U72" t="n">
-        <v>5.694328674824463E-4</v>
+        <v>0.9243003297814871</v>
       </c>
       <c r="V72" t="n">
-        <v>-1.8985817685784203</v>
+        <v>-0.17039524677265017</v>
       </c>
       <c r="W72" t="n">
-        <v>0.012591803477953443</v>
+        <v>0.822136862257241</v>
       </c>
       <c r="X72" t="n">
-        <v>-1.750034372286858</v>
+        <v>-0.7985964171352876</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.00471362119530669</v>
+        <v>0.5290925596271487</v>
       </c>
       <c r="Z72" t="n">
-        <v>-0.47963955306147</v>
+        <v>-0.5428757272997864</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.5610041997261405</v>
+        <v>0.5828730017169806</v>
       </c>
       <c r="AB72" t="n">
-        <v>-2.142931910984709</v>
+        <v>-0.9090361970203914</v>
       </c>
       <c r="AC72" t="n">
-        <v>0.02175015294312528</v>
+        <v>0.3054257967919526</v>
       </c>
       <c r="AD72" t="n">
-        <v>1.2703948192253882</v>
+        <v>0.2557206898355013</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.08323472502776282</v>
+        <v>0.8266724052771156</v>
       </c>
       <c r="AF72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG72" t="n">
-        <v>64.0</v>
+        <v>54.0</v>
       </c>
       <c r="AH72" t="n">
-        <v>63.0</v>
+        <v>77.0</v>
       </c>
       <c r="AI72" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="AK72" t="n">
         <v>19.0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>60.0</v>
       </c>
       <c r="AL72" t="n">
         <v>267.0</v>
@@ -8995,113 +8983,113 @@
       <c r="B73" t="s">
         <v>108</v>
       </c>
-      <c r="C73" t="e">
-        <v>#N/A</v>
+      <c r="C73" t="n">
+        <v>10178.0</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E73" t="n">
-        <v>16.460286684035363</v>
+        <v>358.0554058221214</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0405475564067785</v>
+        <v>-1.136665266830293</v>
       </c>
       <c r="G73" t="n">
-        <v>0.011189834061302644</v>
+        <v>8.442846575802901E-8</v>
       </c>
       <c r="H73" t="n">
-        <v>0.684379069342053</v>
+        <v>-0.32753412361900497</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2704499628887478</v>
+        <v>0.291722039445016</v>
       </c>
       <c r="J73" t="n">
-        <v>0.642772229219862</v>
+        <v>-1.46810058920118</v>
       </c>
       <c r="K73" t="n">
-        <v>0.34622299603700946</v>
+        <v>7.09685890920502E-7</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.671126402047363</v>
+        <v>1.5223704338473558</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0023136553365820604</v>
+        <v>1.7444196849582335E-8</v>
       </c>
       <c r="N73" t="n">
-        <v>-2.0073264309387504</v>
+        <v>2.0951718351090776</v>
       </c>
       <c r="O73" t="n">
-        <v>1.1502442500441266E-4</v>
+        <v>4.845380930524875E-16</v>
       </c>
       <c r="P73" t="n">
-        <v>-1.686492310425656</v>
+        <v>0.5779434128367056</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.0029437458382594187</v>
+        <v>0.051385944024031696</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.33620002889138706</v>
+        <v>0.5728014012617214</v>
       </c>
       <c r="S73" t="n">
-        <v>0.6255671824897935</v>
+        <v>0.0655587778993764</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.015365908378292957</v>
+        <v>-0.9444270210106505</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9838256930200369</v>
+        <v>0.0032219000909662304</v>
       </c>
       <c r="V73" t="n">
-        <v>0.32083412051309407</v>
+        <v>-1.517228422272372</v>
       </c>
       <c r="W73" t="n">
-        <v>0.6586007475992358</v>
+        <v>2.3253672545603286E-6</v>
       </c>
       <c r="X73" t="n">
-        <v>-0.3561684870647255</v>
+        <v>0.8091311432112881</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.8241904455387719</v>
+        <v>0.10573884659957694</v>
       </c>
       <c r="Z73" t="n">
-        <v>-0.3977753271869165</v>
+        <v>-0.3314353223708868</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.7027484097059264</v>
+        <v>0.4957754590287353</v>
       </c>
       <c r="AB73" t="n">
-        <v>-0.41164648169576684</v>
+        <v>0.22545536194611146</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.6611534889630772</v>
+        <v>0.6335589020189</v>
       </c>
       <c r="AD73" t="n">
-        <v>-0.04160684012219103</v>
+        <v>-1.1405664655821748</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.9737285855669823</v>
+        <v>0.010538444520414782</v>
       </c>
       <c r="AF73" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG73" t="n">
-        <v>46.0</v>
+        <v>6.0</v>
       </c>
       <c r="AH73" t="n">
-        <v>83.0</v>
+        <v>75.0</v>
       </c>
       <c r="AI73" t="n">
-        <v>76.0</v>
+        <v>61.0</v>
       </c>
       <c r="AJ73" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="AK73" t="n">
-        <v>4.0</v>
+        <v>57.0</v>
       </c>
       <c r="AL73" t="n">
-        <v>273.0</v>
+        <v>267.0</v>
       </c>
     </row>
     <row r="74">
@@ -9115,109 +9103,109 @@
         <v>#N/A</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="E74" t="n">
-        <v>9.5920971138355</v>
+        <v>2.4564713296201353</v>
       </c>
       <c r="F74" t="n">
-        <v>1.1168653897543308</v>
+        <v>4.159081066460438</v>
       </c>
       <c r="G74" t="n">
-        <v>0.006381715686644298</v>
+        <v>2.770116216691369E-6</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3182689726190431</v>
+        <v>4.334956303912235</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6229846824686831</v>
+        <v>8.837515142131076E-4</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5739896624545444</v>
+        <v>2.9175959672977814</v>
       </c>
       <c r="K74" t="n">
-        <v>0.39983652903916717</v>
+        <v>0.04575326577435824</v>
       </c>
       <c r="L74" t="n">
-        <v>-1.6102676758134022</v>
+        <v>-1.271449681971073</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0036071203250476807</v>
+        <v>0.2725850559992458</v>
       </c>
       <c r="N74" t="n">
-        <v>-1.5112896791196981</v>
+        <v>-3.1068525017685196</v>
       </c>
       <c r="O74" t="n">
-        <v>0.0038088454173908037</v>
+        <v>0.00391126825665141</v>
       </c>
       <c r="P74" t="n">
-        <v>-1.681684925892348</v>
+        <v>-2.5906788428893672</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.003705895672703633</v>
+        <v>0.02552270127035768</v>
       </c>
       <c r="R74" t="n">
-        <v>0.09897799669370436</v>
+        <v>-1.8354028197974463</v>
       </c>
       <c r="S74" t="n">
-        <v>0.8942981859399673</v>
+        <v>0.1429196450794559</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.0714172500789458</v>
+        <v>-1.319229160918294</v>
       </c>
       <c r="U74" t="n">
-        <v>0.9243003297814871</v>
+        <v>0.3173385250235123</v>
       </c>
       <c r="V74" t="n">
-        <v>-0.17039524677265017</v>
+        <v>0.5161736588791525</v>
       </c>
       <c r="W74" t="n">
-        <v>0.822136862257241</v>
+        <v>0.7350043950095858</v>
       </c>
       <c r="X74" t="n">
-        <v>-0.7985964171352876</v>
+        <v>0.17587523745179803</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.5290925596271487</v>
+        <v>0.9694882298521195</v>
       </c>
       <c r="Z74" t="n">
-        <v>-0.5428757272997864</v>
+        <v>-1.2414850991626556</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.5828730017169806</v>
+        <v>0.580312930375638</v>
       </c>
       <c r="AB74" t="n">
-        <v>-0.9090361970203914</v>
+        <v>-1.0096716023004415</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.3054257967919526</v>
+        <v>0.6278714085126714</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.2557206898355013</v>
+        <v>-1.4173603366144536</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.8266724052771156</v>
+        <v>0.5540871882863292</v>
       </c>
       <c r="AF74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG74" t="n">
-        <v>54.0</v>
+        <v>80.0</v>
       </c>
       <c r="AH74" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AI74" t="n">
         <v>79.0</v>
       </c>
-      <c r="AI74" t="n">
-        <v>64.0</v>
-      </c>
       <c r="AJ74" t="n">
-        <v>57.0</v>
+        <v>32.0</v>
       </c>
       <c r="AK74" t="n">
-        <v>19.0</v>
+        <v>60.0</v>
       </c>
       <c r="AL74" t="n">
-        <v>273.0</v>
+        <v>272.0</v>
       </c>
     </row>
     <row r="75">
@@ -9227,113 +9215,113 @@
       <c r="B75" t="s">
         <v>110</v>
       </c>
-      <c r="C75" t="n">
-        <v>10178.0</v>
+      <c r="C75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="E75" t="n">
-        <v>358.0554058221214</v>
+        <v>7.642438544813711</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.136665266830293</v>
+        <v>2.0264693994989185</v>
       </c>
       <c r="G75" t="n">
-        <v>8.442846575802901E-8</v>
+        <v>6.817375852245678E-9</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.32753412361900497</v>
+        <v>1.8812836509346411</v>
       </c>
       <c r="I75" t="n">
-        <v>0.291722039445016</v>
+        <v>0.07348476858637275</v>
       </c>
       <c r="J75" t="n">
-        <v>-1.46810058920118</v>
+        <v>-1.1809496585044188</v>
       </c>
       <c r="K75" t="n">
-        <v>7.09685890920502E-7</v>
+        <v>0.33121572350763395</v>
       </c>
       <c r="L75" t="n">
-        <v>1.5223704338473558</v>
+        <v>-5.084503910050918</v>
       </c>
       <c r="M75" t="n">
-        <v>1.7444196849582335E-8</v>
+        <v>3.4933404439288455E-14</v>
       </c>
       <c r="N75" t="n">
-        <v>2.0951718351090776</v>
+        <v>-6.895307554816378</v>
       </c>
       <c r="O75" t="n">
-        <v>4.845380930524875E-16</v>
+        <v>2.7355657304972347E-16</v>
       </c>
       <c r="P75" t="n">
-        <v>0.5779434128367056</v>
+        <v>-7.154279272944641</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.051385944024031696</v>
+        <v>7.071271979953299E-14</v>
       </c>
       <c r="R75" t="n">
-        <v>0.5728014012617214</v>
+        <v>-1.8108036447654607</v>
       </c>
       <c r="S75" t="n">
-        <v>0.0655587778993764</v>
+        <v>0.09667763731403885</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.9444270210106505</v>
+        <v>-2.0697753628937234</v>
       </c>
       <c r="U75" t="n">
-        <v>0.0032219000909662304</v>
+        <v>0.07114064817499899</v>
       </c>
       <c r="V75" t="n">
-        <v>-1.517228422272372</v>
+        <v>-0.2589717181282628</v>
       </c>
       <c r="W75" t="n">
-        <v>2.3253672545603286E-6</v>
+        <v>0.861656908321537</v>
       </c>
       <c r="X75" t="n">
-        <v>0.8091311432112881</v>
+        <v>-0.14518574856427702</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.10573884659957694</v>
+        <v>0.9620668335804935</v>
       </c>
       <c r="Z75" t="n">
-        <v>-0.3314353223708868</v>
+        <v>-3.207419058003337</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.4957754590287353</v>
+        <v>0.010190732170223723</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.22545536194611146</v>
+        <v>-5.135637222613105</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.6335589020189</v>
+        <v>7.984686210083519E-6</v>
       </c>
       <c r="AD75" t="n">
-        <v>-1.1405664655821748</v>
+        <v>-3.06223330943906</v>
       </c>
       <c r="AE75" t="n">
-        <v>0.010538444520414782</v>
+        <v>0.061557942061398266</v>
       </c>
       <c r="AF75" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>6.0</v>
       </c>
-      <c r="AH75" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>70.0</v>
-      </c>
       <c r="AK75" t="n">
-        <v>58.0</v>
+        <v>78.0</v>
       </c>
       <c r="AL75" t="n">
-        <v>274.0</v>
+        <v>276.0</v>
       </c>
     </row>
     <row r="76">
@@ -9343,113 +9331,113 @@
       <c r="B76" t="s">
         <v>111</v>
       </c>
-      <c r="C76" t="e">
-        <v>#N/A</v>
+      <c r="C76" t="n">
+        <v>1.05369344E8</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E76" t="n">
-        <v>2.4564713296201353</v>
+        <v>5.782731313724447</v>
       </c>
       <c r="F76" t="n">
-        <v>4.159081066460438</v>
+        <v>-1.4166681830717662</v>
       </c>
       <c r="G76" t="n">
-        <v>2.770116216691369E-6</v>
+        <v>1.9771511671947694E-4</v>
       </c>
       <c r="H76" t="n">
-        <v>4.334956303912235</v>
+        <v>-0.6315582873057551</v>
       </c>
       <c r="I76" t="n">
-        <v>8.837515142131076E-4</v>
+        <v>0.10785584501841594</v>
       </c>
       <c r="J76" t="n">
-        <v>2.9175959672977814</v>
+        <v>-0.9629347645263667</v>
       </c>
       <c r="K76" t="n">
-        <v>0.04575326577435824</v>
+        <v>0.018317388659270153</v>
       </c>
       <c r="L76" t="n">
-        <v>-1.271449681971073</v>
+        <v>1.5031825168678046</v>
       </c>
       <c r="M76" t="n">
-        <v>0.2725850559992458</v>
+        <v>0.0011618934676120084</v>
       </c>
       <c r="N76" t="n">
-        <v>-3.1068525017685196</v>
+        <v>1.220950200260759</v>
       </c>
       <c r="O76" t="n">
-        <v>0.00391126825665141</v>
+        <v>0.0073771096826557156</v>
       </c>
       <c r="P76" t="n">
-        <v>-2.5906788428893672</v>
+        <v>1.3521534194244673</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.02552270127035768</v>
+        <v>0.005323186533862665</v>
       </c>
       <c r="R76" t="n">
-        <v>-1.8354028197974463</v>
+        <v>-0.2822323166070455</v>
       </c>
       <c r="S76" t="n">
-        <v>0.1429196450794559</v>
+        <v>0.5513259927743852</v>
       </c>
       <c r="T76" t="n">
-        <v>-1.319229160918294</v>
+        <v>-0.1510290974433373</v>
       </c>
       <c r="U76" t="n">
-        <v>0.3173385250235123</v>
+        <v>0.7647728970086146</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5161736588791525</v>
+        <v>0.13120321916370825</v>
       </c>
       <c r="W76" t="n">
-        <v>0.7350043950095858</v>
+        <v>0.8090683768716389</v>
       </c>
       <c r="X76" t="n">
-        <v>0.17587523745179803</v>
+        <v>0.7851098957660111</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.9694882298521195</v>
+        <v>0.3623714837897846</v>
       </c>
       <c r="Z76" t="n">
-        <v>-1.2414850991626556</v>
+        <v>0.45373341854539945</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.580312930375638</v>
+        <v>0.5384918630298781</v>
       </c>
       <c r="AB76" t="n">
-        <v>-1.0096716023004415</v>
+        <v>1.9528431494918062</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.6278714085126714</v>
+        <v>0.0027687816809642395</v>
       </c>
       <c r="AD76" t="n">
-        <v>-1.4173603366144536</v>
+        <v>-0.33137647722061164</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.5540871882863292</v>
+        <v>0.639264197049683</v>
       </c>
       <c r="AF76" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG76" t="n">
-        <v>81.0</v>
+        <v>62.0</v>
       </c>
       <c r="AH76" t="n">
-        <v>21.0</v>
+        <v>70.0</v>
       </c>
       <c r="AI76" t="n">
-        <v>81.0</v>
+        <v>63.0</v>
       </c>
       <c r="AJ76" t="n">
-        <v>33.0</v>
+        <v>61.0</v>
       </c>
       <c r="AK76" t="n">
-        <v>61.0</v>
+        <v>22.0</v>
       </c>
       <c r="AL76" t="n">
-        <v>277.0</v>
+        <v>278.0</v>
       </c>
     </row>
     <row r="77">
@@ -9463,109 +9451,109 @@
         <v>#N/A</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E77" t="n">
-        <v>7.642438544813711</v>
+        <v>4.1593353268289865</v>
       </c>
       <c r="F77" t="n">
-        <v>2.0264693994989185</v>
+        <v>-1.9402075109024368</v>
       </c>
       <c r="G77" t="n">
-        <v>6.817375852245678E-9</v>
+        <v>1.6794177350421333E-4</v>
       </c>
       <c r="H77" t="n">
-        <v>1.8812836509346411</v>
+        <v>-0.6115747134252693</v>
       </c>
       <c r="I77" t="n">
-        <v>0.07348476858637275</v>
+        <v>0.28687508920702676</v>
       </c>
       <c r="J77" t="n">
-        <v>-1.1809496585044188</v>
+        <v>-2.2885170917433757</v>
       </c>
       <c r="K77" t="n">
-        <v>0.33121572350763395</v>
+        <v>2.8120668758989594E-6</v>
       </c>
       <c r="L77" t="n">
-        <v>-5.084503910050918</v>
+        <v>1.231454560999903</v>
       </c>
       <c r="M77" t="n">
-        <v>3.4933404439288455E-14</v>
+        <v>0.08013125814483038</v>
       </c>
       <c r="N77" t="n">
-        <v>-6.895307554816378</v>
+        <v>1.3835902455270295</v>
       </c>
       <c r="O77" t="n">
-        <v>2.7355657304972347E-16</v>
+        <v>0.02938728197492748</v>
       </c>
       <c r="P77" t="n">
-        <v>-7.154279272944641</v>
+        <v>0.19143856874502646</v>
       </c>
       <c r="Q77" t="n">
-        <v>7.071271979953299E-14</v>
+        <v>0.8344670858296708</v>
       </c>
       <c r="R77" t="n">
-        <v>-1.8108036447654607</v>
+        <v>0.15213568452712634</v>
       </c>
       <c r="S77" t="n">
-        <v>0.09667763731403885</v>
+        <v>0.8295105146053455</v>
       </c>
       <c r="T77" t="n">
-        <v>-2.0697753628937234</v>
+        <v>-1.0400159922548768</v>
       </c>
       <c r="U77" t="n">
-        <v>0.07114064817499899</v>
+        <v>0.20765297965301568</v>
       </c>
       <c r="V77" t="n">
-        <v>-0.2589717181282628</v>
+        <v>-1.192151676782003</v>
       </c>
       <c r="W77" t="n">
-        <v>0.861656908321537</v>
+        <v>0.15168153860397035</v>
       </c>
       <c r="X77" t="n">
-        <v>-0.14518574856427702</v>
+        <v>1.3286327974771674</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.9620668335804935</v>
+        <v>0.23574433788103924</v>
       </c>
       <c r="Z77" t="n">
-        <v>-3.207419058003337</v>
+        <v>-0.34830958084093905</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.010190732170223723</v>
+        <v>0.736377136930901</v>
       </c>
       <c r="AB77" t="n">
-        <v>-5.135637222613105</v>
+        <v>-1.2356858715338692</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.984686210083519E-6</v>
+        <v>0.22813443885929038</v>
       </c>
       <c r="AD77" t="n">
-        <v>-3.06223330943906</v>
+        <v>-1.6769423783181066</v>
       </c>
       <c r="AE77" t="n">
-        <v>0.061557942061398266</v>
+        <v>0.034858988382581634</v>
       </c>
       <c r="AF77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG77" t="n">
-        <v>59.0</v>
+        <v>71.0</v>
       </c>
       <c r="AH77" t="n">
         <v>55.0</v>
       </c>
       <c r="AI77" t="n">
-        <v>82.0</v>
+        <v>30.0</v>
       </c>
       <c r="AJ77" t="n">
-        <v>6.0</v>
+        <v>66.0</v>
       </c>
       <c r="AK77" t="n">
-        <v>79.0</v>
+        <v>65.0</v>
       </c>
       <c r="AL77" t="n">
-        <v>281.0</v>
+        <v>287.0</v>
       </c>
     </row>
     <row r="78">
@@ -9576,112 +9564,112 @@
         <v>113</v>
       </c>
       <c r="C78" t="n">
-        <v>1.05369344E8</v>
+        <v>54742.0</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="E78" t="n">
-        <v>5.782731313724447</v>
+        <v>3.2177338262704422</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.4166681830717662</v>
+        <v>3.324032334898178</v>
       </c>
       <c r="G78" t="n">
-        <v>1.9771511671947694E-4</v>
+        <v>2.398358882164698E-12</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.6315582873057551</v>
+        <v>4.242521658928786</v>
       </c>
       <c r="I78" t="n">
-        <v>0.10785584501841594</v>
+        <v>2.8906955509937444E-6</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.9629347645263667</v>
+        <v>3.1601658576975655</v>
       </c>
       <c r="K78" t="n">
-        <v>0.018317388659270153</v>
+        <v>0.0016657189492189836</v>
       </c>
       <c r="L78" t="n">
-        <v>1.5031825168678046</v>
+        <v>-2.0427506605082884</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0011618934676120084</v>
+        <v>1.1316031164471621E-4</v>
       </c>
       <c r="N78" t="n">
-        <v>1.220950200260759</v>
+        <v>-3.1824747982321107</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0073771096826557156</v>
+        <v>7.519214091315528E-8</v>
       </c>
       <c r="P78" t="n">
-        <v>1.3521534194244673</v>
+        <v>-1.5597130036731421</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.005323186533862665</v>
+        <v>0.004478299078339332</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.2822323166070455</v>
+        <v>-1.1397241377238219</v>
       </c>
       <c r="S78" t="n">
-        <v>0.5513259927743852</v>
+        <v>0.11623582501956749</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.1510290974433373</v>
+        <v>0.4830376568351463</v>
       </c>
       <c r="U78" t="n">
-        <v>0.7647728970086146</v>
+        <v>0.47707942508429557</v>
       </c>
       <c r="V78" t="n">
-        <v>0.13120321916370825</v>
+        <v>1.6227617945589683</v>
       </c>
       <c r="W78" t="n">
-        <v>0.8090683768716389</v>
+        <v>0.028005104524201963</v>
       </c>
       <c r="X78" t="n">
-        <v>0.7851098957660111</v>
+        <v>0.9184893240306085</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.3623714837897846</v>
+        <v>0.642109173005747</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.45373341854539945</v>
+        <v>-0.1638664772006123</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.5384918630298781</v>
+        <v>0.9267436501077903</v>
       </c>
       <c r="AB78" t="n">
-        <v>1.9528431494918062</v>
+        <v>0.45318781586236745</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.0027687816809642395</v>
+        <v>0.7334321519291944</v>
       </c>
       <c r="AD78" t="n">
-        <v>-0.33137647722061164</v>
+        <v>-1.0823558012312209</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.639264197049683</v>
+        <v>0.5180023883562868</v>
       </c>
       <c r="AF78" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG78" t="n">
-        <v>62.0</v>
+        <v>77.0</v>
       </c>
       <c r="AH78" t="n">
-        <v>72.0</v>
+        <v>31.0</v>
       </c>
       <c r="AI78" t="n">
-        <v>65.0</v>
+        <v>52.0</v>
       </c>
       <c r="AJ78" t="n">
-        <v>63.0</v>
+        <v>73.0</v>
       </c>
       <c r="AK78" t="n">
-        <v>22.0</v>
+        <v>55.0</v>
       </c>
       <c r="AL78" t="n">
-        <v>284.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="79">
@@ -9695,109 +9683,109 @@
         <v>#N/A</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="E79" t="n">
-        <v>4.1593353268289865</v>
+        <v>8.7321109049395</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.9402075109024368</v>
+        <v>-1.8741229880299277</v>
       </c>
       <c r="G79" t="n">
-        <v>1.6794177350421333E-4</v>
+        <v>2.363722781430466E-6</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.6115747134252693</v>
+        <v>-1.0333917037767617</v>
       </c>
       <c r="I79" t="n">
-        <v>0.28687508920702676</v>
+        <v>0.017038797290086848</v>
       </c>
       <c r="J79" t="n">
-        <v>-2.2885170917433757</v>
+        <v>-1.7381972459133934</v>
       </c>
       <c r="K79" t="n">
-        <v>2.8120668758989594E-6</v>
+        <v>8.990426024423671E-5</v>
       </c>
       <c r="L79" t="n">
-        <v>1.231454560999903</v>
+        <v>1.5219732116543205</v>
       </c>
       <c r="M79" t="n">
-        <v>0.08013125814483038</v>
+        <v>0.0025716099399312412</v>
       </c>
       <c r="N79" t="n">
-        <v>1.3835902455270295</v>
+        <v>1.1164594374310823</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02938728197492748</v>
+        <v>0.026558625588155072</v>
       </c>
       <c r="P79" t="n">
-        <v>0.19143856874502646</v>
+        <v>2.0180988440374845</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.8344670858296708</v>
+        <v>4.058888199928723E-5</v>
       </c>
       <c r="R79" t="n">
-        <v>0.15213568452712634</v>
+        <v>-0.40551377422323825</v>
       </c>
       <c r="S79" t="n">
-        <v>0.8295105146053455</v>
+        <v>0.4380411672562217</v>
       </c>
       <c r="T79" t="n">
-        <v>-1.0400159922548768</v>
+        <v>0.49612563238316376</v>
       </c>
       <c r="U79" t="n">
-        <v>0.20765297965301568</v>
+        <v>0.32612800052729995</v>
       </c>
       <c r="V79" t="n">
-        <v>-1.192151676782003</v>
+        <v>0.9016394066064018</v>
       </c>
       <c r="W79" t="n">
-        <v>0.15168153860397035</v>
+        <v>0.08011063269125182</v>
       </c>
       <c r="X79" t="n">
-        <v>1.3286327974771674</v>
+        <v>0.840731284253166</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.23574433788103924</v>
+        <v>0.37221134828340935</v>
       </c>
       <c r="Z79" t="n">
-        <v>-0.34830958084093905</v>
+        <v>0.13592574211653405</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.736377136930901</v>
+        <v>0.8825141908747965</v>
       </c>
       <c r="AB79" t="n">
-        <v>-1.2356858715338692</v>
+        <v>1.6064890764446516</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.22813443885929038</v>
+        <v>0.014784994759663262</v>
       </c>
       <c r="AD79" t="n">
-        <v>-1.6769423783181066</v>
+        <v>-0.704805542136632</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.034858988382581634</v>
+        <v>0.3331485831352473</v>
       </c>
       <c r="AF79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG79" t="n">
-        <v>71.0</v>
+        <v>57.0</v>
       </c>
       <c r="AH79" t="n">
         <v>57.0</v>
       </c>
       <c r="AI79" t="n">
-        <v>32.0</v>
+        <v>58.0</v>
       </c>
       <c r="AJ79" t="n">
-        <v>68.0</v>
+        <v>77.0</v>
       </c>
       <c r="AK79" t="n">
-        <v>66.0</v>
+        <v>43.0</v>
       </c>
       <c r="AL79" t="n">
-        <v>294.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="80">
@@ -9808,112 +9796,112 @@
         <v>115</v>
       </c>
       <c r="C80" t="n">
-        <v>54742.0</v>
+        <v>3355.0</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E80" t="n">
-        <v>3.2177338262704422</v>
+        <v>3.1270637322423522</v>
       </c>
       <c r="F80" t="n">
-        <v>3.324032334898178</v>
+        <v>-2.1758028844869637</v>
       </c>
       <c r="G80" t="n">
-        <v>2.398358882164698E-12</v>
+        <v>0.001614697751445515</v>
       </c>
       <c r="H80" t="n">
-        <v>4.242521658928786</v>
+        <v>-1.1840225003980682</v>
       </c>
       <c r="I80" t="n">
-        <v>2.8906955509937444E-6</v>
+        <v>0.1475562476527711</v>
       </c>
       <c r="J80" t="n">
-        <v>3.1601658576975655</v>
+        <v>-2.7730185813200303</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0016657189492189836</v>
+        <v>5.4395958530336806E-5</v>
       </c>
       <c r="L80" t="n">
-        <v>-2.0427506605082884</v>
+        <v>1.0249669881041688</v>
       </c>
       <c r="M80" t="n">
-        <v>1.1316031164471621E-4</v>
+        <v>0.32454207898873627</v>
       </c>
       <c r="N80" t="n">
-        <v>-3.1824747982321107</v>
+        <v>1.881729232964644</v>
       </c>
       <c r="O80" t="n">
-        <v>7.519214091315528E-8</v>
+        <v>0.023853085454323422</v>
       </c>
       <c r="P80" t="n">
-        <v>-1.5597130036731421</v>
+        <v>-1.4974062917011026</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.004478299078339332</v>
+        <v>0.21140389943325297</v>
       </c>
       <c r="R80" t="n">
-        <v>-1.1397241377238219</v>
+        <v>0.8567622448604751</v>
       </c>
       <c r="S80" t="n">
-        <v>0.11623582501956749</v>
+        <v>0.3392357413089812</v>
       </c>
       <c r="T80" t="n">
-        <v>0.4830376568351463</v>
+        <v>-2.5223732798052714</v>
       </c>
       <c r="U80" t="n">
-        <v>0.47707942508429557</v>
+        <v>0.032021930915873464</v>
       </c>
       <c r="V80" t="n">
-        <v>1.6227617945589683</v>
+        <v>-3.3791355246657466</v>
       </c>
       <c r="W80" t="n">
-        <v>0.028005104524201963</v>
+        <v>0.0030775828059473637</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9184893240306085</v>
+        <v>0.9917803840888956</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.642109173005747</v>
+        <v>0.6118661587792437</v>
       </c>
       <c r="Z80" t="n">
-        <v>-0.1638664772006123</v>
+        <v>-0.597215696833067</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.9267436501077903</v>
+        <v>0.6629117516953404</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.45318781586236745</v>
+        <v>-1.4694305078730832</v>
       </c>
       <c r="AC80" t="n">
-        <v>0.7334321519291944</v>
+        <v>0.3303457916223215</v>
       </c>
       <c r="AD80" t="n">
-        <v>-1.0823558012312209</v>
+        <v>-1.5889960809219628</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.5180023883562868</v>
+        <v>0.18233690970671165</v>
       </c>
       <c r="AF80" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG80" t="n">
         <v>78.0</v>
       </c>
       <c r="AH80" t="n">
-        <v>32.0</v>
+        <v>51.0</v>
       </c>
       <c r="AI80" t="n">
-        <v>54.0</v>
+        <v>48.0</v>
       </c>
       <c r="AJ80" t="n">
-        <v>75.0</v>
+        <v>52.0</v>
       </c>
       <c r="AK80" t="n">
-        <v>56.0</v>
+        <v>64.0</v>
       </c>
       <c r="AL80" t="n">
-        <v>295.0</v>
+        <v>293.0</v>
       </c>
     </row>
     <row r="81">
@@ -9927,109 +9915,109 @@
         <v>#N/A</v>
       </c>
       <c r="D81" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" t="n">
+        <v>16.376104788680212</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.1142323779927794</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03827740166222276</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.478811504140116</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.06838667555678293</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9544096339588656</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.26753879304212896</v>
+      </c>
+      <c r="L81" t="n">
+        <v>-2.2843990890406607</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.0014051055078366582</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-2.016521179217429</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0031123397973684117</v>
+      </c>
+      <c r="P81" t="n">
+        <v>-2.955849441652325</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>9.073656984885401E-5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.2678779098232319</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.773279190159557</v>
+      </c>
+      <c r="T81" t="n">
+        <v>-0.6714503526116643</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.45380170708483764</v>
+      </c>
+      <c r="V81" t="n">
+        <v>-0.9393282624348964</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.3031088095923936</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.3645791261473365</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.8698476299923061</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>-0.15982274403391383</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.9156447551899515</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>-1.2720035045540323</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.2675406888608426</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>-0.5244018701812504</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0.7211646707976154</v>
+      </c>
+      <c r="AF81" t="s">
         <v>187</v>
       </c>
-      <c r="E81" t="n">
-        <v>8.7321109049395</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-1.8741229880299277</v>
-      </c>
-      <c r="G81" t="n">
-        <v>2.363722781430466E-6</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-1.0333917037767617</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.017038797290086848</v>
-      </c>
-      <c r="J81" t="n">
-        <v>-1.7381972459133934</v>
-      </c>
-      <c r="K81" t="n">
-        <v>8.990426024423671E-5</v>
-      </c>
-      <c r="L81" t="n">
-        <v>1.5219732116543205</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.0025716099399312412</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1.1164594374310823</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.026558625588155072</v>
-      </c>
-      <c r="P81" t="n">
-        <v>2.0180988440374845</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>4.058888199928723E-5</v>
-      </c>
-      <c r="R81" t="n">
-        <v>-0.40551377422323825</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.4380411672562217</v>
-      </c>
-      <c r="T81" t="n">
-        <v>0.49612563238316376</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0.32612800052729995</v>
-      </c>
-      <c r="V81" t="n">
-        <v>0.9016394066064018</v>
-      </c>
-      <c r="W81" t="n">
-        <v>0.08011063269125182</v>
-      </c>
-      <c r="X81" t="n">
-        <v>0.840731284253166</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>0.37221134828340935</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>0.13592574211653405</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>0.8825141908747965</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>1.6064890764446516</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0.014784994759663262</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>-0.704805542136632</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>0.3331485831352473</v>
-      </c>
-      <c r="AF81" t="s">
-        <v>191</v>
-      </c>
       <c r="AG81" t="n">
-        <v>57.0</v>
+        <v>47.0</v>
       </c>
       <c r="AH81" t="n">
-        <v>59.0</v>
+        <v>78.0</v>
       </c>
       <c r="AI81" t="n">
-        <v>60.0</v>
+        <v>73.0</v>
       </c>
       <c r="AJ81" t="n">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
       <c r="AK81" t="n">
-        <v>43.0</v>
+        <v>31.0</v>
       </c>
       <c r="AL81" t="n">
-        <v>298.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="82">
@@ -10040,344 +10028,112 @@
         <v>117</v>
       </c>
       <c r="C82" t="n">
-        <v>3355.0</v>
+        <v>283601.0</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E82" t="n">
-        <v>3.1270637322423522</v>
+        <v>4.6918107217368785</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.1758028844869637</v>
+        <v>1.108756828891339</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001614697751445515</v>
+        <v>0.004751756460444334</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.1840225003980682</v>
+        <v>0.21819915973927279</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1475562476527711</v>
+        <v>0.7392471241781425</v>
       </c>
       <c r="J82" t="n">
-        <v>-2.7730185813200303</v>
+        <v>0.8869091883371883</v>
       </c>
       <c r="K82" t="n">
-        <v>5.4395958530336806E-5</v>
+        <v>0.18240621218483366</v>
       </c>
       <c r="L82" t="n">
-        <v>1.0249669881041688</v>
+        <v>-1.5230761017669152</v>
       </c>
       <c r="M82" t="n">
-        <v>0.32454207898873627</v>
+        <v>0.004971306206532464</v>
       </c>
       <c r="N82" t="n">
-        <v>1.881729232964644</v>
+        <v>-1.309577542393435</v>
       </c>
       <c r="O82" t="n">
-        <v>0.023853085454323422</v>
+        <v>0.009118386612684952</v>
       </c>
       <c r="P82" t="n">
-        <v>-1.4974062917011026</v>
+        <v>0.18862934368332723</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.21140389943325297</v>
+        <v>0.7231305098843911</v>
       </c>
       <c r="R82" t="n">
-        <v>0.8567622448604751</v>
+        <v>0.2134985593734804</v>
       </c>
       <c r="S82" t="n">
-        <v>0.3392357413089812</v>
+        <v>0.7605459169872196</v>
       </c>
       <c r="T82" t="n">
-        <v>-2.5223732798052714</v>
+        <v>1.7117054454502425</v>
       </c>
       <c r="U82" t="n">
-        <v>0.032021930915873464</v>
+        <v>0.003097006134216569</v>
       </c>
       <c r="V82" t="n">
-        <v>-3.3791355246657466</v>
+        <v>1.4982068860767623</v>
       </c>
       <c r="W82" t="n">
-        <v>0.0030775828059473637</v>
+        <v>0.009821317551758664</v>
       </c>
       <c r="X82" t="n">
-        <v>0.9917803840888956</v>
+        <v>-0.8905576691520662</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.6118661587792437</v>
+        <v>0.4539527747381789</v>
       </c>
       <c r="Z82" t="n">
-        <v>-0.597215696833067</v>
+        <v>-0.22184764055415074</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.6629117516953404</v>
+        <v>0.8395909837953267</v>
       </c>
       <c r="AB82" t="n">
-        <v>-1.4694305078730832</v>
+        <v>1.2720915249051465</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.3303457916223215</v>
+        <v>0.11821812241753551</v>
       </c>
       <c r="AD82" t="n">
-        <v>-1.5889960809219628</v>
+        <v>0.6687100285979155</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.18233690970671165</v>
+        <v>0.5274233465038823</v>
       </c>
       <c r="AF82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG82" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="AH82" t="n">
         <v>79.0</v>
       </c>
-      <c r="AH82" t="n">
-        <v>53.0</v>
-      </c>
       <c r="AI82" t="n">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="AJ82" t="n">
-        <v>54.0</v>
+        <v>72.0</v>
       </c>
       <c r="AK82" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="AL82" t="n">
-        <v>301.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D83" t="s">
-        <v>189</v>
-      </c>
-      <c r="E83" t="n">
-        <v>16.376104788680212</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1.1142323779927794</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.03827740166222276</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1.478811504140116</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.06838667555678293</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.9544096339588656</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.26753879304212896</v>
-      </c>
-      <c r="L83" t="n">
-        <v>-2.2843990890406607</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.0014051055078366582</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.016521179217429</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.0031123397973684117</v>
-      </c>
-      <c r="P83" t="n">
-        <v>-2.955849441652325</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>9.073656984885401E-5</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.2678779098232319</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.773279190159557</v>
-      </c>
-      <c r="T83" t="n">
-        <v>-0.6714503526116643</v>
-      </c>
-      <c r="U83" t="n">
-        <v>0.45380170708483764</v>
-      </c>
-      <c r="V83" t="n">
-        <v>-0.9393282624348964</v>
-      </c>
-      <c r="W83" t="n">
-        <v>0.3031088095923936</v>
-      </c>
-      <c r="X83" t="n">
-        <v>0.3645791261473365</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>0.8698476299923061</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>-0.15982274403391383</v>
-      </c>
-      <c r="AA83" t="n">
-        <v>0.9156447551899515</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>-1.2720035045540323</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>0.2675406888608426</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>-0.5244018701812504</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>0.7211646707976154</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>309.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" t="n">
-        <v>283601.0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>190</v>
-      </c>
-      <c r="E84" t="n">
-        <v>4.6918107217368785</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1.108756828891339</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.004751756460444334</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.21819915973927279</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.7392471241781425</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.8869091883371883</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.18240621218483366</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-1.5230761017669152</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.004971306206532464</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-1.309577542393435</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.009118386612684952</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0.18862934368332723</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.7231305098843911</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.2134985593734804</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.7605459169872196</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1.7117054454502425</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0.003097006134216569</v>
-      </c>
-      <c r="V84" t="n">
-        <v>1.4982068860767623</v>
-      </c>
-      <c r="W84" t="n">
-        <v>0.009821317551758664</v>
-      </c>
-      <c r="X84" t="n">
-        <v>-0.8905576691520662</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>0.4539527747381789</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>-0.22184764055415074</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>0.8395909837953267</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>1.2720915249051465</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>0.11821812241753551</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0.6687100285979155</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>0.5274233465038823</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>318.0</v>
+        <v>312.0</v>
       </c>
     </row>
   </sheetData>
